--- a/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.002104564580150384</v>
+        <v>0.002072343935685872</v>
       </c>
       <c r="F2">
         <v>0.5276120390805277</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>112</v>
       </c>
       <c r="E4">
-        <v>0.001111476530960229</v>
+        <v>0.001110593962733862</v>
       </c>
       <c r="F4">
         <v>0.5591807242535035</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.002352730592774175</v>
+        <v>0.002328746741080974</v>
       </c>
       <c r="F5">
         <v>0.5061294289485281</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>0.002006351568173049</v>
+        <v>0.001980113613873071</v>
       </c>
       <c r="F6">
         <v>0.5574194820865238</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>118</v>
       </c>
       <c r="E2">
-        <v>0.002104564580150384</v>
+        <v>0.002072343935685872</v>
       </c>
       <c r="F2">
         <v>0.711174590894827</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>122</v>
       </c>
       <c r="E4">
-        <v>0.001111476530960229</v>
+        <v>0.001110593962733862</v>
       </c>
       <c r="F4">
         <v>0.7007642096348671</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.002352730592774175</v>
+        <v>0.002328746741080974</v>
       </c>
       <c r="F5">
         <v>0.7018520729448695</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>128</v>
       </c>
       <c r="E6">
-        <v>0.002006351568173049</v>
+        <v>0.001980113613873071</v>
       </c>
       <c r="F6">
         <v>0.7134198384466757</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>134</v>
       </c>
       <c r="E2">
-        <v>0.002104564580150384</v>
+        <v>0.002072343935685872</v>
       </c>
       <c r="F2">
         <v>0.800983942369589</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>136</v>
       </c>
       <c r="E4">
-        <v>0.001111476530960229</v>
+        <v>0.001110593962733862</v>
       </c>
       <c r="F4">
         <v>0.8609438422838981</v>
       </c>
       <c r="G4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>135</v>
       </c>
       <c r="E5">
-        <v>0.002352730592774175</v>
+        <v>0.002328746741080974</v>
       </c>
       <c r="F5">
         <v>0.8087449135875104</v>
       </c>
       <c r="G5">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>136</v>
       </c>
       <c r="E6">
-        <v>0.002006351568173049</v>
+        <v>0.001980113613873071</v>
       </c>
       <c r="F6">
         <v>0.8324810612895513</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>138</v>
       </c>
       <c r="E2">
-        <v>0.002104564580150384</v>
+        <v>0.002072343935685872</v>
       </c>
       <c r="F2">
         <v>0.9008919199691776</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>140</v>
       </c>
       <c r="E4">
-        <v>0.001111476530960229</v>
+        <v>0.001110593962733862</v>
       </c>
       <c r="F4">
         <v>0.9048688338961748</v>
       </c>
       <c r="G4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.002352730592774175</v>
+        <v>0.002328746741080974</v>
       </c>
       <c r="F5">
         <v>0.9026706849360241</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.002006351568173049</v>
+        <v>0.001980113613873071</v>
       </c>
       <c r="F6">
         <v>0.9021086142992996</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>54</v>

--- a/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.612974523335098E-05</v>
+        <v>4.428648002264045E-05</v>
       </c>
       <c r="C2">
-        <v>2.535504157861424E-05</v>
+        <v>2.350454361426536E-05</v>
       </c>
       <c r="D2">
-        <v>9.244533246361338E-05</v>
+        <v>9.061819211502456E-05</v>
       </c>
       <c r="E2">
-        <v>7.253981879443121E-05</v>
+        <v>7.070574830239454E-05</v>
       </c>
       <c r="F2">
-        <v>3.76161073748426E-05</v>
+        <v>3.576987812448943E-05</v>
       </c>
       <c r="G2">
-        <v>7.280721878998718E-05</v>
+        <v>7.097324139378105E-05</v>
       </c>
       <c r="H2">
-        <v>8.247587862929979E-05</v>
+        <v>8.064526739589401E-05</v>
       </c>
       <c r="I2">
-        <v>4.381610927180224E-05</v>
+        <v>4.197203856421451E-05</v>
       </c>
       <c r="J2">
-        <v>1.807289669963917E-05</v>
+        <v>1.621986344233286E-05</v>
       </c>
       <c r="K2">
-        <v>1.116630481442263E-05</v>
+        <v>9.310867013666916E-06</v>
       </c>
       <c r="L2">
-        <v>3.545960141068245E-06</v>
+        <v>1.687869302436382E-06</v>
       </c>
       <c r="M2">
-        <v>1.441274776046868E-05</v>
+        <v>1.255844021516305E-05</v>
       </c>
       <c r="N2">
-        <v>7.732607371488649E-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.858678269109869E-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.708096854993036E-06</v>
+        <v>8.497143126222643E-07</v>
       </c>
       <c r="Q2">
-        <v>3.538592341190693E-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.355386377757839E-06</v>
+        <v>5.498621798307882E-06</v>
       </c>
       <c r="S2">
-        <v>4.652683922675152E-05</v>
+        <v>4.468371226509009E-05</v>
       </c>
       <c r="T2">
-        <v>5.618150906629662E-05</v>
+        <v>5.434174339678981E-05</v>
       </c>
       <c r="U2">
-        <v>4.934977117983606E-05</v>
+        <v>4.750762702744564E-05</v>
       </c>
       <c r="V2">
-        <v>4.4621206258422E-05</v>
+        <v>4.277741584692205E-05</v>
       </c>
       <c r="W2">
-        <v>5.180333713905925E-05</v>
+        <v>4.996204720044793E-05</v>
       </c>
       <c r="X2">
-        <v>0.0001137085781102308</v>
+        <v>0.0001118888406021287</v>
       </c>
       <c r="Y2">
-        <v>3.569070740684161E-05</v>
+        <v>3.384380782473039E-05</v>
       </c>
       <c r="Z2">
-        <v>2.875671252208048E-05</v>
+        <v>2.690739885611206E-05</v>
       </c>
       <c r="AA2">
-        <v>5.385507310496061E-05</v>
+        <v>5.201449748223168E-05</v>
       </c>
       <c r="AB2">
-        <v>6.572465890769514E-05</v>
+        <v>6.388821570443785E-05</v>
       </c>
       <c r="AC2">
-        <v>2.13945296444356E-05</v>
+        <v>1.954265282012425E-05</v>
       </c>
       <c r="AD2">
-        <v>9.155126347847228E-06</v>
+        <v>7.298988351381707E-06</v>
       </c>
       <c r="AE2">
-        <v>1.832176869550307E-05</v>
+        <v>1.646882208346802E-05</v>
       </c>
       <c r="AF2">
-        <v>2.425288159693149E-08</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>7.16690838089023E-08</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.317580961483178E-06</v>
+        <v>4.590624602416303E-07</v>
       </c>
       <c r="AI2">
-        <v>2.811111853280988E-05</v>
+        <v>2.626158010203362E-05</v>
       </c>
       <c r="AJ2">
-        <v>2.244295662701137E-05</v>
+        <v>2.059144481460097E-05</v>
       </c>
       <c r="AK2">
-        <v>2.289095361956592E-05</v>
+        <v>2.103959777818316E-05</v>
       </c>
       <c r="AL2">
-        <v>4.763304920836696E-05</v>
+        <v>4.579030737587042E-05</v>
       </c>
       <c r="AM2">
-        <v>6.4746773923947E-05</v>
+        <v>6.290999026812338E-05</v>
       </c>
       <c r="AN2">
-        <v>6.678162889012892E-05</v>
+        <v>6.494555367303466E-05</v>
       </c>
       <c r="AO2">
-        <v>8.592957857190134E-05</v>
+        <v>8.410016975087363E-05</v>
       </c>
       <c r="AP2">
-        <v>7.388169877212997E-05</v>
+        <v>7.204809545822745E-05</v>
       </c>
       <c r="AQ2">
-        <v>6.729525888159269E-05</v>
+        <v>6.545936248578278E-05</v>
       </c>
       <c r="AR2">
-        <v>5.160936714228291E-05</v>
+        <v>4.976800967263851E-05</v>
       </c>
       <c r="AS2">
-        <v>3.590465240328596E-05</v>
+        <v>3.405782730654296E-05</v>
       </c>
       <c r="AT2">
-        <v>7.388169877212997E-05</v>
+        <v>7.204809545822745E-05</v>
       </c>
       <c r="AU2">
-        <v>9.747124838008564E-06</v>
+        <v>7.891192946973223E-06</v>
       </c>
       <c r="AV2">
-        <v>5.91453290170397E-06</v>
+        <v>4.057266686303172E-06</v>
       </c>
       <c r="AW2">
-        <v>5.220369913240547E-07</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>8.294084862157226E-07</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>3.248865046005789E-06</v>
+        <v>1.390670773136526E-06</v>
       </c>
       <c r="AZ2">
-        <v>8.411617860203899E-06</v>
+        <v>6.555221009806763E-06</v>
       </c>
       <c r="BA2">
-        <v>1.255488179134531E-05</v>
+        <v>1.069992742637519E-05</v>
       </c>
       <c r="BB2">
-        <v>1.858678269109869E-06</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>6.057267899331799E-06</v>
+        <v>4.200051377399105E-06</v>
       </c>
       <c r="BD2">
-        <v>1.66179577238194E-05</v>
+        <v>1.476441792666801E-05</v>
       </c>
       <c r="BE2">
-        <v>9.345922844676302E-06</v>
+        <v>7.489851274383667E-06</v>
       </c>
       <c r="BF2">
-        <v>1.13497968113731E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>4.411847926677703E-06</v>
+        <v>2.554058548568977E-06</v>
       </c>
       <c r="BH2">
-        <v>2.50556345835902E-06</v>
+        <v>6.471104035907804E-07</v>
       </c>
       <c r="BI2">
-        <v>7.421369176661243E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>8.254141862821056E-07</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>3.034299149571747E-06</v>
+        <v>1.176030175166717E-06</v>
       </c>
       <c r="BL2">
-        <v>7.732607371488649E-07</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.336095877794879E-05</v>
+        <v>1.150628505025536E-05</v>
       </c>
       <c r="BN2">
-        <v>2.529663357958495E-07</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>7.030690883154085E-06</v>
+        <v>5.173813260333739E-06</v>
       </c>
       <c r="BP2">
-        <v>3.80018423684319E-05</v>
+        <v>3.615574741246987E-05</v>
       </c>
       <c r="BQ2">
-        <v>5.539271507940591E-06</v>
+        <v>3.681874644552887E-06</v>
       </c>
       <c r="BR2">
-        <v>5.91453290170397E-06</v>
+        <v>4.057266686303172E-06</v>
       </c>
       <c r="BS2">
-        <v>1.575238073820477E-05</v>
+        <v>1.389853958873587E-05</v>
       </c>
       <c r="BT2">
-        <v>1.405772476636895E-05</v>
+        <v>1.220329361911477E-05</v>
       </c>
       <c r="BU2">
-        <v>1.907747168294373E-06</v>
+        <v>4.908598261755835E-08</v>
       </c>
       <c r="BV2">
-        <v>1.600234473405052E-05</v>
+        <v>1.41485906100348E-05</v>
       </c>
       <c r="BW2">
-        <v>3.379947943827269E-07</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>4.756984920941731E-06</v>
+        <v>2.899315702951411E-06</v>
       </c>
       <c r="BY2">
-        <v>1.538112274437486E-05</v>
+        <v>1.352715234071055E-05</v>
       </c>
       <c r="BZ2">
-        <v>1.691562871887228E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>2.358828560797668E-06</v>
+        <v>5.003244199883538E-07</v>
       </c>
       <c r="CB2">
-        <v>2.715328254872854E-06</v>
+        <v>8.569482301280692E-07</v>
       </c>
       <c r="CC2">
-        <v>2.507625458324751E-07</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.16815058058603E-05</v>
+        <v>9.826247373335641E-06</v>
       </c>
       <c r="CE2">
-        <v>1.418050276432845E-06</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>8.872621852542285E-06</v>
+        <v>7.016385501585156E-06</v>
       </c>
       <c r="CG2">
-        <v>1.56107797405581E-05</v>
+        <v>1.37568892924254E-05</v>
       </c>
       <c r="CH2">
-        <v>1.115163481466644E-05</v>
+        <v>9.296191906521667E-06</v>
       </c>
       <c r="CI2">
-        <v>5.382416910547422E-06</v>
+        <v>3.524965437925389E-06</v>
       </c>
       <c r="CJ2">
-        <v>1.233358579502312E-05</v>
+        <v>1.047855438541982E-05</v>
       </c>
       <c r="CK2">
-        <v>8.594542857163792E-06</v>
+        <v>6.738209692461495E-06</v>
       </c>
       <c r="CL2">
-        <v>2.36261016073482E-05</v>
+        <v>2.17750017091727E-05</v>
       </c>
       <c r="CM2">
-        <v>0.002023028166378471</v>
+        <v>0.00202187316221282</v>
       </c>
       <c r="CN2">
-        <v>0.08975626850830402</v>
+        <v>0.0897856580030556</v>
       </c>
       <c r="CO2">
-        <v>0.02286680161996731</v>
+        <v>0.02287290341622534</v>
       </c>
       <c r="CP2">
-        <v>0.08352654861183828</v>
+        <v>0.08355376921744487</v>
       </c>
       <c r="CQ2">
-        <v>0.009227560846643409</v>
+        <v>0.00922891411459667</v>
       </c>
       <c r="CR2">
-        <v>6.525253291554159E-05</v>
+        <v>6.341592534069834E-05</v>
       </c>
       <c r="CS2">
-        <v>0.005711709505074774</v>
+        <v>0.005711838722519048</v>
       </c>
       <c r="CT2">
-        <v>0.02779237353810723</v>
+        <v>0.02780019018184534</v>
       </c>
       <c r="CU2">
-        <v>0.04477360425588924</v>
+        <v>0.04478733294825626</v>
       </c>
       <c r="CV2">
-        <v>0.03943431634462504</v>
+        <v>0.03944618615348121</v>
       </c>
       <c r="CW2">
-        <v>0.02333810961213445</v>
+        <v>0.02334437549519014</v>
       </c>
       <c r="CX2">
-        <v>0.05038739616259134</v>
+        <v>0.05040307930757117</v>
       </c>
       <c r="CY2">
-        <v>0.002763469654072773</v>
+        <v>0.002762572436056715</v>
       </c>
       <c r="CZ2">
-        <v>0.05938914301298765</v>
+        <v>0.05940796013370863</v>
       </c>
       <c r="DA2">
-        <v>0.0009886971835684391</v>
+        <v>0.0009871820750516729</v>
       </c>
       <c r="DB2">
-        <v>0.06346319494527933</v>
+        <v>0.0634834304551348</v>
       </c>
       <c r="DC2">
-        <v>0.02169639163941883</v>
+        <v>0.021702085955157</v>
       </c>
       <c r="DD2">
-        <v>0.002663802955729174</v>
+        <v>0.002662871038557497</v>
       </c>
       <c r="DE2">
-        <v>0.0001167387430598713</v>
+        <v>0.0001149200605096125</v>
       </c>
       <c r="DF2">
-        <v>0.0002095724165170307</v>
+        <v>0.0002077860541914364</v>
       </c>
       <c r="DG2">
-        <v>0.01617305173121347</v>
+        <v>0.01617682308537871</v>
       </c>
       <c r="DH2">
-        <v>0.0009343717844712948</v>
+        <v>0.000932837762460767</v>
       </c>
       <c r="DI2">
-        <v>0.0755068087451216</v>
+        <v>0.07553123726263568</v>
       </c>
       <c r="DJ2">
-        <v>0.01657497072453381</v>
+        <v>0.01657888200758129</v>
       </c>
       <c r="DK2">
-        <v>0.01140979081037604</v>
+        <v>0.01141190382595181</v>
       </c>
       <c r="DL2">
-        <v>0.005876447402336928</v>
+        <v>0.00587663397360177</v>
       </c>
       <c r="DM2">
-        <v>0.01017574883088509</v>
+        <v>0.01017743221233632</v>
       </c>
       <c r="DN2">
-        <v>0.001011511383189281</v>
+        <v>0.001010004217480655</v>
       </c>
       <c r="DO2">
-        <v>0.02121334464744679</v>
+        <v>0.02121887078943159</v>
       </c>
       <c r="DP2">
-        <v>0.002330141561274429</v>
+        <v>0.002329093479236825</v>
       </c>
       <c r="DQ2">
-        <v>0.004250494729359297</v>
+        <v>0.004250115222026499</v>
       </c>
       <c r="DR2">
-        <v>1.726342971309203E-05</v>
+        <v>1.541011463827394E-05</v>
       </c>
       <c r="DS2">
-        <v>0.006455081392720374</v>
+        <v>0.006455469416538706</v>
       </c>
       <c r="DT2">
-        <v>9.433373243222929E-07</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001108647581574934</v>
+        <v>0.001107174234023428</v>
       </c>
       <c r="DV2">
-        <v>0.007092545182126104</v>
+        <v>0.007093155140207314</v>
       </c>
       <c r="DW2">
-        <v>0.009827132836678878</v>
+        <v>0.009828694846791086</v>
       </c>
       <c r="DX2">
-        <v>0.001627160672957554</v>
+        <v>0.001625867846751168</v>
       </c>
       <c r="DY2">
-        <v>0.007502843875307182</v>
+        <v>0.0075035966796795</v>
       </c>
       <c r="DZ2">
-        <v>0.0005292777912037169</v>
+        <v>0.0005276027349285191</v>
       </c>
       <c r="EA2">
-        <v>0.001569305273919077</v>
+        <v>0.001567992305242557</v>
       </c>
       <c r="EB2">
-        <v>0.008626047856640199</v>
+        <v>0.008627191706671583</v>
       </c>
       <c r="EC2">
-        <v>0.01783788370354495</v>
+        <v>0.01784223467221181</v>
       </c>
       <c r="ED2">
-        <v>0.001072251582179814</v>
+        <v>0.001070765563290058</v>
       </c>
       <c r="EE2">
-        <v>0.0199623306682379</v>
+        <v>0.01996742126726333</v>
       </c>
       <c r="EF2">
-        <v>0.007595503573767233</v>
+        <v>0.00759628863779448</v>
       </c>
       <c r="EG2">
-        <v>0.06848965886174246</v>
+        <v>0.06851164434482422</v>
       </c>
       <c r="EH2">
-        <v>0.0002059555565771408</v>
+        <v>0.0002041679350346968</v>
       </c>
       <c r="EI2">
-        <v>0.02361685960750179</v>
+        <v>0.02362322253791261</v>
       </c>
       <c r="EJ2">
-        <v>3.497106341880166E-05</v>
+        <v>3.312391329123095E-05</v>
       </c>
       <c r="EK2">
-        <v>0.002253770962543662</v>
+        <v>0.002252696291933003</v>
       </c>
       <c r="EL2">
-        <v>0.003617260039883283</v>
+        <v>0.003616660070657003</v>
       </c>
       <c r="EM2">
-        <v>0.01100798981705373</v>
+        <v>0.01100996294482919</v>
       </c>
       <c r="EN2">
-        <v>0.00394113093450074</v>
+        <v>0.003940643721558753</v>
       </c>
       <c r="EO2">
-        <v>0.0001398582776756383</v>
+        <v>0.0001380476442364951</v>
       </c>
       <c r="EP2">
-        <v>9.004841850344867E-05</v>
+        <v>8.822044366458485E-05</v>
       </c>
       <c r="EQ2">
-        <v>0.00132948847790469</v>
+        <v>0.001328092016542414</v>
       </c>
       <c r="ER2">
-        <v>0.0001978709167115027</v>
+        <v>0.0001960804804859049</v>
       </c>
       <c r="ES2">
-        <v>8.797693853787543E-05</v>
+        <v>8.614824250921719E-05</v>
       </c>
       <c r="ET2">
-        <v>4.120484931519983E-07</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.003251841245956327</v>
+        <v>0.00325111405546349</v>
       </c>
       <c r="EV2">
-        <v>0.003789305937023982</v>
+        <v>0.003788765865912697</v>
       </c>
       <c r="EW2">
-        <v>2.529663357958495E-07</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0005001050916885498</v>
+        <v>0.0004984198788810585</v>
       </c>
       <c r="EY2">
-        <v>0.000545374750936195</v>
+        <v>0.0005437052988489561</v>
       </c>
       <c r="EZ2">
-        <v>0.0001473755075507065</v>
+        <v>0.000145567491249821</v>
       </c>
       <c r="FA2">
-        <v>0.0004291651928675289</v>
+        <v>0.0004274552821957585</v>
       </c>
       <c r="FB2">
-        <v>0.0005505142908507788</v>
+        <v>0.0005488466281043957</v>
       </c>
       <c r="FC2">
-        <v>0.0003788413537038813</v>
+        <v>0.0003771139226892528</v>
       </c>
       <c r="FD2">
-        <v>0.0004630387623045703</v>
+        <v>0.0004613406447821348</v>
       </c>
       <c r="FE2">
-        <v>0.0003991682533660602</v>
+        <v>0.0003974478992012358</v>
       </c>
       <c r="FF2">
-        <v>0.005154696914331993</v>
+        <v>0.005154632206755276</v>
       </c>
       <c r="FG2">
-        <v>0.002981981250441239</v>
+        <v>0.002981160107664084</v>
       </c>
       <c r="FH2">
-        <v>0.001390958376883096</v>
+        <v>0.001389583316386166</v>
       </c>
       <c r="FI2">
-        <v>1.671655972218069E-07</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001370979677215131</v>
+        <v>0.001369597661094904</v>
       </c>
       <c r="FK2">
-        <v>0.0007863825869307876</v>
+        <v>0.0007847970421921989</v>
       </c>
       <c r="FL2">
-        <v>0.005526297908156205</v>
+        <v>0.00552636257419101</v>
       </c>
       <c r="FM2">
-        <v>0.0002059555565771408</v>
+        <v>0.0002041679350346968</v>
       </c>
       <c r="FN2">
-        <v>0.002003325066705925</v>
+        <v>0.002002163202867654</v>
       </c>
       <c r="FO2">
-        <v>0.0072545968794329</v>
+        <v>0.007255263256128922</v>
       </c>
       <c r="FP2">
-        <v>0.001800934670069533</v>
+        <v>0.001799702343619522</v>
       </c>
       <c r="FQ2">
-        <v>0.0002483913558718829</v>
+        <v>0.000246618508435816</v>
       </c>
       <c r="FR2">
-        <v>7.186234480569043E-06</v>
+        <v>5.329411010555824E-06</v>
       </c>
       <c r="FS2">
-        <v>0.001470440475562151</v>
+        <v>0.001469093086913058</v>
       </c>
       <c r="FT2">
-        <v>0.004781440920535287</v>
+        <v>0.004781246263155577</v>
       </c>
       <c r="FU2">
-        <v>0.001996508266819216</v>
+        <v>0.001995344029698755</v>
       </c>
       <c r="FV2">
-        <v>0.0001755926370817545</v>
+        <v>0.000173794444629607</v>
       </c>
       <c r="FW2">
-        <v>1.336095877794879E-05</v>
+        <v>1.150628505025536E-05</v>
       </c>
       <c r="FX2">
-        <v>0.0005301006511900414</v>
+        <v>0.0005284258813951544</v>
       </c>
       <c r="FY2">
-        <v>6.449401892814764E-06</v>
+        <v>4.592321893097511E-06</v>
       </c>
       <c r="FZ2">
-        <v>0.0001144254840983163</v>
+        <v>0.0001126059961824336</v>
       </c>
       <c r="GA2">
-        <v>0.00342949174300388</v>
+        <v>0.00342882640187844</v>
       </c>
       <c r="GB2">
-        <v>0.002055805865833725</v>
+        <v>0.002054662273288135</v>
       </c>
       <c r="GC2">
-        <v>1.691562871887228E-06</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001394469976824736</v>
+        <v>0.001393096138898181</v>
       </c>
       <c r="GE2">
-        <v>0.0006729341888162326</v>
+        <v>0.0006713091467963414</v>
       </c>
       <c r="GF2">
-        <v>0.0003506086641730919</v>
+        <v>0.0003488714038924811</v>
       </c>
       <c r="GG2">
-        <v>0.0003848849136034409</v>
+        <v>0.000383159586665991</v>
       </c>
       <c r="GH2">
-        <v>0.001657489472453508</v>
+        <v>0.001656207205277881</v>
       </c>
       <c r="GI2">
-        <v>5.454783909344726E-05</v>
+        <v>5.270750465854978E-05</v>
       </c>
       <c r="GJ2">
-        <v>0.0007934349568135814</v>
+        <v>0.0007918518673713365</v>
       </c>
       <c r="GK2">
-        <v>0.000177676977047114</v>
+        <v>0.0001758795102619949</v>
       </c>
       <c r="GL2">
-        <v>0.002351387160921339</v>
+        <v>0.002350346475580732</v>
       </c>
       <c r="GM2">
-        <v>4.411847926677703E-06</v>
+        <v>2.554058548568977E-06</v>
       </c>
       <c r="GN2">
-        <v>0.0001473755075507065</v>
+        <v>0.000145567491249821</v>
       </c>
       <c r="GO2">
-        <v>1.073659082156423E-05</v>
+        <v>8.881003415042914E-06</v>
       </c>
       <c r="GP2">
-        <v>0.0002271163162254615</v>
+        <v>0.0002253360618428037</v>
       </c>
       <c r="GQ2">
-        <v>0.002305978961675997</v>
+        <v>0.002304922467382167</v>
       </c>
       <c r="GR2">
-        <v>0.00668131588896049</v>
+        <v>0.006681782676760393</v>
       </c>
       <c r="GS2">
-        <v>0.005430787909743524</v>
+        <v>0.005430819323785905</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.974691634336685E-06</v>
+        <v>1.6462765549448E-07</v>
       </c>
       <c r="C3">
-        <v>5.309564823444015E-06</v>
+        <v>3.500622672579008E-06</v>
       </c>
       <c r="D3">
-        <v>6.344480789030534E-07</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.263925858214062E-06</v>
+        <v>2.45463196172674E-06</v>
       </c>
       <c r="F3">
-        <v>1.226867959203647E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.266742457877723E-05</v>
+        <v>1.086095756038586E-05</v>
       </c>
       <c r="H3">
-        <v>8.564318715215508E-06</v>
+        <v>6.75647144075738E-06</v>
       </c>
       <c r="I3">
-        <v>4.744835642222638E-07</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.810119339809115E-06</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.146423328626187E-06</v>
+        <v>3.36417119122815E-07</v>
       </c>
       <c r="L3">
-        <v>5.97934380117223E-08</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.376670587717464E-06</v>
+        <v>1.567078224773124E-06</v>
       </c>
       <c r="N3">
-        <v>2.829923805898128E-05</v>
+        <v>2.649802947313054E-05</v>
       </c>
       <c r="O3">
-        <v>1.729721942482525E-05</v>
+        <v>1.549230983698446E-05</v>
       </c>
       <c r="P3">
-        <v>1.779846740815753E-05</v>
+        <v>1.599372643662666E-05</v>
       </c>
       <c r="Q3">
-        <v>2.893937603769514E-05</v>
+        <v>2.713838278977572E-05</v>
       </c>
       <c r="R3">
-        <v>3.375972887740664E-05</v>
+        <v>3.196035716241183E-05</v>
       </c>
       <c r="S3">
-        <v>4.71052684336349E-05</v>
+        <v>4.531038606464997E-05</v>
       </c>
       <c r="T3">
-        <v>2.556767614981238E-05</v>
+        <v>2.37655486856723E-05</v>
       </c>
       <c r="U3">
-        <v>1.040473865401705E-05</v>
+        <v>8.597510483932634E-06</v>
       </c>
       <c r="V3">
-        <v>6.715536776692017E-06</v>
+        <v>4.907067584942056E-06</v>
       </c>
       <c r="W3">
-        <v>2.116027529636922E-06</v>
+        <v>3.06011095199718E-07</v>
       </c>
       <c r="X3">
-        <v>8.775718708185942E-06</v>
+        <v>6.967942547204412E-06</v>
       </c>
       <c r="Y3">
-        <v>1.979066134191222E-06</v>
+        <v>1.690036269001215E-07</v>
       </c>
       <c r="Z3">
-        <v>4.744835642222638E-07</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.88089443745567E-05</v>
+        <v>1.700454332039808E-05</v>
       </c>
       <c r="AB3">
-        <v>3.594234680482927E-06</v>
+        <v>1.784715504575172E-06</v>
       </c>
       <c r="AC3">
-        <v>2.214092926376008E-08</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.415788720154492E-06</v>
+        <v>6.607891481246603E-06</v>
       </c>
       <c r="AE3">
-        <v>3.731638475913916E-06</v>
+        <v>1.922165521680314E-06</v>
       </c>
       <c r="AF3">
-        <v>5.925916202948827E-06</v>
+        <v>4.117181388369821E-06</v>
       </c>
       <c r="AG3">
-        <v>3.168862894627577E-05</v>
+        <v>2.988856052777395E-05</v>
       </c>
       <c r="AH3">
-        <v>5.5296243161265E-05</v>
+        <v>5.350411617879372E-05</v>
       </c>
       <c r="AI3">
-        <v>1.126078362555147E-05</v>
+        <v>9.453843422998152E-06</v>
       </c>
       <c r="AJ3">
-        <v>2.931005002536932E-05</v>
+        <v>2.750918146958247E-05</v>
       </c>
       <c r="AK3">
-        <v>1.901710436763488E-05</v>
+        <v>1.721277333703959E-05</v>
       </c>
       <c r="AL3">
-        <v>3.112471296502735E-06</v>
+        <v>1.302790058767771E-06</v>
       </c>
       <c r="AM3">
-        <v>1.150300061749716E-05</v>
+        <v>9.696141895043001E-06</v>
       </c>
       <c r="AN3">
-        <v>4.610186846700038E-06</v>
+        <v>2.801009429983391E-06</v>
       </c>
       <c r="AO3">
-        <v>5.925916202948827E-06</v>
+        <v>4.117181388369821E-06</v>
       </c>
       <c r="AP3">
-        <v>9.034996199564332E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.171054861059569E-06</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.532438316032928E-06</v>
+        <v>3.72357113824941E-06</v>
       </c>
       <c r="AS3">
-        <v>4.514596449878653E-06</v>
+        <v>2.705386877222207E-06</v>
       </c>
       <c r="AT3">
-        <v>2.361951521459349E-06</v>
+        <v>5.520178141300882E-07</v>
       </c>
       <c r="AU3">
-        <v>8.365438721828751E-07</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>7.961121735273278E-07</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>5.25227712534897E-07</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.670441211201314E-06</v>
+        <v>8.606112776424504E-07</v>
       </c>
       <c r="AY3">
-        <v>1.048326465140587E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>5.080266131068756E-07</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>2.955869601710124E-07</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>7.306784157031598E-07</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>6.055660798634503E-08</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1.200594460077305E-05</v>
+        <v>1.019925506515131E-05</v>
       </c>
       <c r="BE3">
-        <v>5.702600810374609E-06</v>
+        <v>3.893790874062056E-06</v>
       </c>
       <c r="BF3">
-        <v>1.240601558746971E-07</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.789056107257079E-06</v>
+        <v>9.792660749182505E-07</v>
       </c>
       <c r="BH3">
-        <v>2.184191927370289E-05</v>
+        <v>2.003853849105177E-05</v>
       </c>
       <c r="BI3">
-        <v>5.302397623682342E-06</v>
+        <v>3.493453061821547E-06</v>
       </c>
       <c r="BJ3">
-        <v>1.698708143513809E-05</v>
+        <v>1.518206751905035E-05</v>
       </c>
       <c r="BK3">
-        <v>1.335801105581354E-05</v>
+        <v>1.155177634587491E-05</v>
       </c>
       <c r="BL3">
-        <v>4.610186846700038E-06</v>
+        <v>2.801009429983391E-06</v>
       </c>
       <c r="BM3">
-        <v>5.025573232887428E-05</v>
+        <v>4.846190975387204E-05</v>
       </c>
       <c r="BN3">
-        <v>2.519031016236072E-05</v>
+        <v>2.338805575494623E-05</v>
       </c>
       <c r="BO3">
-        <v>7.341609755873563E-06</v>
+        <v>5.533351170687626E-06</v>
       </c>
       <c r="BP3">
-        <v>1.110073713087341E-05</v>
+        <v>9.293743089800541E-06</v>
       </c>
       <c r="BQ3">
-        <v>1.199516610113146E-05</v>
+        <v>1.018847293969796E-05</v>
       </c>
       <c r="BR3">
-        <v>1.362170554704506E-05</v>
+        <v>1.181555954208587E-05</v>
       </c>
       <c r="BS3">
-        <v>2.008465033213637E-06</v>
+        <v>1.98412415506203E-07</v>
       </c>
       <c r="BT3">
-        <v>3.087415897335888E-07</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>2.356172821651505E-07</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1.192316360352572E-05</v>
+        <v>1.011644622095646E-05</v>
       </c>
       <c r="BW3">
-        <v>2.754052108421048E-05</v>
+        <v>2.573905727128487E-05</v>
       </c>
       <c r="BX3">
-        <v>1.407859653185231E-05</v>
+        <v>1.227260422181951E-05</v>
       </c>
       <c r="BY3">
-        <v>3.659806878302492E-05</v>
+        <v>3.479965186568939E-05</v>
       </c>
       <c r="BZ3">
-        <v>3.970161467982445E-05</v>
+        <v>3.790424177358562E-05</v>
       </c>
       <c r="CA3">
-        <v>3.445857385416834E-05</v>
+        <v>3.265943722572772E-05</v>
       </c>
       <c r="CB3">
-        <v>5.514152316640982E-05</v>
+        <v>5.334934413721621E-05</v>
       </c>
       <c r="CC3">
-        <v>4.015528866473868E-05</v>
+        <v>3.835806837125001E-05</v>
       </c>
       <c r="CD3">
-        <v>4.859515138409265E-05</v>
+        <v>4.680077020129437E-05</v>
       </c>
       <c r="CE3">
-        <v>8.926474103172957E-05</v>
+        <v>8.748404081396376E-05</v>
       </c>
       <c r="CF3">
-        <v>0.0001205529659913197</v>
+        <v>0.0001187827909132298</v>
       </c>
       <c r="CG3">
-        <v>9.641179679407252E-05</v>
+        <v>9.463350079579397E-05</v>
       </c>
       <c r="CH3">
-        <v>7.517248750033138E-05</v>
+        <v>7.33870467472058E-05</v>
       </c>
       <c r="CI3">
-        <v>5.198906527123673E-05</v>
+        <v>5.019582577729283E-05</v>
       </c>
       <c r="CJ3">
-        <v>7.517248750033138E-05</v>
+        <v>7.33870467472058E-05</v>
       </c>
       <c r="CK3">
-        <v>5.23347582597416E-05</v>
+        <v>5.054163505449716E-05</v>
       </c>
       <c r="CL3">
-        <v>1.259342758123781E-05</v>
+        <v>1.078693567077488E-05</v>
       </c>
       <c r="CM3">
-        <v>0.0001379565454126083</v>
+        <v>0.0001361922247767087</v>
       </c>
       <c r="CN3">
-        <v>0.05388124120831727</v>
+        <v>0.05389755575212465</v>
       </c>
       <c r="CO3">
-        <v>0.01174147860956719</v>
+        <v>0.01174361763246115</v>
       </c>
       <c r="CP3">
-        <v>0.1543055548689638</v>
+        <v>0.1543556514483291</v>
       </c>
       <c r="CQ3">
-        <v>0.04187213460764936</v>
+        <v>0.04188440937213025</v>
       </c>
       <c r="CR3">
-        <v>0.003581734880898576</v>
+        <v>0.003581129023168144</v>
       </c>
       <c r="CS3">
-        <v>0.007113602263455368</v>
+        <v>0.007114184501168699</v>
       </c>
       <c r="CT3">
-        <v>0.007170232261572282</v>
+        <v>0.007170833549220238</v>
       </c>
       <c r="CU3">
-        <v>0.0006832544272801233</v>
+        <v>0.0006816735410314095</v>
       </c>
       <c r="CV3">
-        <v>0.06252503792088994</v>
+        <v>0.06254426017735429</v>
       </c>
       <c r="CW3">
-        <v>0.0003858516171694923</v>
+        <v>0.0003841706866990164</v>
       </c>
       <c r="CX3">
-        <v>0.0792464073648636</v>
+        <v>0.07927125457286152</v>
       </c>
       <c r="CY3">
-        <v>0.009614842680283021</v>
+        <v>0.009616266317749261</v>
       </c>
       <c r="CZ3">
-        <v>0.0146483055129081</v>
+        <v>0.01465142237200756</v>
       </c>
       <c r="DA3">
-        <v>0.02529957615872737</v>
+        <v>0.02530627603065088</v>
       </c>
       <c r="DB3">
-        <v>0.0073602027552553</v>
+        <v>0.007360867947646426</v>
       </c>
       <c r="DC3">
-        <v>0.07289866757594143</v>
+        <v>0.07292137944874566</v>
       </c>
       <c r="DD3">
-        <v>0.0001244919658603384</v>
+        <v>0.0001227231158342083</v>
       </c>
       <c r="DE3">
-        <v>0.004388990154055369</v>
+        <v>0.004388655851343318</v>
       </c>
       <c r="DF3">
-        <v>0.001882155837413726</v>
+        <v>0.001880978253200059</v>
       </c>
       <c r="DG3">
-        <v>0.005515547316594594</v>
+        <v>0.005515591979819532</v>
       </c>
       <c r="DH3">
-        <v>0.00500199323367152</v>
+        <v>0.005001865140900845</v>
       </c>
       <c r="DI3">
-        <v>0.0392267426956151</v>
+        <v>0.03923812756879</v>
       </c>
       <c r="DJ3">
-        <v>0.05757059808563714</v>
+        <v>0.05758815370325097</v>
       </c>
       <c r="DK3">
-        <v>0.0008045634732463014</v>
+        <v>0.0008030233945107778</v>
       </c>
       <c r="DL3">
-        <v>0.01670888544438879</v>
+        <v>0.01671269546814108</v>
       </c>
       <c r="DM3">
-        <v>0.004056450265113131</v>
+        <v>0.004056004098312163</v>
       </c>
       <c r="DN3">
-        <v>0.007475630151417057</v>
+        <v>0.007476334172775586</v>
       </c>
       <c r="DO3">
-        <v>0.01838219338874722</v>
+        <v>0.01838656630156905</v>
       </c>
       <c r="DP3">
-        <v>0.009201672694021933</v>
+        <v>0.009202957343999401</v>
       </c>
       <c r="DQ3">
-        <v>0.003175892294393833</v>
+        <v>0.003175149914060572</v>
       </c>
       <c r="DR3">
-        <v>0.000955747068219078</v>
+        <v>0.0009542578465857338</v>
       </c>
       <c r="DS3">
-        <v>0.003570285881279283</v>
+        <v>0.003569676172185589</v>
       </c>
       <c r="DT3">
-        <v>0.0007155307462068569</v>
+        <v>0.0007139607174857071</v>
       </c>
       <c r="DU3">
-        <v>8.949099702420601E-05</v>
+        <v>8.771037291737095E-05</v>
       </c>
       <c r="DV3">
-        <v>0.00114955746177441</v>
+        <v>0.001148133436599651</v>
       </c>
       <c r="DW3">
-        <v>0.01326063755905145</v>
+        <v>0.01326328761637302</v>
       </c>
       <c r="DX3">
-        <v>0.002367728321267256</v>
+        <v>0.00236671408023531</v>
       </c>
       <c r="DY3">
-        <v>0.005114550529928715</v>
+        <v>0.005114460300643942</v>
       </c>
       <c r="DZ3">
-        <v>0.001653847145005547</v>
+        <v>0.00165259275934725</v>
       </c>
       <c r="EA3">
-        <v>0.001993682433705195</v>
+        <v>0.001992542366257182</v>
       </c>
       <c r="EB3">
-        <v>3.731638475913916E-06</v>
+        <v>1.922165521680314E-06</v>
       </c>
       <c r="EC3">
-        <v>0.009393502687643116</v>
+        <v>0.009394851867886507</v>
       </c>
       <c r="ED3">
-        <v>0.00623074339281258</v>
+        <v>0.006231028642987002</v>
       </c>
       <c r="EE3">
-        <v>0.01782194240737693</v>
+        <v>0.01782612685569366</v>
       </c>
       <c r="EF3">
-        <v>0.001991545733776245</v>
+        <v>0.001990404947557345</v>
       </c>
       <c r="EG3">
-        <v>0.04811752039997505</v>
+        <v>0.04813189606848225</v>
       </c>
       <c r="EH3">
-        <v>0.0323786889233296</v>
+        <v>0.03238777015919193</v>
       </c>
       <c r="EI3">
-        <v>0.01218382559485807</v>
+        <v>0.01218611342017887</v>
       </c>
       <c r="EJ3">
-        <v>0.01501847350059911</v>
+        <v>0.01502171488161629</v>
       </c>
       <c r="EK3">
-        <v>0.001830600339128072</v>
+        <v>0.001829405412005972</v>
       </c>
       <c r="EL3">
-        <v>0.002272207724443549</v>
+        <v>0.002271161350952035</v>
       </c>
       <c r="EM3">
-        <v>0.01166897961197796</v>
+        <v>0.01167109424671705</v>
       </c>
       <c r="EN3">
-        <v>0.0071601031619091</v>
+        <v>0.007160701042198892</v>
       </c>
       <c r="EO3">
-        <v>4.790858140692277E-05</v>
+        <v>4.611396926679418E-05</v>
       </c>
       <c r="EP3">
-        <v>0.00167336954435638</v>
+        <v>0.001672121725896454</v>
       </c>
       <c r="EQ3">
-        <v>7.935197736135314E-05</v>
+        <v>7.756794255933594E-05</v>
       </c>
       <c r="ER3">
-        <v>0.001561610548072639</v>
+        <v>0.00156032513466933</v>
       </c>
       <c r="ES3">
-        <v>0.0007723958443159537</v>
+        <v>0.0007708449446154194</v>
       </c>
       <c r="ET3">
-        <v>2.214092926376008E-08</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0008019384433335902</v>
+        <v>0.0008003974815563946</v>
       </c>
       <c r="EV3">
-        <v>0.003009542299925376</v>
+        <v>0.003008743960619399</v>
       </c>
       <c r="EW3">
-        <v>0.00281202010649347</v>
+        <v>0.002811155322105434</v>
       </c>
       <c r="EX3">
-        <v>0.0003049816898586147</v>
+        <v>0.0003032735553111539</v>
       </c>
       <c r="EY3">
-        <v>0.0001643750545341284</v>
+        <v>0.0001626196208996133</v>
       </c>
       <c r="EZ3">
-        <v>0.0008121365429944784</v>
+        <v>0.0008105990117865622</v>
       </c>
       <c r="FA3">
-        <v>0.0006305147290338468</v>
+        <v>0.0006289161015201294</v>
       </c>
       <c r="FB3">
-        <v>4.776457841171123E-05</v>
+        <v>4.59699178299839E-05</v>
       </c>
       <c r="FC3">
-        <v>0.0003341208388896669</v>
+        <v>0.0003324225065477956</v>
       </c>
       <c r="FD3">
-        <v>0.001552290148382565</v>
+        <v>0.001551001599662097</v>
       </c>
       <c r="FE3">
-        <v>1.192316360352572E-05</v>
+        <v>1.011644622095646E-05</v>
       </c>
       <c r="FF3">
-        <v>0.001766529141258596</v>
+        <v>0.001765312661034406</v>
       </c>
       <c r="FG3">
-        <v>0.007732036742890912</v>
+        <v>0.007732827017630466</v>
       </c>
       <c r="FH3">
-        <v>1.976850334264903E-05</v>
+        <v>1.796442507740475E-05</v>
       </c>
       <c r="FI3">
-        <v>0.0004855995438526304</v>
+        <v>0.0004839521678858718</v>
       </c>
       <c r="FJ3">
-        <v>0.0005650058812121759</v>
+        <v>0.0005633852169809963</v>
       </c>
       <c r="FK3">
-        <v>0.0008032063732914284</v>
+        <v>0.0008016658380369876</v>
       </c>
       <c r="FL3">
-        <v>0.003662580278210269</v>
+        <v>0.003662001616305102</v>
       </c>
       <c r="FM3">
-        <v>0.00478127984101078</v>
+        <v>0.004781077501801098</v>
       </c>
       <c r="FN3">
-        <v>0.0008175130128156977</v>
+        <v>0.0008159772902145627</v>
       </c>
       <c r="FO3">
-        <v>0.006241837792443665</v>
+        <v>0.006242126774696397</v>
       </c>
       <c r="FP3">
-        <v>0.002792851707130867</v>
+        <v>0.002791980474627575</v>
       </c>
       <c r="FQ3">
-        <v>0.0007129723762919289</v>
+        <v>0.0007114014869530632</v>
       </c>
       <c r="FR3">
-        <v>0.0004828979239424658</v>
+        <v>0.0004812496391696966</v>
       </c>
       <c r="FS3">
-        <v>1.583643047340005E-05</v>
+        <v>1.403102948639006E-05</v>
       </c>
       <c r="FT3">
-        <v>0.002591877613813745</v>
+        <v>0.002590938775033456</v>
       </c>
       <c r="FU3">
-        <v>0.00348094818424998</v>
+        <v>0.003480308422580891</v>
       </c>
       <c r="FV3">
-        <v>0.0007291214757549319</v>
+        <v>0.0007275560188599874</v>
       </c>
       <c r="FW3">
-        <v>0.0003540377882273797</v>
+        <v>0.0003523461558077306</v>
       </c>
       <c r="FX3">
-        <v>0.0004652495845293161</v>
+        <v>0.0004635953629788099</v>
       </c>
       <c r="FY3">
-        <v>0.0001122580662671454</v>
+        <v>0.000110485100842901</v>
       </c>
       <c r="FZ3">
-        <v>0.0007937388736062458</v>
+        <v>0.0007921951535512389</v>
       </c>
       <c r="GA3">
-        <v>0.0009490997984401159</v>
+        <v>0.0009476083407117878</v>
       </c>
       <c r="GB3">
-        <v>0.00305699219834755</v>
+        <v>0.003056209820854976</v>
       </c>
       <c r="GC3">
-        <v>7.747227742385775E-05</v>
+        <v>7.568761030395047E-05</v>
       </c>
       <c r="GD3">
-        <v>0.0002650591111861378</v>
+        <v>0.0002633375469629032</v>
       </c>
       <c r="GE3">
-        <v>0.002121912429441234</v>
+        <v>0.002120815497665427</v>
       </c>
       <c r="GF3">
-        <v>1.275274507594011E-05</v>
+        <v>1.094630675876625E-05</v>
       </c>
       <c r="GG3">
-        <v>0.0007478972751305908</v>
+        <v>0.0007463381342830159</v>
       </c>
       <c r="GH3">
-        <v>0.0008388630721057561</v>
+        <v>0.000837334531514991</v>
       </c>
       <c r="GI3">
-        <v>0.000991492567030453</v>
+        <v>0.0009900153699324815</v>
       </c>
       <c r="GJ3">
-        <v>0.0005526332316235967</v>
+        <v>0.0005510084053197764</v>
       </c>
       <c r="GK3">
-        <v>0.0001326674355884841</v>
+        <v>0.0001309013357330944</v>
       </c>
       <c r="GL3">
-        <v>0.001200416160083234</v>
+        <v>0.001199009243418278</v>
       </c>
       <c r="GM3">
-        <v>0.0009438503686146723</v>
+        <v>0.0009423571450149277</v>
       </c>
       <c r="GN3">
-        <v>0.0001410659253092138</v>
+        <v>0.0001393026506469277</v>
       </c>
       <c r="GO3">
-        <v>0.0003640731078936808</v>
+        <v>0.0003623848512852615</v>
       </c>
       <c r="GP3">
-        <v>8.980370701380762E-06</v>
+        <v>7.172663383895983E-06</v>
       </c>
       <c r="GQ3">
-        <v>0.001327142755869265</v>
+        <v>0.001325778469143305</v>
       </c>
       <c r="GR3">
-        <v>0.004486238450821626</v>
+        <v>0.0044859368617553</v>
       </c>
       <c r="GS3">
-        <v>0.003240782892236062</v>
+        <v>0.003240062340645302</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.394562471538517E-05</v>
+        <v>1.36682615681105E-05</v>
       </c>
       <c r="C4">
-        <v>2.302005268773334E-06</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.035519460811963E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>7.028173709969517E-06</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.555677846476502E-05</v>
+        <v>5.265658894469315E-06</v>
       </c>
       <c r="G4">
-        <v>7.516316824552989E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.052064961306266E-05</v>
+        <v>1.023767003118704E-05</v>
       </c>
       <c r="I4">
-        <v>3.671757309695227E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.274587527705022E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9.351341279375083E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3.185781095176492E-05</v>
+        <v>2.159342257809286E-05</v>
       </c>
       <c r="M4">
-        <v>1.060393931679695E-05</v>
+        <v>3.046978488720603E-07</v>
       </c>
       <c r="N4">
-        <v>4.12908412335805E-07</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3.439096402744389E-05</v>
+        <v>2.413072963683994E-05</v>
       </c>
       <c r="P4">
-        <v>1.029974030770889E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>7.174811514350381E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>9.267394776867148E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.929321857639267E-05</v>
+        <v>9.008226195609412E-06</v>
       </c>
       <c r="T4">
-        <v>1.262551837719244E-05</v>
+        <v>2.329591989302923E-06</v>
       </c>
       <c r="U4">
-        <v>5.233188156343601E-06</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.326095239617629E-05</v>
+        <v>2.96606802275526E-06</v>
       </c>
       <c r="W4">
-        <v>9.618143287345901E-07</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1.70653735098349E-05</v>
+        <v>6.776727804357725E-06</v>
       </c>
       <c r="Y4">
-        <v>1.016069780355494E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.898268056711522E-05</v>
+        <v>8.697178951558538E-06</v>
       </c>
       <c r="AA4">
-        <v>1.237455036969467E-05</v>
+        <v>2.078212432710946E-06</v>
       </c>
       <c r="AB4">
-        <v>5.010285449684294E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>8.569097856005247E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3.383465501082393E-06</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.247152537259184E-05</v>
+        <v>2.175346459760239E-06</v>
       </c>
       <c r="AF4">
-        <v>4.095051122341301E-08</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>6.780932202583077E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>2.302005268773334E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>6.62493369792256E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>7.822055233687048E-07</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>2.154985064381046E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>1.475220944072819E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>1.518785845374338E-05</v>
+        <v>4.896133911133145E-06</v>
       </c>
       <c r="AN4">
-        <v>1.176098735136423E-05</v>
+        <v>1.463643265003337E-06</v>
       </c>
       <c r="AO4">
-        <v>2.027213760563827E-05</v>
+        <v>9.988750502132402E-06</v>
       </c>
       <c r="AP4">
-        <v>2.580887877105064E-05</v>
+        <v>1.553457107505254E-05</v>
       </c>
       <c r="AQ4">
-        <v>5.533829665325388E-10</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1.965747558727499E-05</v>
+        <v>9.373080532200229E-06</v>
       </c>
       <c r="AS4">
-        <v>5.772558672457513E-05</v>
+        <v>4.750361754127954E-05</v>
       </c>
       <c r="AT4">
-        <v>3.503939104681591E-05</v>
+        <v>2.478021997721109E-05</v>
       </c>
       <c r="AU4">
-        <v>6.616602197673653E-05</v>
+        <v>5.595789381452316E-05</v>
       </c>
       <c r="AV4">
-        <v>3.619225608125821E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.3020508986501E-05</v>
+        <v>2.275802725952786E-05</v>
       </c>
       <c r="AX4">
-        <v>1.262551837719244E-05</v>
+        <v>2.329591989302923E-06</v>
       </c>
       <c r="AY4">
-        <v>1.176098735136423E-05</v>
+        <v>1.463643265003337E-06</v>
       </c>
       <c r="AZ4">
-        <v>7.623809227764369E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.611919448156742E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>6.74727080157743E-07</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>3.135151593663915E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>5.010285449684294E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>8.934575266924031E-07</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1.189535235537844E-05</v>
+        <v>1.598228607044875E-06</v>
       </c>
       <c r="BG4">
-        <v>9.540027285012154E-11</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>6.330842189136458E-08</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>3.895746416386992E-05</v>
+        <v>2.870471813408765E-05</v>
       </c>
       <c r="BJ4">
-        <v>4.859068145166616E-05</v>
+        <v>3.835373242281888E-05</v>
       </c>
       <c r="BK4">
-        <v>2.107523562963114E-05</v>
+        <v>1.079316548388268E-05</v>
       </c>
       <c r="BL4">
-        <v>1.142561634134489E-05</v>
+        <v>1.127722297892756E-06</v>
       </c>
       <c r="BM4">
-        <v>2.183990065247582E-05</v>
+        <v>1.155908444024925E-05</v>
       </c>
       <c r="BN4">
-        <v>2.849665985134918E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>1.806808253979124E-06</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>3.54657550595537E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.874368955997527E-05</v>
+        <v>8.457796035770577E-06</v>
       </c>
       <c r="BR4">
-        <v>5.996481779147307E-07</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>2.566929376688048E-05</v>
+        <v>1.539475717285429E-05</v>
       </c>
       <c r="BT4">
-        <v>5.182256154821988E-05</v>
+        <v>4.159091230773839E-05</v>
       </c>
       <c r="BU4">
-        <v>1.639023048966473E-05</v>
+        <v>6.100477653038922E-06</v>
       </c>
       <c r="BV4">
-        <v>3.384616101116768E-07</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>6.2851571877716E-05</v>
+        <v>5.263800852497916E-05</v>
       </c>
       <c r="BX4">
-        <v>5.606537167497554E-05</v>
+        <v>4.584067999327601E-05</v>
       </c>
       <c r="BY4">
-        <v>4.198321325426538E-09</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>1.159969734654563E-06</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>6.3578691899439E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1.902946056851279E-07</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>1.852870955355265E-07</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>4.786271142991776E-07</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>6.151447683776974E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>5.664576469231502E-07</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>3.383465501082393E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>8.116974742497888E-08</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>4.529713535327015E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>1.356323240520703E-05</v>
+        <v>3.268843724703809E-06</v>
       </c>
       <c r="CK4">
-        <v>5.515081164765269E-06</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>8.825682263670809E-07</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.002298091568656411</v>
+        <v>0.002291543456550554</v>
       </c>
       <c r="CN4">
-        <v>0.06856160204830544</v>
+        <v>0.06866371594451204</v>
       </c>
       <c r="CO4">
-        <v>0.01103567332969518</v>
+        <v>0.01104345351343535</v>
       </c>
       <c r="CP4">
-        <v>0.08869133264968924</v>
+        <v>0.08882645622102626</v>
       </c>
       <c r="CQ4">
-        <v>0.0128848003849386</v>
+        <v>0.01289561285383832</v>
       </c>
       <c r="CR4">
-        <v>0.003352216300148811</v>
+        <v>0.003347396791153575</v>
       </c>
       <c r="CS4">
-        <v>0.006300021188215668</v>
+        <v>0.006300035627753071</v>
       </c>
       <c r="CT4">
-        <v>0.01367553840856221</v>
+        <v>0.01368764756671178</v>
       </c>
       <c r="CU4">
-        <v>0.007017256209643353</v>
+        <v>0.007018446804764669</v>
       </c>
       <c r="CV4">
-        <v>0.05535317165369828</v>
+        <v>0.05543362574705192</v>
       </c>
       <c r="CW4">
-        <v>0.004383423530956542</v>
+        <v>0.004380295043880832</v>
       </c>
       <c r="CX4">
-        <v>0.07240338816308035</v>
+        <v>0.07251180200010983</v>
       </c>
       <c r="CY4">
-        <v>0.009461502282666187</v>
+        <v>0.009466701066988195</v>
       </c>
       <c r="CZ4">
-        <v>0.01260346437653357</v>
+        <v>0.01261381549746874</v>
       </c>
       <c r="DA4">
-        <v>0.01575695047074523</v>
+        <v>0.01577247282588913</v>
       </c>
       <c r="DB4">
-        <v>0.03429315302452175</v>
+        <v>0.03433907191286167</v>
       </c>
       <c r="DC4">
-        <v>0.05504935164462153</v>
+        <v>0.05512930751969315</v>
       </c>
       <c r="DD4">
-        <v>0.0001069386531948353</v>
+        <v>9.679738590311116E-05</v>
       </c>
       <c r="DE4">
-        <v>0.004109148122762454</v>
+        <v>0.004105569866025141</v>
       </c>
       <c r="DF4">
-        <v>0.008359737249750514</v>
+        <v>0.008363129308164123</v>
       </c>
       <c r="DG4">
-        <v>0.002604437577808621</v>
+        <v>0.002598391826238027</v>
       </c>
       <c r="DH4">
-        <v>0.001834806854815593</v>
+        <v>0.001827499026735409</v>
       </c>
       <c r="DI4">
-        <v>0.06793324202953295</v>
+        <v>0.06803432551154795</v>
       </c>
       <c r="DJ4">
-        <v>0.04988318149028012</v>
+        <v>0.04995466563754573</v>
       </c>
       <c r="DK4">
-        <v>0.005424299862053141</v>
+        <v>0.005422878252740519</v>
       </c>
       <c r="DL4">
-        <v>0.01449174293294665</v>
+        <v>0.01450519054150688</v>
       </c>
       <c r="DM4">
-        <v>0.01057523731593947</v>
+        <v>0.01058226245513715</v>
       </c>
       <c r="DN4">
-        <v>0.0005394213561154301</v>
+        <v>0.0005299892942177393</v>
       </c>
       <c r="DO4">
-        <v>0.0350947540484699</v>
+        <v>0.03514198743971643</v>
       </c>
       <c r="DP4">
-        <v>0.008413708251362921</v>
+        <v>0.008417188813953013</v>
       </c>
       <c r="DQ4">
-        <v>0.006314398888645208</v>
+        <v>0.006314436905409237</v>
       </c>
       <c r="DR4">
-        <v>2.666911579675056E-06</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.01084407432397108</v>
+        <v>0.01085154031468704</v>
       </c>
       <c r="DT4">
-        <v>0.0007282888217579216</v>
+        <v>0.0007191664735770719</v>
       </c>
       <c r="DU4">
-        <v>0.00117552323511923</v>
+        <v>0.001167134282878174</v>
       </c>
       <c r="DV4">
-        <v>0.005379811560724035</v>
+        <v>0.005378316997411032</v>
       </c>
       <c r="DW4">
-        <v>0.01405783841998358</v>
+        <v>0.01407057449159907</v>
       </c>
       <c r="DX4">
-        <v>0.0003025014390373522</v>
+        <v>0.0002926808647621466</v>
       </c>
       <c r="DY4">
-        <v>0.0138290554131486</v>
+        <v>0.01384141631567313</v>
       </c>
       <c r="DZ4">
-        <v>4.298511728419767E-06</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.004194241625304657</v>
+        <v>0.00419080290887865</v>
       </c>
       <c r="EB4">
-        <v>0.003447798403004364</v>
+        <v>0.003443135634018522</v>
       </c>
       <c r="EC4">
-        <v>0.02056492061438528</v>
+        <v>0.02058832730417931</v>
       </c>
       <c r="ED4">
-        <v>2.044842261090485E-05</v>
+        <v>1.016532458780793E-05</v>
       </c>
       <c r="EE4">
-        <v>0.02591832477432038</v>
+        <v>0.02595051022701297</v>
       </c>
       <c r="EF4">
-        <v>0.002070039361843259</v>
+        <v>0.002063117279046549</v>
       </c>
       <c r="EG4">
-        <v>0.068486542046063</v>
+        <v>0.06858853285536205</v>
       </c>
       <c r="EH4">
-        <v>0.003055741391291503</v>
+        <v>0.003050435708853637</v>
       </c>
       <c r="EI4">
-        <v>0.0274143188190138</v>
+        <v>0.02744895747281426</v>
       </c>
       <c r="EJ4">
-        <v>0.001150583034374131</v>
+        <v>0.001142153184023678</v>
       </c>
       <c r="EK4">
-        <v>0.01230434836759736</v>
+        <v>0.01231420898409028</v>
       </c>
       <c r="EL4">
-        <v>0.0004621583338071662</v>
+        <v>0.0004525995723864417</v>
       </c>
       <c r="EM4">
-        <v>0.01909452357045657</v>
+        <v>0.01911551903430357</v>
       </c>
       <c r="EN4">
-        <v>0.002658067379410833</v>
+        <v>0.002652109572500963</v>
       </c>
       <c r="EO4">
-        <v>0.001292436638612065</v>
+        <v>0.00128423940644636</v>
       </c>
       <c r="EP4">
-        <v>8.809921263199942E-05</v>
+        <v>7.792705154318814E-05</v>
       </c>
       <c r="EQ4">
-        <v>0.0006503057194281451</v>
+        <v>0.0006410554909033135</v>
       </c>
       <c r="ER4">
-        <v>5.909574776550925E-06</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0001012076430236191</v>
+        <v>9.105697775297174E-05</v>
       </c>
       <c r="ET4">
-        <v>1.919460657344659E-06</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001597397547722894</v>
+        <v>0.001589700404740526</v>
       </c>
       <c r="EV4">
-        <v>0.003987624419131884</v>
+        <v>0.003983846882133105</v>
       </c>
       <c r="EW4">
-        <v>0.000411897212305595</v>
+        <v>0.0004022560303435671</v>
       </c>
       <c r="EX4">
-        <v>0.001531475345753442</v>
+        <v>0.001523670100456444</v>
       </c>
       <c r="EY4">
-        <v>2.60484357782075E-09</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0005235642456416924</v>
+        <v>0.000514106180511489</v>
       </c>
       <c r="FA4">
-        <v>0.0003386553501174648</v>
+        <v>0.0003288940627191222</v>
       </c>
       <c r="FB4">
-        <v>0.0001803813653889659</v>
+        <v>0.0001703605328968043</v>
       </c>
       <c r="FC4">
-        <v>0.0004068869821559123</v>
+        <v>0.0003972375841838023</v>
       </c>
       <c r="FD4">
-        <v>0.0005731619171234428</v>
+        <v>0.0005637851845781238</v>
       </c>
       <c r="FE4">
-        <v>0.001221642636497065</v>
+        <v>0.001213329313010653</v>
       </c>
       <c r="FF4">
-        <v>0.003541186605794375</v>
+        <v>0.003536676979157834</v>
       </c>
       <c r="FG4">
-        <v>0.002682236580132897</v>
+        <v>0.002676318407010474</v>
       </c>
       <c r="FH4">
-        <v>6.047509880671791E-05</v>
+        <v>5.025763840212364E-05</v>
       </c>
       <c r="FI4">
-        <v>4.927970947225114E-05</v>
+        <v>3.904389034382656E-05</v>
       </c>
       <c r="FJ4">
-        <v>0.001012223430240582</v>
+        <v>0.001003566691330413</v>
       </c>
       <c r="FK4">
-        <v>0.0001355415440493582</v>
+        <v>0.0001254471811178361</v>
       </c>
       <c r="FL4">
-        <v>0.005580589166722347</v>
+        <v>0.00557942384793222</v>
       </c>
       <c r="FM4">
-        <v>0.0008483883853459444</v>
+        <v>0.0008394629820550117</v>
       </c>
       <c r="FN4">
-        <v>0.002690793080388526</v>
+        <v>0.002684888938616014</v>
       </c>
       <c r="FO4">
-        <v>0.004399833131446785</v>
+        <v>0.004396731553602596</v>
       </c>
       <c r="FP4">
-        <v>0.001152450534429923</v>
+        <v>0.001144023746493537</v>
       </c>
       <c r="FQ4">
-        <v>0.0005913655776672846</v>
+        <v>0.0005820186963371972</v>
       </c>
       <c r="FR4">
-        <v>0.0001667619449820802</v>
+        <v>0.0001567187787263925</v>
       </c>
       <c r="FS4">
-        <v>0.001177410635175617</v>
+        <v>0.00116902477798158</v>
       </c>
       <c r="FT4">
-        <v>0.003261370697434762</v>
+        <v>0.003256402215564926</v>
       </c>
       <c r="FU4">
-        <v>0.004001536519547513</v>
+        <v>0.003997781796262648</v>
       </c>
       <c r="FV4">
-        <v>1.08744243248778E-05</v>
+        <v>5.756264109388607E-07</v>
       </c>
       <c r="FW4">
-        <v>0.000143806364296273</v>
+        <v>0.0001337255544041217</v>
       </c>
       <c r="FX4">
-        <v>0.0004024591620236294</v>
+        <v>0.0003928025031046644</v>
       </c>
       <c r="FY4">
-        <v>6.780932202583077E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>5.835441474336162E-05</v>
+        <v>4.813347674170597E-05</v>
       </c>
       <c r="GA4">
-        <v>0.002711642081011398</v>
+        <v>0.002705772128406688</v>
       </c>
       <c r="GB4">
-        <v>0.00364771120897684</v>
+        <v>0.003643376266374283</v>
       </c>
       <c r="GC4">
-        <v>7.048659210581531E-05</v>
+        <v>6.028554901687805E-05</v>
       </c>
       <c r="GD4">
-        <v>0.0003106911692820237</v>
+        <v>0.0003008840249100858</v>
       </c>
       <c r="GE4">
-        <v>0.001191614435599961</v>
+        <v>0.001183251870463176</v>
       </c>
       <c r="GF4">
-        <v>3.908480816767437E-06</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.000723100521602919</v>
+        <v>0.0007139696654044517</v>
       </c>
       <c r="GH4">
-        <v>0.001321700439486332</v>
+        <v>0.001313551195472038</v>
       </c>
       <c r="GI4">
-        <v>9.10063527188514E-06</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001242553137121775</v>
+        <v>0.0001141424430914938</v>
       </c>
       <c r="GK4">
-        <v>0.000500172914942867</v>
+        <v>0.0004906764916129177</v>
       </c>
       <c r="GL4">
-        <v>0.002582020077138889</v>
+        <v>0.002575937564300646</v>
       </c>
       <c r="GM4">
-        <v>0.0002317937269249309</v>
+        <v>0.0002218572028314059</v>
       </c>
       <c r="GN4">
-        <v>7.686138229626472E-05</v>
+        <v>6.667079288688127E-05</v>
       </c>
       <c r="GO4">
-        <v>5.949913377756056E-05</v>
+        <v>4.928007293979661E-05</v>
       </c>
       <c r="GP4">
-        <v>0.0005773984772500119</v>
+        <v>0.0005680286920144317</v>
       </c>
       <c r="GQ4">
-        <v>0.00189061585648291</v>
+        <v>0.001883399546617791</v>
       </c>
       <c r="GR4">
-        <v>0.0050872486519836</v>
+        <v>0.005085274330308999</v>
       </c>
       <c r="GS4">
-        <v>0.006910309906448289</v>
+        <v>0.006911325126012188</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.900135775693709E-05</v>
+        <v>5.477463731290352E-06</v>
       </c>
       <c r="C5">
-        <v>3.993734948912661E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2.716332465253028E-05</v>
+        <v>1.365931935391132E-05</v>
       </c>
       <c r="E5">
-        <v>2.899687562907573E-05</v>
+        <v>1.549733824797354E-05</v>
       </c>
       <c r="F5">
-        <v>1.299702683374372E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.353720882683378E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.06215973641299E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>2.91301346273711E-05</v>
+        <v>1.563092196601783E-05</v>
       </c>
       <c r="J5">
-        <v>2.398406669319893E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2.907812362803642E-05</v>
+        <v>1.557878422853517E-05</v>
       </c>
       <c r="L5">
-        <v>2.974840561946226E-05</v>
+        <v>1.625069953405425E-05</v>
       </c>
       <c r="M5">
-        <v>7.754033400811411E-06</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.186100772035683E-05</v>
+        <v>8.344081965746346E-06</v>
       </c>
       <c r="O5">
-        <v>5.726926926741894E-05</v>
+        <v>4.383862482924192E-05</v>
       </c>
       <c r="P5">
-        <v>3.47998995548442E-05</v>
+        <v>2.131450273082484E-05</v>
       </c>
       <c r="Q5">
-        <v>4.459272442957566E-05</v>
+        <v>3.113119033659355E-05</v>
       </c>
       <c r="R5">
-        <v>3.293007457876276E-05</v>
+        <v>1.944012144631742E-05</v>
       </c>
       <c r="S5">
-        <v>6.700420914289086E-05</v>
+        <v>5.359728638409479E-05</v>
       </c>
       <c r="T5">
-        <v>7.534206903623403E-05</v>
+        <v>6.195546361289593E-05</v>
       </c>
       <c r="U5">
-        <v>2.685629365645777E-05</v>
+        <v>1.335154019802048E-05</v>
       </c>
       <c r="V5">
-        <v>5.590345528489026E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>8.674656889034914E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>3.993429948916563E-05</v>
+        <v>2.646141394827832E-05</v>
       </c>
       <c r="Y5">
-        <v>2.279537070840457E-05</v>
+        <v>9.280721769009331E-06</v>
       </c>
       <c r="Z5">
-        <v>3.418220656274565E-07</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.499410880819731E-05</v>
+        <v>1.460450092066838E-06</v>
       </c>
       <c r="AB5">
-        <v>1.059020086453153E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>8.072259296740707E-07</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>9.831275874239595E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.115933672933251E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.998347774437395E-05</v>
+        <v>6.461976906127806E-06</v>
       </c>
       <c r="AG5">
-        <v>3.814134951210081E-05</v>
+        <v>2.466409498845181E-05</v>
       </c>
       <c r="AH5">
-        <v>5.903924424477765E-05</v>
+        <v>4.561291280487923E-05</v>
       </c>
       <c r="AI5">
-        <v>9.550014377837455E-05</v>
+        <v>8.216265867751272E-05</v>
       </c>
       <c r="AJ5">
-        <v>9.744239875352947E-05</v>
+        <v>8.41096464553748E-05</v>
       </c>
       <c r="AK5">
-        <v>4.432736743297007E-05</v>
+        <v>3.086518672956453E-05</v>
       </c>
       <c r="AL5">
-        <v>3.692985752759806E-05</v>
+        <v>2.34496508928116E-05</v>
       </c>
       <c r="AM5">
-        <v>0.0001128950285558614</v>
+        <v>9.959993055598212E-05</v>
       </c>
       <c r="AN5">
-        <v>8.700194888708235E-05</v>
+        <v>7.364375575339168E-05</v>
       </c>
       <c r="AO5">
-        <v>2.794179964257212E-05</v>
+        <v>1.443969129805418E-05</v>
       </c>
       <c r="AP5">
-        <v>1.670479978631437E-05</v>
+        <v>3.17530960778371E-06</v>
       </c>
       <c r="AQ5">
-        <v>1.086465186102078E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>1.436810381620508E-05</v>
+        <v>8.329196782537405E-07</v>
       </c>
       <c r="AS5">
-        <v>5.970042923631985E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>1.779390677238266E-05</v>
+        <v>4.2670704825319E-06</v>
       </c>
       <c r="AU5">
-        <v>1.341108682844712E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1.11104553578765E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>4.340321944479165E-07</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>6.10715932187801E-05</v>
+        <v>4.765021411873875E-05</v>
       </c>
       <c r="AY5">
-        <v>1.666542278681807E-05</v>
+        <v>3.135836656122431E-06</v>
       </c>
       <c r="AZ5">
-        <v>2.733816965029368E-07</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>1.666542278681807E-05</v>
+        <v>3.135836656122431E-06</v>
       </c>
       <c r="BB5">
-        <v>3.293007457876276E-05</v>
+        <v>1.944012144631742E-05</v>
       </c>
       <c r="BC5">
-        <v>1.423815981786731E-05</v>
+        <v>7.026590380151979E-07</v>
       </c>
       <c r="BD5">
-        <v>3.418220656274565E-07</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>5.338717931707813E-08</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>9.315455280837905E-08</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>3.189505759200256E-07</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>1.353720882683378E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>2.121744972858914E-05</v>
+        <v>7.69895577976903E-06</v>
       </c>
       <c r="BJ5">
-        <v>1.171625345012721E-07</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>1.640308979017381E-05</v>
+        <v>2.872864417806715E-06</v>
       </c>
       <c r="BL5">
-        <v>7.67193290186163E-05</v>
+        <v>6.333607964268519E-05</v>
       </c>
       <c r="BM5">
-        <v>2.248838771233146E-05</v>
+        <v>8.97299073008219E-06</v>
       </c>
       <c r="BN5">
-        <v>1.825459676648957E-05</v>
+        <v>4.728883066040907E-06</v>
       </c>
       <c r="BO5">
-        <v>6.667884914705282E-05</v>
+        <v>5.327113356512651E-05</v>
       </c>
       <c r="BP5">
-        <v>7.140207908663387E-05</v>
+        <v>5.80058728666248E-05</v>
       </c>
       <c r="BQ5">
-        <v>6.830337912627204E-05</v>
+        <v>5.489962212855938E-05</v>
       </c>
       <c r="BR5">
-        <v>3.413092356340166E-05</v>
+        <v>2.06438966076932E-05</v>
       </c>
       <c r="BS5">
-        <v>2.589030966881452E-05</v>
+        <v>1.238320234248126E-05</v>
       </c>
       <c r="BT5">
-        <v>5.922932424234617E-05</v>
+        <v>4.580345598114394E-05</v>
       </c>
       <c r="BU5">
-        <v>6.192255920789467E-05</v>
+        <v>4.850325370487765E-05</v>
       </c>
       <c r="BV5">
-        <v>1.825459676648957E-05</v>
+        <v>4.728883066040907E-06</v>
       </c>
       <c r="BW5">
-        <v>6.525983616520464E-06</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>9.600136877196294E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>2.319720770326433E-05</v>
+        <v>9.683537942834482E-06</v>
       </c>
       <c r="BZ5">
-        <v>2.859893163416618E-05</v>
+        <v>1.509842456039207E-05</v>
       </c>
       <c r="CA5">
-        <v>1.512744980649163E-05</v>
+        <v>1.594116009924127E-06</v>
       </c>
       <c r="CB5">
-        <v>3.066868160769021E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>5.042802935493119E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>4.29562434505093E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.013348374245509E-07</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>6.128717321602243E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>2.279537070840457E-05</v>
+        <v>9.280721769009331E-06</v>
       </c>
       <c r="CH5">
-        <v>3.73229555225696E-05</v>
+        <v>2.384370677193253E-05</v>
       </c>
       <c r="CI5">
-        <v>2.974840561946226E-05</v>
+        <v>1.625069953405425E-05</v>
       </c>
       <c r="CJ5">
-        <v>1.928362475332638E-05</v>
+        <v>5.76041854365732E-06</v>
       </c>
       <c r="CK5">
-        <v>1.748247277636648E-05</v>
+        <v>3.954877597658027E-06</v>
       </c>
       <c r="CL5">
-        <v>6.501378916835204E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008905100886087106</v>
+        <v>0.008913230254090266</v>
       </c>
       <c r="CN5">
-        <v>0.07417602905114987</v>
+        <v>0.07434320778675414</v>
       </c>
       <c r="CO5">
-        <v>0.06025854922918046</v>
+        <v>0.06039181445341736</v>
       </c>
       <c r="CP5">
-        <v>0.07384242905541723</v>
+        <v>0.07400879488901682</v>
       </c>
       <c r="CQ5">
-        <v>0.002148866972511973</v>
+        <v>0.002140533042665255</v>
       </c>
       <c r="CR5">
-        <v>0.001690091178380573</v>
+        <v>0.001680639323571264</v>
       </c>
       <c r="CS5">
-        <v>0.0070099601103295</v>
+        <v>0.007013471481463716</v>
       </c>
       <c r="CT5">
-        <v>0.005772388426160357</v>
+        <v>0.005772884136275775</v>
       </c>
       <c r="CU5">
-        <v>0.04601188941142188</v>
+        <v>0.04611043899275093</v>
       </c>
       <c r="CV5">
-        <v>0.01952798475020055</v>
+        <v>0.01956199950099488</v>
       </c>
       <c r="CW5">
-        <v>0.0665658791484979</v>
+        <v>0.06671451380079597</v>
       </c>
       <c r="CX5">
-        <v>0.03267351458204464</v>
+        <v>0.03273956178994222</v>
       </c>
       <c r="CY5">
-        <v>0.006249487320057369</v>
+        <v>0.006251145604070398</v>
       </c>
       <c r="CZ5">
-        <v>0.03263778158250173</v>
+        <v>0.03270374171777541</v>
       </c>
       <c r="DA5">
-        <v>0.002776887464478416</v>
+        <v>0.002770083867735515</v>
       </c>
       <c r="DB5">
-        <v>0.06352985918733428</v>
+        <v>0.063671095797833</v>
       </c>
       <c r="DC5">
-        <v>0.001971635974779088</v>
+        <v>0.001962870176121843</v>
       </c>
       <c r="DD5">
-        <v>0.001533345280385646</v>
+        <v>0.001523511473968615</v>
       </c>
       <c r="DE5">
-        <v>0.0004116905947337074</v>
+        <v>0.0003991235888136959</v>
       </c>
       <c r="DF5">
-        <v>0.006325928919079538</v>
+        <v>0.006327773472666552</v>
       </c>
       <c r="DG5">
-        <v>0.01366798482516091</v>
+        <v>0.01368772018222787</v>
       </c>
       <c r="DH5">
-        <v>0.02605266266673772</v>
+        <v>0.02610257646976863</v>
       </c>
       <c r="DI5">
-        <v>0.07067973909587395</v>
+        <v>0.07083839822371457</v>
       </c>
       <c r="DJ5">
-        <v>0.001122076185646547</v>
+        <v>0.001111240216532109</v>
       </c>
       <c r="DK5">
-        <v>0.0199572927447089</v>
+        <v>0.01999235361460943</v>
       </c>
       <c r="DL5">
-        <v>0.001730356377865506</v>
+        <v>0.0017210026395484</v>
       </c>
       <c r="DM5">
-        <v>0.01492494080908209</v>
+        <v>0.01494773906198898</v>
       </c>
       <c r="DN5">
-        <v>0.02261386371072639</v>
+        <v>0.02265539799756782</v>
       </c>
       <c r="DO5">
-        <v>0.01473112681156134</v>
+        <v>0.01475345278692285</v>
       </c>
       <c r="DP5">
-        <v>0.002970318962004065</v>
+        <v>0.002963986710747133</v>
       </c>
       <c r="DQ5">
-        <v>0.002677494965749832</v>
+        <v>0.002670449173675694</v>
       </c>
       <c r="DR5">
-        <v>0.005080797635007096</v>
+        <v>0.005079608106670051</v>
       </c>
       <c r="DS5">
-        <v>0.0008131974495976837</v>
+        <v>0.0008016088181722426</v>
       </c>
       <c r="DT5">
-        <v>0.00150194378078733</v>
+        <v>0.001492033456557648</v>
       </c>
       <c r="DU5">
-        <v>7.173874908232722E-05</v>
+        <v>5.834336324516562E-05</v>
       </c>
       <c r="DV5">
-        <v>0.01005994787131445</v>
+        <v>0.01007089132037698</v>
       </c>
       <c r="DW5">
-        <v>0.00760788290268095</v>
+        <v>0.007612851266149598</v>
       </c>
       <c r="DX5">
-        <v>0.001651083678879552</v>
+        <v>0.001641536772286826</v>
       </c>
       <c r="DY5">
-        <v>0.001170098785032248</v>
+        <v>0.00115937983530573</v>
       </c>
       <c r="DZ5">
-        <v>0.002303504170533874</v>
+        <v>0.002295547053906217</v>
       </c>
       <c r="EA5">
-        <v>9.744239875352947E-05</v>
+        <v>8.41096464553748E-05</v>
       </c>
       <c r="EB5">
-        <v>0.01056035986491325</v>
+        <v>0.01057252269622388</v>
       </c>
       <c r="EC5">
-        <v>0.008889687886284267</v>
+        <v>0.008897779696557816</v>
       </c>
       <c r="ED5">
-        <v>0.01116993785711561</v>
+        <v>0.0111835860816463</v>
       </c>
       <c r="EE5">
-        <v>0.002492294168118896</v>
+        <v>0.002484797086771409</v>
       </c>
       <c r="EF5">
-        <v>0.0377751095167857</v>
+        <v>0.03785358807001478</v>
       </c>
       <c r="EG5">
-        <v>0.05074600935086363</v>
+        <v>0.05085609483038937</v>
       </c>
       <c r="EH5">
-        <v>0.002636227266277723</v>
+        <v>0.002629080914862881</v>
       </c>
       <c r="EI5">
-        <v>0.01673935478587235</v>
+        <v>0.01676657432408477</v>
       </c>
       <c r="EJ5">
-        <v>0.0001314608483183699</v>
+        <v>0.0001182109907030727</v>
       </c>
       <c r="EK5">
-        <v>0.0005611668428216265</v>
+        <v>0.0005489640741416563</v>
       </c>
       <c r="EL5">
-        <v>0.008239245894604636</v>
+        <v>0.008245752736036066</v>
       </c>
       <c r="EM5">
-        <v>0.009430467879366678</v>
+        <v>0.009439877438879116</v>
       </c>
       <c r="EN5">
-        <v>0.000288084616314859</v>
+        <v>0.0002752164127061993</v>
       </c>
       <c r="EO5">
-        <v>0.0006856823412288404</v>
+        <v>0.0006737829865163891</v>
       </c>
       <c r="EP5">
-        <v>0.0001961912774903466</v>
+        <v>0.0001830991521781404</v>
       </c>
       <c r="EQ5">
-        <v>0.004271880245354662</v>
+        <v>0.004268719582197221</v>
       </c>
       <c r="ER5">
-        <v>0.0001123703685625728</v>
+        <v>9.907399209397113E-05</v>
       </c>
       <c r="ES5">
-        <v>0.0004459797242950852</v>
+        <v>0.0004334962726392101</v>
       </c>
       <c r="ET5">
-        <v>0.000751259030389992</v>
+        <v>0.0007395194701102793</v>
       </c>
       <c r="EU5">
-        <v>0.000851988389101475</v>
+        <v>0.0008404942817554393</v>
       </c>
       <c r="EV5">
-        <v>0.003891994650214109</v>
+        <v>0.003887908298310292</v>
       </c>
       <c r="EW5">
-        <v>0.0006999961910457396</v>
+        <v>0.0006881317157018728</v>
       </c>
       <c r="EX5">
-        <v>5.659596927603171E-05</v>
+        <v>4.316368416963E-05</v>
       </c>
       <c r="EY5">
-        <v>2.514116167839752E-05</v>
+        <v>1.163222886072431E-05</v>
       </c>
       <c r="EZ5">
-        <v>0.002019791874163084</v>
+        <v>0.002011143419713415</v>
       </c>
       <c r="FA5">
-        <v>8.674656889034914E-06</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001048304686590223</v>
+        <v>0.001037288954285621</v>
       </c>
       <c r="FC5">
-        <v>0.00410771134745469</v>
+        <v>0.00410415064464522</v>
       </c>
       <c r="FD5">
-        <v>0.001059539186446512</v>
+        <v>0.001048550829884031</v>
       </c>
       <c r="FE5">
-        <v>0.0002274693270902419</v>
+        <v>0.0002144534187730825</v>
       </c>
       <c r="FF5">
-        <v>0.005249559332848318</v>
+        <v>0.005248781035699056</v>
       </c>
       <c r="FG5">
-        <v>0.0004685000440070083</v>
+        <v>0.0004560714688897247</v>
       </c>
       <c r="FH5">
-        <v>0.0003635349253497084</v>
+        <v>0.0003508505757825748</v>
       </c>
       <c r="FI5">
-        <v>0.0005156423334039702</v>
+        <v>0.0005033286325733966</v>
       </c>
       <c r="FJ5">
-        <v>0.001479620481072887</v>
+        <v>0.0014696557603944</v>
       </c>
       <c r="FK5">
-        <v>0.002975710161935102</v>
+        <v>0.002969391047720399</v>
       </c>
       <c r="FL5">
-        <v>0.01005347687139723</v>
+        <v>0.01006440455220774</v>
       </c>
       <c r="FM5">
-        <v>5.456890930196159E-05</v>
+        <v>4.113168474370851E-05</v>
       </c>
       <c r="FN5">
-        <v>0.006929478911359005</v>
+        <v>0.00693279416939724</v>
       </c>
       <c r="FO5">
-        <v>0.00476518593904436</v>
+        <v>0.004763227341811537</v>
       </c>
       <c r="FP5">
-        <v>0.001743346577699337</v>
+        <v>0.00173402449333793</v>
       </c>
       <c r="FQ5">
-        <v>0.001837471376495305</v>
+        <v>0.001828378651362347</v>
       </c>
       <c r="FR5">
-        <v>0.0006050974422596721</v>
+        <v>0.000593001721759579</v>
       </c>
       <c r="FS5">
-        <v>0.001020480386946147</v>
+        <v>0.001009396853594636</v>
       </c>
       <c r="FT5">
-        <v>0.004554931441733908</v>
+        <v>0.004552460505458687</v>
       </c>
       <c r="FU5">
-        <v>0.001933407875268097</v>
+        <v>0.001924548924035536</v>
       </c>
       <c r="FV5">
-        <v>1.305144283304764E-05</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.001470497281189589</v>
+        <v>0.00146051032949321</v>
       </c>
       <c r="FX5">
-        <v>6.599634915578326E-05</v>
+        <v>5.258697048747147E-05</v>
       </c>
       <c r="FY5">
-        <v>0.003632183353537582</v>
+        <v>0.003627463904731457</v>
       </c>
       <c r="FZ5">
-        <v>8.74761288810167E-06</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.004136277347089277</v>
+        <v>0.004132786252669093</v>
       </c>
       <c r="GB5">
-        <v>0.0004147053646951428</v>
+        <v>0.0004021457050358527</v>
       </c>
       <c r="GC5">
-        <v>4.482245942663691E-05</v>
+        <v>3.136148514193432E-05</v>
       </c>
       <c r="GD5">
-        <v>0.004245086545697403</v>
+        <v>0.004241860592814414</v>
       </c>
       <c r="GE5">
-        <v>0.001843186976422191</v>
+        <v>0.001834108178815306</v>
       </c>
       <c r="GF5">
-        <v>0.0009919477873111327</v>
+        <v>0.0009807947269580061</v>
       </c>
       <c r="GG5">
-        <v>0.001404532482033403</v>
+        <v>0.001394384790174677</v>
       </c>
       <c r="GH5">
-        <v>0.001231430984247695</v>
+        <v>0.001220861486164857</v>
       </c>
       <c r="GI5">
-        <v>0.0002532864667599924</v>
+        <v>0.0002403334685293474</v>
       </c>
       <c r="GJ5">
-        <v>0.0008304806893765988</v>
+        <v>0.0008189341730004486</v>
       </c>
       <c r="GK5">
-        <v>6.652886914897133E-06</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0004658286940411798</v>
+        <v>0.0004533936094941294</v>
       </c>
       <c r="GM5">
-        <v>3.500288155224769E-05</v>
+        <v>2.151797934595829E-05</v>
       </c>
       <c r="GN5">
-        <v>0.0005271507432567562</v>
+        <v>0.0005148650856203065</v>
       </c>
       <c r="GO5">
-        <v>4.699964439878665E-05</v>
+        <v>3.354397538402131E-05</v>
       </c>
       <c r="GP5">
-        <v>0.001253211983969075</v>
+        <v>0.001242695560881933</v>
       </c>
       <c r="GQ5">
-        <v>0.005126710934419779</v>
+        <v>0.00512563328561994</v>
       </c>
       <c r="GR5">
-        <v>0.004831964938190131</v>
+        <v>0.004830169065126884</v>
       </c>
       <c r="GS5">
-        <v>0.004592729641250399</v>
+        <v>0.004590350809988826</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.984412647864913E-05</v>
+        <v>2.617505131740536E-05</v>
       </c>
       <c r="C6">
-        <v>3.844763490491626E-06</v>
+        <v>1.587528490690726E-07</v>
       </c>
       <c r="D6">
-        <v>8.267488409618774E-10</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.442269719186975E-09</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4.642234230002898E-06</v>
+        <v>9.567430455342826E-07</v>
       </c>
       <c r="G6">
-        <v>3.686113982631219E-06</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1.104578004727127E-05</v>
+        <v>7.364460008200016E-06</v>
       </c>
       <c r="I6">
-        <v>1.644674581486608E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.186125608313196E-05</v>
+        <v>1.818698103512887E-05</v>
       </c>
       <c r="K6">
-        <v>1.898063694040957E-08</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.39303116901875E-05</v>
+        <v>1.025087057901483E-05</v>
       </c>
       <c r="M6">
-        <v>2.697033633626509E-07</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>7.36197886475464E-06</v>
+        <v>3.67825926912742E-06</v>
       </c>
       <c r="O6">
-        <v>3.378842367407222E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.748936086652321E-05</v>
+        <v>1.381223805087218E-05</v>
       </c>
       <c r="Q6">
-        <v>2.145286006289768E-05</v>
+        <v>1.777831899365749E-05</v>
       </c>
       <c r="R6">
-        <v>7.580087375560985E-07</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>4.467741221357514E-06</v>
+        <v>7.821363755314802E-07</v>
       </c>
       <c r="T6">
-        <v>4.511370223519145E-05</v>
+        <v>4.145457337908144E-05</v>
       </c>
       <c r="U6">
-        <v>0.0001682604083365853</v>
+        <v>0.0001646814948534909</v>
       </c>
       <c r="V6">
-        <v>1.041492351601502E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>2.008797499527345E-07</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>5.077256651556403E-05</v>
+        <v>4.711712373375893E-05</v>
       </c>
       <c r="Y6">
-        <v>2.020909000127418E-05</v>
+        <v>1.653373876436814E-05</v>
       </c>
       <c r="Z6">
-        <v>4.478662221898603E-07</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>3.389872867953736E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>4.284170912262388E-06</v>
+        <v>5.984464923016913E-07</v>
       </c>
       <c r="AC6">
-        <v>2.445448021161515E-05</v>
+        <v>2.078189433945252E-05</v>
       </c>
       <c r="AD6">
-        <v>4.819472238784285E-08</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.305150514664639E-05</v>
+        <v>9.371491597956457E-06</v>
       </c>
       <c r="AF6">
-        <v>6.270615310682232E-07</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>2.954856946400554E-07</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.965510596474129E-05</v>
+        <v>3.599242148501911E-05</v>
       </c>
       <c r="AI6">
-        <v>5.317341063451561E-05</v>
+        <v>4.951953171594852E-05</v>
       </c>
       <c r="AJ6">
-        <v>6.932516643476618E-09</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>2.768923137188327E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>5.377129266413811E-05</v>
+        <v>5.011780319431508E-05</v>
       </c>
       <c r="AM6">
-        <v>2.110336104558149E-05</v>
+        <v>1.742859231946821E-05</v>
       </c>
       <c r="AN6">
-        <v>1.251989062030716E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.345146566646273E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.550971876844039E-09</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>7.965454394654276E-06</v>
+        <v>4.282127891268573E-06</v>
       </c>
       <c r="AR6">
-        <v>1.47091597287761E-10</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.999320148603515E-05</v>
+        <v>2.632422342935637E-05</v>
       </c>
       <c r="AT6">
-        <v>6.44008331907865E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>4.809205238275599E-07</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.024560200762586E-05</v>
+        <v>6.563760748117933E-06</v>
       </c>
       <c r="AW6">
-        <v>1.876558892975486E-05</v>
+        <v>1.508929742428163E-05</v>
       </c>
       <c r="AX6">
-        <v>7.321087362728641E-05</v>
+        <v>6.957004672301299E-05</v>
       </c>
       <c r="AY6">
-        <v>8.458130919064296E-05</v>
+        <v>8.094788876729737E-05</v>
       </c>
       <c r="AZ6">
-        <v>3.544481175613918E-05</v>
+        <v>3.17793847725276E-05</v>
       </c>
       <c r="BA6">
-        <v>4.96140524581646E-05</v>
+        <v>4.595785504279926E-05</v>
       </c>
       <c r="BB6">
-        <v>0.0001141086816535983</v>
+        <v>0.0001104944947872943</v>
       </c>
       <c r="BC6">
-        <v>9.044454448114126E-05</v>
+        <v>8.681494325540797E-05</v>
       </c>
       <c r="BD6">
-        <v>8.915321441716137E-05</v>
+        <v>8.552277204410025E-05</v>
       </c>
       <c r="BE6">
-        <v>4.54805582533676E-05</v>
+        <v>4.182166836014399E-05</v>
       </c>
       <c r="BF6">
-        <v>1.254260062143234E-05</v>
+        <v>8.862255582216909E-06</v>
       </c>
       <c r="BG6">
-        <v>9.985561494741964E-06</v>
+        <v>6.303550849893571E-06</v>
       </c>
       <c r="BH6">
-        <v>1.539081576254925E-05</v>
+        <v>1.171232599536834E-05</v>
       </c>
       <c r="BI6">
-        <v>3.132996155226591E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2.665843832081187E-05</v>
+        <v>2.298728806416375E-05</v>
       </c>
       <c r="BK6">
-        <v>2.12169310512084E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>8.197885406170242E-06</v>
+        <v>4.514710303831951E-06</v>
       </c>
       <c r="BM6">
-        <v>7.436113368427688E-06</v>
+        <v>3.752442062576572E-06</v>
       </c>
       <c r="BN6">
-        <v>4.819472238784285E-08</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>3.241005860578011E-06</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>9.332078462364669E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>9.747572482950624E-06</v>
+        <v>6.065406816681367E-06</v>
       </c>
       <c r="BR6">
-        <v>0.0001135910356279511</v>
+        <v>0.000109976511577078</v>
       </c>
       <c r="BS6">
-        <v>8.067225399696597E-05</v>
+        <v>7.703628729097566E-05</v>
       </c>
       <c r="BT6">
-        <v>2.503500524037769E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>5.1987665575767E-05</v>
+        <v>4.833301428589418E-05</v>
       </c>
       <c r="BV6">
-        <v>5.477520471387768E-05</v>
+        <v>5.112236917286926E-05</v>
       </c>
       <c r="BW6">
-        <v>1.890989793690475E-05</v>
+        <v>1.52337004315165E-05</v>
       </c>
       <c r="BX6">
-        <v>1.95071229664947E-05</v>
+        <v>1.583131448189345E-05</v>
       </c>
       <c r="BY6">
-        <v>3.032547250249777E-05</v>
+        <v>2.665671088070686E-05</v>
       </c>
       <c r="BZ6">
-        <v>7.36197886475464E-06</v>
+        <v>3.67825926912742E-06</v>
       </c>
       <c r="CA6">
-        <v>3.697634783202026E-06</v>
+        <v>1.15283049965807E-08</v>
       </c>
       <c r="CB6">
-        <v>2.840429640731169E-07</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>8.816231936806675E-06</v>
+        <v>5.133459613391005E-06</v>
       </c>
       <c r="CD6">
-        <v>7.948541393816311E-06</v>
+        <v>4.265203873630288E-06</v>
       </c>
       <c r="CE6">
-        <v>2.202237409111467E-08</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>2.494022423568169E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>1.283383863586194E-05</v>
+        <v>9.15368330343367E-06</v>
       </c>
       <c r="CH6">
-        <v>1.726214685526572E-05</v>
+        <v>1.358487603681994E-05</v>
       </c>
       <c r="CI6">
-        <v>6.461755320152405E-05</v>
+        <v>6.097112877519569E-05</v>
       </c>
       <c r="CJ6">
-        <v>3.775284187049222E-05</v>
+        <v>3.408891829287839E-05</v>
       </c>
       <c r="CK6">
-        <v>4.420305619007282E-05</v>
+        <v>4.054333415681251E-05</v>
       </c>
       <c r="CL6">
-        <v>2.623795429997868E-05</v>
+        <v>2.256653014820461E-05</v>
       </c>
       <c r="CM6">
-        <v>0.0009995985495258428</v>
+        <v>0.0009965611535644814</v>
       </c>
       <c r="CN6">
-        <v>0.06263870310348046</v>
+        <v>0.06267581622327933</v>
       </c>
       <c r="CO6">
-        <v>0.0213676140586741</v>
+        <v>0.02137784399249669</v>
       </c>
       <c r="CP6">
-        <v>0.08268180909653083</v>
+        <v>0.08273197790636416</v>
       </c>
       <c r="CQ6">
-        <v>0.003247533860901446</v>
+        <v>0.003245960726350118</v>
       </c>
       <c r="CR6">
-        <v>0.001827544390547027</v>
+        <v>0.001825046302428942</v>
       </c>
       <c r="CS6">
-        <v>0.004105763703423073</v>
+        <v>0.004104749603125526</v>
       </c>
       <c r="CT6">
-        <v>0.00931657646159661</v>
+        <v>0.009318956583542955</v>
       </c>
       <c r="CU6">
-        <v>0.005887928691721743</v>
+        <v>0.005888075459090393</v>
       </c>
       <c r="CV6">
-        <v>0.04448687520413485</v>
+        <v>0.0445121645757235</v>
       </c>
       <c r="CW6">
-        <v>0.005623733878632018</v>
+        <v>0.005623708554629719</v>
       </c>
       <c r="CX6">
-        <v>0.08236252408071162</v>
+        <v>0.08241248491448572</v>
       </c>
       <c r="CY6">
-        <v>0.008133479402979199</v>
+        <v>0.008135088878475671</v>
       </c>
       <c r="CZ6">
-        <v>0.03380901867509261</v>
+        <v>0.03382735269828745</v>
       </c>
       <c r="DA6">
-        <v>0.01792599488815656</v>
+        <v>0.01793398301808296</v>
       </c>
       <c r="DB6">
-        <v>0.04221161209140526</v>
+        <v>0.04223541940078474</v>
       </c>
       <c r="DC6">
-        <v>0.04366295216331297</v>
+        <v>0.04368770484743227</v>
       </c>
       <c r="DD6">
-        <v>0.002381462717991316</v>
+        <v>0.002379325441515401</v>
       </c>
       <c r="DE6">
-        <v>0.003098959953540243</v>
+        <v>0.003097290040830759</v>
       </c>
       <c r="DF6">
-        <v>0.007734843383228485</v>
+        <v>0.007736193194962653</v>
       </c>
       <c r="DG6">
-        <v>0.004885313242046425</v>
+        <v>0.004884806925180563</v>
       </c>
       <c r="DH6">
-        <v>0.001906440694456002</v>
+        <v>0.001903993997858227</v>
       </c>
       <c r="DI6">
-        <v>0.06511684822626199</v>
+        <v>0.06515557556167169</v>
       </c>
       <c r="DJ6">
-        <v>0.04557996425829274</v>
+        <v>0.04560596564686498</v>
       </c>
       <c r="DK6">
-        <v>0.006672026930570465</v>
+        <v>0.006672684444305797</v>
       </c>
       <c r="DL6">
-        <v>0.01237730461324263</v>
+        <v>0.01238167843407185</v>
       </c>
       <c r="DM6">
-        <v>0.009049613448369732</v>
+        <v>0.009051819675793315</v>
       </c>
       <c r="DN6">
-        <v>2.472477522500711E-05</v>
+        <v>2.105236541776745E-05</v>
       </c>
       <c r="DO6">
-        <v>0.03087866652990617</v>
+        <v>0.03089509177861702</v>
       </c>
       <c r="DP6">
-        <v>0.004542928925082744</v>
+        <v>0.004542199585721441</v>
       </c>
       <c r="DQ6">
-        <v>0.00527329346126919</v>
+        <v>0.00527303986718409</v>
       </c>
       <c r="DR6">
-        <v>3.119917154578583E-05</v>
+        <v>2.75309790345857E-05</v>
       </c>
       <c r="DS6">
-        <v>0.008443624418345562</v>
+        <v>0.008445435916282456</v>
       </c>
       <c r="DT6">
-        <v>2.683038832933126E-05</v>
+        <v>2.315935007757966E-05</v>
       </c>
       <c r="DU6">
-        <v>0.001772941687841696</v>
+        <v>0.001770408032583378</v>
       </c>
       <c r="DV6">
-        <v>0.003161476656637679</v>
+        <v>0.003159847466094605</v>
       </c>
       <c r="DW6">
-        <v>0.008877302439832457</v>
+        <v>0.00887939642721112</v>
       </c>
       <c r="DX6">
-        <v>0.001827287790534313</v>
+        <v>0.001824789535271964</v>
       </c>
       <c r="DY6">
-        <v>0.01746117086512651</v>
+        <v>0.01746885621771055</v>
       </c>
       <c r="DZ6">
-        <v>0.0001940008596119148</v>
+        <v>0.0001904387129589372</v>
       </c>
       <c r="EA6">
-        <v>0.003968960796645073</v>
+        <v>0.003967857585590573</v>
       </c>
       <c r="EB6">
-        <v>0.004649689230372261</v>
+        <v>0.004649029432600687</v>
       </c>
       <c r="EC6">
-        <v>0.02167949107412628</v>
+        <v>0.02168992415858051</v>
       </c>
       <c r="ED6">
-        <v>8.812939436643545E-07</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.02915534744452306</v>
+        <v>0.02917065015664617</v>
       </c>
       <c r="EF6">
-        <v>0.001413439270029885</v>
+        <v>0.001410671441877645</v>
       </c>
       <c r="EG6">
-        <v>0.05799941287362343</v>
+        <v>0.05803350404985518</v>
       </c>
       <c r="EH6">
-        <v>0.002321698815030269</v>
+        <v>0.002319522609508498</v>
       </c>
       <c r="EI6">
-        <v>0.03048244251027496</v>
+        <v>0.03049860966635355</v>
       </c>
       <c r="EJ6">
-        <v>0.0004245952810368845</v>
+        <v>0.0004211833391121982</v>
       </c>
       <c r="EK6">
-        <v>0.0113643045630528</v>
+        <v>0.01136801853532039</v>
       </c>
       <c r="EL6">
-        <v>0.001685925683530424</v>
+        <v>0.001683335347736629</v>
       </c>
       <c r="EM6">
-        <v>0.02334858615682282</v>
+        <v>0.0233601064574024</v>
       </c>
       <c r="EN6">
-        <v>0.002538242925759107</v>
+        <v>0.002536207772866077</v>
       </c>
       <c r="EO6">
-        <v>0.0007390032366144571</v>
+        <v>0.0007357960939266661</v>
       </c>
       <c r="EP6">
-        <v>3.104712753825269E-05</v>
+        <v>2.737883598853854E-05</v>
       </c>
       <c r="EQ6">
-        <v>0.0008410011416680181</v>
+        <v>0.0008378604384349206</v>
       </c>
       <c r="ER6">
-        <v>3.230220460043641E-06</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.0001424647970585228</v>
+        <v>0.000138869080815157</v>
       </c>
       <c r="ET6">
-        <v>1.541489376374221E-06</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.003741849885392696</v>
+        <v>0.003740598738700787</v>
       </c>
       <c r="EV6">
-        <v>0.006731778733530912</v>
+        <v>0.006732475168430395</v>
       </c>
       <c r="EW6">
-        <v>0.0005621497278521203</v>
+        <v>0.0005588273862229722</v>
       </c>
       <c r="EX6">
-        <v>0.001893373093808558</v>
+        <v>0.001890917885229476</v>
       </c>
       <c r="EY6">
-        <v>0.001110918555041274</v>
+        <v>0.001107953670769825</v>
       </c>
       <c r="EZ6">
-        <v>0.001709259684686524</v>
+        <v>0.001706684548207968</v>
       </c>
       <c r="FA6">
-        <v>0.0002538160925755044</v>
+        <v>0.0002502929084037501</v>
       </c>
       <c r="FB6">
-        <v>0.0002704853934013971</v>
+        <v>0.0002669730672885061</v>
       </c>
       <c r="FC6">
-        <v>0.0004312366213659345</v>
+        <v>0.0004278290054813729</v>
       </c>
       <c r="FD6">
-        <v>0.0004658632230815349</v>
+        <v>0.0004624781622929301</v>
       </c>
       <c r="FE6">
-        <v>0.002091610403630371</v>
+        <v>0.002089284322985412</v>
       </c>
       <c r="FF6">
-        <v>0.003873390791909986</v>
+        <v>0.003872225328410241</v>
       </c>
       <c r="FG6">
-        <v>0.003416195869257929</v>
+        <v>0.003414732597863662</v>
       </c>
       <c r="FH6">
-        <v>0.000319110365810557</v>
+        <v>0.0003156297130604635</v>
       </c>
       <c r="FI6">
-        <v>5.100976252731608E-05</v>
+        <v>4.735447425038702E-05</v>
       </c>
       <c r="FJ6">
-        <v>0.002234830410726311</v>
+        <v>0.00223259762081284</v>
       </c>
       <c r="FK6">
-        <v>1.077571153389053E-05</v>
+        <v>7.094215577434011E-06</v>
       </c>
       <c r="FL6">
-        <v>0.004129864504617164</v>
+        <v>0.004128866103113511</v>
       </c>
       <c r="FM6">
-        <v>0.0002489677123352878</v>
+        <v>0.0002454413700227939</v>
       </c>
       <c r="FN6">
-        <v>0.00346575617171343</v>
+        <v>0.00346432518293779</v>
       </c>
       <c r="FO6">
-        <v>0.005050510850231262</v>
+        <v>0.005050112139879462</v>
       </c>
       <c r="FP6">
-        <v>0.002381462717991316</v>
+        <v>0.002379325441515401</v>
       </c>
       <c r="FQ6">
-        <v>0.001629336580726675</v>
+        <v>0.001626709383890196</v>
       </c>
       <c r="FR6">
-        <v>0.0001787490688562536</v>
+        <v>0.0001751769874829465</v>
       </c>
       <c r="FS6">
-        <v>0.001675623283019984</v>
+        <v>0.001673026236442555</v>
       </c>
       <c r="FT6">
-        <v>0.003825672189545733</v>
+        <v>0.003824475643075037</v>
       </c>
       <c r="FU6">
-        <v>0.003168806557000844</v>
+        <v>0.00316718214101253</v>
       </c>
       <c r="FV6">
-        <v>4.832101939410033E-05</v>
+        <v>4.466397972210597E-05</v>
       </c>
       <c r="FW6">
-        <v>3.931259794777149E-05</v>
+        <v>3.564969036497809E-05</v>
       </c>
       <c r="FX6">
-        <v>0.0006611524327572819</v>
+        <v>0.0006578945795676133</v>
       </c>
       <c r="FY6">
-        <v>2.405182319166521E-05</v>
+        <v>2.037897503653883E-05</v>
       </c>
       <c r="FZ6">
-        <v>0.0009300061960778387</v>
+        <v>0.0009269234690088287</v>
       </c>
       <c r="GA6">
-        <v>0.00533880726451512</v>
+        <v>0.005338596344849266</v>
       </c>
       <c r="GB6">
-        <v>0.003756869586136858</v>
+        <v>0.003755628222986352</v>
       </c>
       <c r="GC6">
-        <v>0.0002197750408889155</v>
+        <v>0.0002162296830371228</v>
       </c>
       <c r="GD6">
-        <v>0.001190414058979937</v>
+        <v>0.001187500956536061</v>
       </c>
       <c r="GE6">
-        <v>0.001865936092449171</v>
+        <v>0.001863463011940193</v>
       </c>
       <c r="GF6">
-        <v>5.436998269380065E-06</v>
+        <v>1.752024778773481E-06</v>
       </c>
       <c r="GG6">
-        <v>7.680313380526757E-05</v>
+        <v>7.316464682951736E-05</v>
       </c>
       <c r="GH6">
-        <v>0.0007214896957467359</v>
+        <v>0.0007182711450785124</v>
       </c>
       <c r="GI6">
-        <v>2.26325221213449E-05</v>
+        <v>1.895874946106218E-05</v>
       </c>
       <c r="GJ6">
-        <v>0.0002197750408889155</v>
+        <v>0.0002162296830371228</v>
       </c>
       <c r="GK6">
-        <v>0.0002271982812567054</v>
+        <v>0.0002236577587595391</v>
       </c>
       <c r="GL6">
-        <v>0.002392114518519067</v>
+        <v>0.002389984180419173</v>
       </c>
       <c r="GM6">
-        <v>0.0003255791161310559</v>
+        <v>0.000322102676999307</v>
       </c>
       <c r="GN6">
-        <v>0.0001626514980586877</v>
+        <v>0.0001590689310403556</v>
       </c>
       <c r="GO6">
-        <v>0.0001879746793133433</v>
+        <v>0.0001844086073235393</v>
       </c>
       <c r="GP6">
-        <v>0.001734388585931554</v>
+        <v>0.0017318298179313</v>
       </c>
       <c r="GQ6">
-        <v>0.00263666883063569</v>
+        <v>0.002634697790465801</v>
       </c>
       <c r="GR6">
-        <v>0.00653692032387651</v>
+        <v>0.006537489831791824</v>
       </c>
       <c r="GS6">
-        <v>0.009348171463162009</v>
+        <v>0.009350572165478844</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.612974523335098E-05</v>
+        <v>4.428648002264045E-05</v>
       </c>
       <c r="C2">
-        <v>7.148478681196521E-05</v>
+        <v>6.779102363690582E-05</v>
       </c>
       <c r="D2">
-        <v>0.0001639301192755786</v>
+        <v>0.0001584092157519304</v>
       </c>
       <c r="E2">
-        <v>0.0002364699380700098</v>
+        <v>0.0002291149640543249</v>
       </c>
       <c r="F2">
-        <v>0.0002740860454448524</v>
+        <v>0.0002648848421788143</v>
       </c>
       <c r="G2">
-        <v>0.0003468932642348396</v>
+        <v>0.0003358580835725954</v>
       </c>
       <c r="H2">
-        <v>0.0004293691428641394</v>
+        <v>0.0004165033509684894</v>
       </c>
       <c r="I2">
-        <v>0.0004731852521359416</v>
+        <v>0.0004584753895327039</v>
       </c>
       <c r="J2">
-        <v>0.0004912581488355807</v>
+        <v>0.0004746952529750368</v>
       </c>
       <c r="K2">
-        <v>0.0005024244536500034</v>
+        <v>0.0004840061199887037</v>
       </c>
       <c r="L2">
-        <v>0.0005059704137910716</v>
+        <v>0.0004856939892911401</v>
       </c>
       <c r="M2">
-        <v>0.0005203831615515403</v>
+        <v>0.0004982524295063032</v>
       </c>
       <c r="N2">
-        <v>0.0005211564222886892</v>
+        <v>0.0004982524295063032</v>
       </c>
       <c r="O2">
-        <v>0.0005230151005577991</v>
+        <v>0.0004982524295063032</v>
       </c>
       <c r="P2">
-        <v>0.0005257231974127921</v>
+        <v>0.0004991021438189254</v>
       </c>
       <c r="Q2">
-        <v>0.0005260770566469112</v>
+        <v>0.0004991021438189254</v>
       </c>
       <c r="R2">
-        <v>0.0005334324430246691</v>
+        <v>0.0005046007656172333</v>
       </c>
       <c r="S2">
-        <v>0.0005799592822514206</v>
+        <v>0.0005492844778823234</v>
       </c>
       <c r="T2">
-        <v>0.0006361407913177172</v>
+        <v>0.0006036262212791132</v>
       </c>
       <c r="U2">
-        <v>0.0006854905624975533</v>
+        <v>0.0006511338483065588</v>
       </c>
       <c r="V2">
-        <v>0.0007301117687559753</v>
+        <v>0.0006939112641534808</v>
       </c>
       <c r="W2">
-        <v>0.0007819151058950346</v>
+        <v>0.0007438733113539288</v>
       </c>
       <c r="X2">
-        <v>0.0008956236840052654</v>
+        <v>0.0008557621519560575</v>
       </c>
       <c r="Y2">
-        <v>0.0009313143914121071</v>
+        <v>0.0008896059597807879</v>
       </c>
       <c r="Z2">
-        <v>0.0009600711039341876</v>
+        <v>0.0009165133586368999</v>
       </c>
       <c r="AA2">
-        <v>0.001013926177039148</v>
+        <v>0.0009685278561191316</v>
       </c>
       <c r="AB2">
-        <v>0.001079650835946843</v>
+        <v>0.001032416071823569</v>
       </c>
       <c r="AC2">
-        <v>0.001101045365591279</v>
+        <v>0.001051958724643694</v>
       </c>
       <c r="AD2">
-        <v>0.001110200491939126</v>
+        <v>0.001059257712995075</v>
       </c>
       <c r="AE2">
-        <v>0.001128522260634629</v>
+        <v>0.001075726535078543</v>
       </c>
       <c r="AF2">
-        <v>0.001128546513516226</v>
+        <v>0.001075726535078543</v>
       </c>
       <c r="AG2">
-        <v>0.001128618182600035</v>
+        <v>0.001075726535078543</v>
       </c>
       <c r="AH2">
-        <v>0.001130935763561518</v>
+        <v>0.001076185597538785</v>
       </c>
       <c r="AI2">
-        <v>0.001159046882094328</v>
+        <v>0.001102447177640819</v>
       </c>
       <c r="AJ2">
-        <v>0.001181489838721339</v>
+        <v>0.001123038622455419</v>
       </c>
       <c r="AK2">
-        <v>0.001204380792340905</v>
+        <v>0.001144078220233603</v>
       </c>
       <c r="AL2">
-        <v>0.001252013841549272</v>
+        <v>0.001189868527609473</v>
       </c>
       <c r="AM2">
-        <v>0.001316760615473219</v>
+        <v>0.001252778517877596</v>
       </c>
       <c r="AN2">
-        <v>0.001383542244363348</v>
+        <v>0.001317724071550631</v>
       </c>
       <c r="AO2">
-        <v>0.001469471822935249</v>
+        <v>0.001401824241301505</v>
       </c>
       <c r="AP2">
-        <v>0.001543353521707379</v>
+        <v>0.001473872336759732</v>
       </c>
       <c r="AQ2">
-        <v>0.001610648780588972</v>
+        <v>0.001539331699245515</v>
       </c>
       <c r="AR2">
-        <v>0.001662258147731255</v>
+        <v>0.001589099708918153</v>
       </c>
       <c r="AS2">
-        <v>0.001698162800134541</v>
+        <v>0.001623157536224696</v>
       </c>
       <c r="AT2">
-        <v>0.001772044498906671</v>
+        <v>0.001695205631682924</v>
       </c>
       <c r="AU2">
-        <v>0.001781791623744679</v>
+        <v>0.001703096824629897</v>
       </c>
       <c r="AV2">
-        <v>0.001787706156646383</v>
+        <v>0.0017071540913162</v>
       </c>
       <c r="AW2">
-        <v>0.001788228193637707</v>
+        <v>0.0017071540913162</v>
       </c>
       <c r="AX2">
-        <v>0.001789057602123923</v>
+        <v>0.0017071540913162</v>
       </c>
       <c r="AY2">
-        <v>0.001792306467169929</v>
+        <v>0.001708544762089337</v>
       </c>
       <c r="AZ2">
-        <v>0.001800718085030133</v>
+        <v>0.001715099983099143</v>
       </c>
       <c r="BA2">
-        <v>0.001813272966821478</v>
+        <v>0.001725799910525519</v>
       </c>
       <c r="BB2">
-        <v>0.001815131645090588</v>
+        <v>0.001725799910525519</v>
       </c>
       <c r="BC2">
-        <v>0.00182118891298992</v>
+        <v>0.001729999961902918</v>
       </c>
       <c r="BD2">
-        <v>0.001837806870713739</v>
+        <v>0.001744764379829586</v>
       </c>
       <c r="BE2">
-        <v>0.001847152793558415</v>
+        <v>0.001752254231103969</v>
       </c>
       <c r="BF2">
-        <v>0.001848287773239553</v>
+        <v>0.001752254231103969</v>
       </c>
       <c r="BG2">
-        <v>0.00185269962116623</v>
+        <v>0.001754808289652539</v>
       </c>
       <c r="BH2">
-        <v>0.001855205184624589</v>
+        <v>0.001755455400056129</v>
       </c>
       <c r="BI2">
-        <v>0.001855947321542255</v>
+        <v>0.001755455400056129</v>
       </c>
       <c r="BJ2">
-        <v>0.001856772735728538</v>
+        <v>0.001755455400056129</v>
       </c>
       <c r="BK2">
-        <v>0.001859807034878109</v>
+        <v>0.001756631430231296</v>
       </c>
       <c r="BL2">
-        <v>0.001860580295615258</v>
+        <v>0.001756631430231296</v>
       </c>
       <c r="BM2">
-        <v>0.001873941254393207</v>
+        <v>0.001768137715281552</v>
       </c>
       <c r="BN2">
-        <v>0.001874194220729003</v>
+        <v>0.001768137715281552</v>
       </c>
       <c r="BO2">
-        <v>0.001881224911612157</v>
+        <v>0.001773311528541885</v>
       </c>
       <c r="BP2">
-        <v>0.001919226753980589</v>
+        <v>0.001809467275954355</v>
       </c>
       <c r="BQ2">
-        <v>0.00192476602548853</v>
+        <v>0.001813149150598908</v>
       </c>
       <c r="BR2">
-        <v>0.001930680558390234</v>
+        <v>0.001817206417285211</v>
       </c>
       <c r="BS2">
-        <v>0.001946432939128438</v>
+        <v>0.001831104956873947</v>
       </c>
       <c r="BT2">
-        <v>0.001960490663894807</v>
+        <v>0.001843308250493062</v>
       </c>
       <c r="BU2">
-        <v>0.001962398411063102</v>
+        <v>0.00184335733647568</v>
       </c>
       <c r="BV2">
-        <v>0.001978400755797152</v>
+        <v>0.001857505927085715</v>
       </c>
       <c r="BW2">
-        <v>0.001978738750591535</v>
+        <v>0.001857505927085715</v>
       </c>
       <c r="BX2">
-        <v>0.001983495735512476</v>
+        <v>0.001860405242788666</v>
       </c>
       <c r="BY2">
-        <v>0.001998876858256852</v>
+        <v>0.001873932395129377</v>
       </c>
       <c r="BZ2">
-        <v>0.002000568421128739</v>
+        <v>0.001873932395129377</v>
       </c>
       <c r="CA2">
-        <v>0.002002927249689537</v>
+        <v>0.001874432719549365</v>
       </c>
       <c r="CB2">
-        <v>0.00200564257794441</v>
+        <v>0.001875289667779493</v>
       </c>
       <c r="CC2">
-        <v>0.002005893340490242</v>
+        <v>0.001875289667779493</v>
       </c>
       <c r="CD2">
-        <v>0.002017574846296102</v>
+        <v>0.001885115915152829</v>
       </c>
       <c r="CE2">
-        <v>0.002018992896572535</v>
+        <v>0.001885115915152829</v>
       </c>
       <c r="CF2">
-        <v>0.002027865518425077</v>
+        <v>0.001892132300654414</v>
       </c>
       <c r="CG2">
-        <v>0.002043476298165635</v>
+        <v>0.001905889189946839</v>
       </c>
       <c r="CH2">
-        <v>0.002054627932980302</v>
+        <v>0.001915185381853361</v>
       </c>
       <c r="CI2">
-        <v>0.002060010349890849</v>
+        <v>0.001918710347291286</v>
       </c>
       <c r="CJ2">
-        <v>0.002072343935685872</v>
+        <v>0.001929188901676706</v>
       </c>
       <c r="CK2">
-        <v>0.002080938478543036</v>
+        <v>0.001935927111369168</v>
       </c>
       <c r="CL2">
-        <v>0.002104564580150384</v>
+        <v>0.00195770211307834</v>
       </c>
       <c r="CM2">
-        <v>0.004127592746528855</v>
+        <v>0.00397957527529116</v>
       </c>
       <c r="CN2">
-        <v>0.09388386125483288</v>
+        <v>0.09376523327834677</v>
       </c>
       <c r="CO2">
-        <v>0.1167506628748002</v>
+        <v>0.1166381366945721</v>
       </c>
       <c r="CP2">
-        <v>0.2002772114866385</v>
+        <v>0.200191905912017</v>
       </c>
       <c r="CQ2">
-        <v>0.2095047723332819</v>
+        <v>0.2094208200266136</v>
       </c>
       <c r="CR2">
-        <v>0.2095700248661974</v>
+        <v>0.2094842359519543</v>
       </c>
       <c r="CS2">
-        <v>0.2152817343712722</v>
+        <v>0.2151960746744734</v>
       </c>
       <c r="CT2">
-        <v>0.2430741079093794</v>
+        <v>0.2429962648563187</v>
       </c>
       <c r="CU2">
-        <v>0.2878477121652687</v>
+        <v>0.287783597804575</v>
       </c>
       <c r="CV2">
-        <v>0.3272820285098937</v>
+        <v>0.3272297839580562</v>
       </c>
       <c r="CW2">
-        <v>0.3506201381220281</v>
+        <v>0.3505741594532463</v>
       </c>
       <c r="CX2">
-        <v>0.4010075342846195</v>
+        <v>0.4009772387608175</v>
       </c>
       <c r="CY2">
-        <v>0.4037710039386923</v>
+        <v>0.4037398111968742</v>
       </c>
       <c r="CZ2">
-        <v>0.4631601469516799</v>
+        <v>0.4631477713305828</v>
       </c>
       <c r="DA2">
-        <v>0.4641488441352483</v>
+        <v>0.4641349534056345</v>
       </c>
       <c r="DB2">
-        <v>0.5276120390805277</v>
+        <v>0.5276183838607693</v>
       </c>
       <c r="DC2">
-        <v>0.5493084307199465</v>
+        <v>0.5493204698159263</v>
       </c>
       <c r="DD2">
-        <v>0.5519722336756757</v>
+        <v>0.5519833408544838</v>
       </c>
       <c r="DE2">
-        <v>0.5520889724187356</v>
+        <v>0.5520982609149934</v>
       </c>
       <c r="DF2">
-        <v>0.5522985448352525</v>
+        <v>0.5523060469691848</v>
       </c>
       <c r="DG2">
-        <v>0.568471596566466</v>
+        <v>0.5684828700545635</v>
       </c>
       <c r="DH2">
-        <v>0.5694059683509373</v>
+        <v>0.5694157078170243</v>
       </c>
       <c r="DI2">
-        <v>0.6449127770960589</v>
+        <v>0.64494694507966</v>
       </c>
       <c r="DJ2">
-        <v>0.6614877478205927</v>
+        <v>0.6615258270872413</v>
       </c>
       <c r="DK2">
-        <v>0.6728975386309688</v>
+        <v>0.6729377309131931</v>
       </c>
       <c r="DL2">
-        <v>0.6787739860333057</v>
+        <v>0.6788143648867948</v>
       </c>
       <c r="DM2">
-        <v>0.6889497348641909</v>
+        <v>0.6889917970991312</v>
       </c>
       <c r="DN2">
-        <v>0.6899612462473802</v>
+        <v>0.6900018013166118</v>
       </c>
       <c r="DO2">
-        <v>0.711174590894827</v>
+        <v>0.7112206721060435</v>
       </c>
       <c r="DP2">
-        <v>0.7135047324561015</v>
+        <v>0.7135497655852803</v>
       </c>
       <c r="DQ2">
-        <v>0.7177552271854608</v>
+        <v>0.7177998808073067</v>
       </c>
       <c r="DR2">
-        <v>0.7177724906151739</v>
+        <v>0.717815290921945</v>
       </c>
       <c r="DS2">
-        <v>0.7242275720078942</v>
+        <v>0.7242707603384837</v>
       </c>
       <c r="DT2">
-        <v>0.7242285153452186</v>
+        <v>0.7242707603384837</v>
       </c>
       <c r="DU2">
-        <v>0.7253371629267935</v>
+        <v>0.7253779345725071</v>
       </c>
       <c r="DV2">
-        <v>0.7324297081089196</v>
+        <v>0.7324710897127145</v>
       </c>
       <c r="DW2">
-        <v>0.7422568409455985</v>
+        <v>0.7422997845595055</v>
       </c>
       <c r="DX2">
-        <v>0.7438840016185561</v>
+        <v>0.7439256524062566</v>
       </c>
       <c r="DY2">
-        <v>0.7513868454938633</v>
+        <v>0.7514292490859361</v>
       </c>
       <c r="DZ2">
-        <v>0.751916123285067</v>
+        <v>0.7519568518208646</v>
       </c>
       <c r="EA2">
-        <v>0.753485428558986</v>
+        <v>0.7535248441261071</v>
       </c>
       <c r="EB2">
-        <v>0.7621114764156263</v>
+        <v>0.7621520358327787</v>
       </c>
       <c r="EC2">
-        <v>0.7799493601191713</v>
+        <v>0.7799942705049905</v>
       </c>
       <c r="ED2">
-        <v>0.7810216117013511</v>
+        <v>0.7810650360682806</v>
       </c>
       <c r="EE2">
-        <v>0.800983942369589</v>
+        <v>0.801032457335544</v>
       </c>
       <c r="EF2">
-        <v>0.8085794459433563</v>
+        <v>0.8086287459733384</v>
       </c>
       <c r="EG2">
-        <v>0.8770691048050987</v>
+        <v>0.8771403903181627</v>
       </c>
       <c r="EH2">
-        <v>0.8772750603616758</v>
+        <v>0.8773445582531975</v>
       </c>
       <c r="EI2">
-        <v>0.9008919199691776</v>
+        <v>0.9009677807911101</v>
       </c>
       <c r="EJ2">
-        <v>0.9009268910325964</v>
+        <v>0.9010009047044013</v>
       </c>
       <c r="EK2">
-        <v>0.90318066199514</v>
+        <v>0.9032536009963343</v>
       </c>
       <c r="EL2">
-        <v>0.9067979220350233</v>
+        <v>0.9068702610669913</v>
       </c>
       <c r="EM2">
-        <v>0.917805911852077</v>
+        <v>0.9178802240118205</v>
       </c>
       <c r="EN2">
-        <v>0.9217470427865778</v>
+        <v>0.9218208677333792</v>
       </c>
       <c r="EO2">
-        <v>0.9218869010642534</v>
+        <v>0.9219589153776158</v>
       </c>
       <c r="EP2">
-        <v>0.9219769494827569</v>
+        <v>0.9220471358212804</v>
       </c>
       <c r="EQ2">
-        <v>0.9233064379606616</v>
+        <v>0.9233752278378228</v>
       </c>
       <c r="ER2">
-        <v>0.9235043088773731</v>
+        <v>0.9235713083183087</v>
       </c>
       <c r="ES2">
-        <v>0.923592285815911</v>
+        <v>0.9236574565608179</v>
       </c>
       <c r="ET2">
-        <v>0.9235926978644041</v>
+        <v>0.9236574565608179</v>
       </c>
       <c r="EU2">
-        <v>0.9268445391103605</v>
+        <v>0.9269085706162814</v>
       </c>
       <c r="EV2">
-        <v>0.9306338450473844</v>
+        <v>0.9306973364821941</v>
       </c>
       <c r="EW2">
-        <v>0.9306340980137202</v>
+        <v>0.9306973364821941</v>
       </c>
       <c r="EX2">
-        <v>0.9311342031054087</v>
+        <v>0.9311957563610752</v>
       </c>
       <c r="EY2">
-        <v>0.9316795778563449</v>
+        <v>0.9317394616599242</v>
       </c>
       <c r="EZ2">
-        <v>0.9318269533638956</v>
+        <v>0.931885029151174</v>
       </c>
       <c r="FA2">
-        <v>0.9322561185567632</v>
+        <v>0.9323124844333698</v>
       </c>
       <c r="FB2">
-        <v>0.9328066328476139</v>
+        <v>0.9328613310614742</v>
       </c>
       <c r="FC2">
-        <v>0.9331854742013178</v>
+        <v>0.9332384449841634</v>
       </c>
       <c r="FD2">
-        <v>0.9336485129636224</v>
+        <v>0.9336997856289455</v>
       </c>
       <c r="FE2">
-        <v>0.9340476812169884</v>
+        <v>0.9340972335281468</v>
       </c>
       <c r="FF2">
-        <v>0.9392023781313205</v>
+        <v>0.939251865734902</v>
       </c>
       <c r="FG2">
-        <v>0.9421843593817617</v>
+        <v>0.9422330258425662</v>
       </c>
       <c r="FH2">
-        <v>0.9435753177586448</v>
+        <v>0.9436226091589524</v>
       </c>
       <c r="FI2">
-        <v>0.943575484924242</v>
+        <v>0.9436226091589524</v>
       </c>
       <c r="FJ2">
-        <v>0.9449464646014571</v>
+        <v>0.9449922068200473</v>
       </c>
       <c r="FK2">
-        <v>0.9457328471883879</v>
+        <v>0.9457770038622395</v>
       </c>
       <c r="FL2">
-        <v>0.9512591450965441</v>
+        <v>0.9513033664364305</v>
       </c>
       <c r="FM2">
-        <v>0.9514651006531212</v>
+        <v>0.9515075343714653</v>
       </c>
       <c r="FN2">
-        <v>0.9534684257198272</v>
+        <v>0.9535096975743329</v>
       </c>
       <c r="FO2">
-        <v>0.96072302259926</v>
+        <v>0.9607649608304618</v>
       </c>
       <c r="FP2">
-        <v>0.9625239572693296</v>
+        <v>0.9625646631740813</v>
       </c>
       <c r="FQ2">
-        <v>0.9627723486252014</v>
+        <v>0.9628112816825171</v>
       </c>
       <c r="FR2">
-        <v>0.962779534859682</v>
+        <v>0.9628166110935276</v>
       </c>
       <c r="FS2">
-        <v>0.9642499753352441</v>
+        <v>0.9642857041804406</v>
       </c>
       <c r="FT2">
-        <v>0.9690314162557795</v>
+        <v>0.9690669504435961</v>
       </c>
       <c r="FU2">
-        <v>0.9710279245225987</v>
+        <v>0.971062294473295</v>
       </c>
       <c r="FV2">
-        <v>0.9712035171596805</v>
+        <v>0.9712360889179246</v>
       </c>
       <c r="FW2">
-        <v>0.9712168781184584</v>
+        <v>0.9712475952029748</v>
       </c>
       <c r="FX2">
-        <v>0.9717469787696484</v>
+        <v>0.9717760210843699</v>
       </c>
       <c r="FY2">
-        <v>0.9717534281715412</v>
+        <v>0.971780613406263</v>
       </c>
       <c r="FZ2">
-        <v>0.9718678536556395</v>
+        <v>0.9718932194024454</v>
       </c>
       <c r="GA2">
-        <v>0.9752973453986434</v>
+        <v>0.9753220458043239</v>
       </c>
       <c r="GB2">
-        <v>0.9773531512644772</v>
+        <v>0.977376708077612</v>
       </c>
       <c r="GC2">
-        <v>0.9773548428273491</v>
+        <v>0.977376708077612</v>
       </c>
       <c r="GD2">
-        <v>0.9787493128041738</v>
+        <v>0.9787698042165102</v>
       </c>
       <c r="GE2">
-        <v>0.97942224699299</v>
+        <v>0.9794411133633065</v>
       </c>
       <c r="GF2">
-        <v>0.9797728556571631</v>
+        <v>0.979789984767199</v>
       </c>
       <c r="GG2">
-        <v>0.9801577405707665</v>
+        <v>0.980173144353865</v>
       </c>
       <c r="GH2">
-        <v>0.98181523004322</v>
+        <v>0.981829351559143</v>
       </c>
       <c r="GI2">
-        <v>0.9818697778823134</v>
+        <v>0.9818820590638015</v>
       </c>
       <c r="GJ2">
-        <v>0.9826632128391271</v>
+        <v>0.9826739109311728</v>
       </c>
       <c r="GK2">
-        <v>0.9828408898161741</v>
+        <v>0.9828497904414348</v>
       </c>
       <c r="GL2">
-        <v>0.9851922769770954</v>
+        <v>0.9852001369170156</v>
       </c>
       <c r="GM2">
-        <v>0.9851966888250221</v>
+        <v>0.9852026909755641</v>
       </c>
       <c r="GN2">
-        <v>0.9853440643325728</v>
+        <v>0.985348258466814</v>
       </c>
       <c r="GO2">
-        <v>0.9853548009233943</v>
+        <v>0.985357139470229</v>
       </c>
       <c r="GP2">
-        <v>0.9855819172396197</v>
+        <v>0.9855824755320718</v>
       </c>
       <c r="GQ2">
-        <v>0.9878878962012957</v>
+        <v>0.9878873979994539</v>
       </c>
       <c r="GR2">
-        <v>0.9945692120902562</v>
+        <v>0.9945691806762142</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.974691634336685E-06</v>
+        <v>1.6462765549448E-07</v>
       </c>
       <c r="C3">
-        <v>7.2842564577807E-06</v>
+        <v>3.665250328073488E-06</v>
       </c>
       <c r="D3">
-        <v>7.918704536683753E-06</v>
+        <v>3.665250328073488E-06</v>
       </c>
       <c r="E3">
-        <v>1.218263039489782E-05</v>
+        <v>6.119882289800229E-06</v>
       </c>
       <c r="F3">
-        <v>1.340949835410146E-05</v>
+        <v>6.119882289800229E-06</v>
       </c>
       <c r="G3">
-        <v>2.607692293287869E-05</v>
+        <v>1.698083985018609E-05</v>
       </c>
       <c r="H3">
-        <v>3.46412416480942E-05</v>
+        <v>2.373731129094347E-05</v>
       </c>
       <c r="I3">
-        <v>3.511572521231646E-05</v>
+        <v>2.373731129094347E-05</v>
       </c>
       <c r="J3">
-        <v>3.692584455212558E-05</v>
+        <v>2.373731129094347E-05</v>
       </c>
       <c r="K3">
-        <v>3.907226788075176E-05</v>
+        <v>2.407372841006628E-05</v>
       </c>
       <c r="L3">
-        <v>3.913206131876349E-05</v>
+        <v>2.407372841006628E-05</v>
       </c>
       <c r="M3">
-        <v>4.250873190648095E-05</v>
+        <v>2.564080663483941E-05</v>
       </c>
       <c r="N3">
-        <v>7.080796996546224E-05</v>
+        <v>5.213883610796995E-05</v>
       </c>
       <c r="O3">
-        <v>8.810518939028749E-05</v>
+        <v>6.763114594495441E-05</v>
       </c>
       <c r="P3">
-        <v>0.000105903656798445</v>
+        <v>8.362487238158106E-05</v>
       </c>
       <c r="Q3">
-        <v>0.0001348430328361402</v>
+        <v>0.0001107632551713568</v>
       </c>
       <c r="R3">
-        <v>0.0001686027617135468</v>
+        <v>0.0001427236123337686</v>
       </c>
       <c r="S3">
-        <v>0.0002157080301471817</v>
+        <v>0.0001880339983984186</v>
       </c>
       <c r="T3">
-        <v>0.0002412757062969941</v>
+        <v>0.0002117995470840909</v>
       </c>
       <c r="U3">
-        <v>0.0002516804449510111</v>
+        <v>0.0002203970575680235</v>
       </c>
       <c r="V3">
-        <v>0.0002583959817277031</v>
+        <v>0.0002253041251529656</v>
       </c>
       <c r="W3">
-        <v>0.00026051200925734</v>
+        <v>0.0002256101362481653</v>
       </c>
       <c r="X3">
-        <v>0.000269287727965526</v>
+        <v>0.0002325780787953697</v>
       </c>
       <c r="Y3">
-        <v>0.0002712667940997172</v>
+        <v>0.0002327470824222698</v>
       </c>
       <c r="Z3">
-        <v>0.0002717412776639395</v>
+        <v>0.0002327470824222698</v>
       </c>
       <c r="AA3">
-        <v>0.0002905502220384962</v>
+        <v>0.0002497516257426679</v>
       </c>
       <c r="AB3">
-        <v>0.0002941444567189791</v>
+        <v>0.0002515363412472431</v>
       </c>
       <c r="AC3">
-        <v>0.0002941665976482429</v>
+        <v>0.0002515363412472431</v>
       </c>
       <c r="AD3">
-        <v>0.0003025823863683974</v>
+        <v>0.0002581442327284897</v>
       </c>
       <c r="AE3">
-        <v>0.0003063140248443114</v>
+        <v>0.00026006639825017</v>
       </c>
       <c r="AF3">
-        <v>0.0003122399410472602</v>
+        <v>0.0002641835796385398</v>
       </c>
       <c r="AG3">
-        <v>0.0003439285699935359</v>
+        <v>0.0002940721401663138</v>
       </c>
       <c r="AH3">
-        <v>0.0003992248131548009</v>
+        <v>0.0003475762563451075</v>
       </c>
       <c r="AI3">
-        <v>0.0004104855967803524</v>
+        <v>0.0003570300997681056</v>
       </c>
       <c r="AJ3">
-        <v>0.0004397956468057217</v>
+        <v>0.0003845392812376881</v>
       </c>
       <c r="AK3">
-        <v>0.0004588127511733566</v>
+        <v>0.0004017520545747277</v>
       </c>
       <c r="AL3">
-        <v>0.0004619252224698593</v>
+        <v>0.0004030548446334954</v>
       </c>
       <c r="AM3">
-        <v>0.0004734282230873565</v>
+        <v>0.0004127509865285384</v>
       </c>
       <c r="AN3">
-        <v>0.0004780384099340566</v>
+        <v>0.0004155519959585218</v>
       </c>
       <c r="AO3">
-        <v>0.0004839643261370054</v>
+        <v>0.0004196691773468916</v>
       </c>
       <c r="AP3">
-        <v>0.0004848678257569618</v>
+        <v>0.0004196691773468916</v>
       </c>
       <c r="AQ3">
-        <v>0.0004860388806180214</v>
+        <v>0.0004196691773468916</v>
       </c>
       <c r="AR3">
-        <v>0.0004915713189340543</v>
+        <v>0.000423392748485141</v>
       </c>
       <c r="AS3">
-        <v>0.000496085915383933</v>
+        <v>0.0004260981353623632</v>
       </c>
       <c r="AT3">
-        <v>0.0004984478669053924</v>
+        <v>0.0004266501531764933</v>
       </c>
       <c r="AU3">
-        <v>0.0004992844107775753</v>
+        <v>0.0004266501531764933</v>
       </c>
       <c r="AV3">
-        <v>0.0005000805229511026</v>
+        <v>0.0004266501531764933</v>
       </c>
       <c r="AW3">
-        <v>0.0005006057506636376</v>
+        <v>0.0004266501531764933</v>
       </c>
       <c r="AX3">
-        <v>0.0005032761918748389</v>
+        <v>0.0004275107644541357</v>
       </c>
       <c r="AY3">
-        <v>0.0005043245183399796</v>
+        <v>0.0004275107644541357</v>
       </c>
       <c r="AZ3">
-        <v>0.0005048325449530864</v>
+        <v>0.0004275107644541357</v>
       </c>
       <c r="BA3">
-        <v>0.0005051281319132574</v>
+        <v>0.0004275107644541357</v>
       </c>
       <c r="BB3">
-        <v>0.0005058588103289606</v>
+        <v>0.0004275107644541357</v>
       </c>
       <c r="BC3">
-        <v>0.0005059193669369469</v>
+        <v>0.0004275107644541357</v>
       </c>
       <c r="BD3">
-        <v>0.00051792531153772</v>
+        <v>0.000437710019519287</v>
       </c>
       <c r="BE3">
-        <v>0.0005236279123480947</v>
+        <v>0.0004416038103933491</v>
       </c>
       <c r="BF3">
-        <v>0.0005237519725039694</v>
+        <v>0.0004416038103933491</v>
       </c>
       <c r="BG3">
-        <v>0.0005265410286112265</v>
+        <v>0.0004425830764682673</v>
       </c>
       <c r="BH3">
-        <v>0.0005483829478849294</v>
+        <v>0.0004626216149593191</v>
       </c>
       <c r="BI3">
-        <v>0.0005536853455086118</v>
+        <v>0.0004661150680211407</v>
       </c>
       <c r="BJ3">
-        <v>0.0005706724269437499</v>
+        <v>0.000481297135540191</v>
       </c>
       <c r="BK3">
-        <v>0.0005840304379995635</v>
+        <v>0.0004928489118860659</v>
       </c>
       <c r="BL3">
-        <v>0.0005886406248462636</v>
+        <v>0.0004956499213160493</v>
       </c>
       <c r="BM3">
-        <v>0.0006388963571751379</v>
+        <v>0.0005441118310699213</v>
       </c>
       <c r="BN3">
-        <v>0.0006640866673374987</v>
+        <v>0.0005674998868248676</v>
       </c>
       <c r="BO3">
-        <v>0.0006714282770933722</v>
+        <v>0.0005730332379955553</v>
       </c>
       <c r="BP3">
-        <v>0.0006825290142242456</v>
+        <v>0.0005823269810853558</v>
       </c>
       <c r="BQ3">
-        <v>0.000694524180325377</v>
+        <v>0.0005925154540250538</v>
       </c>
       <c r="BR3">
-        <v>0.0007081458858724221</v>
+        <v>0.0006043310135671397</v>
       </c>
       <c r="BS3">
-        <v>0.0007101543509056357</v>
+        <v>0.0006045294259826459</v>
       </c>
       <c r="BT3">
-        <v>0.0007104630924953693</v>
+        <v>0.0006045294259826459</v>
       </c>
       <c r="BU3">
-        <v>0.0007106987097775344</v>
+        <v>0.0006045294259826459</v>
       </c>
       <c r="BV3">
-        <v>0.0007226218733810602</v>
+        <v>0.0006146458722036023</v>
       </c>
       <c r="BW3">
-        <v>0.0007501623944652706</v>
+        <v>0.0006403849294748872</v>
       </c>
       <c r="BX3">
-        <v>0.0007642409909971229</v>
+        <v>0.0006526575336967067</v>
       </c>
       <c r="BY3">
-        <v>0.0008008390597801479</v>
+        <v>0.0006874571855623961</v>
       </c>
       <c r="BZ3">
-        <v>0.0008405406744599723</v>
+        <v>0.0007253614273359817</v>
       </c>
       <c r="CA3">
-        <v>0.0008749992483141406</v>
+        <v>0.0007580208645617094</v>
       </c>
       <c r="CB3">
-        <v>0.0009301407714805504</v>
+        <v>0.0008113702086989256</v>
       </c>
       <c r="CC3">
-        <v>0.0009702960601452891</v>
+        <v>0.0008497282770701756</v>
       </c>
       <c r="CD3">
-        <v>0.001018891211529382</v>
+        <v>0.00089652904727147</v>
       </c>
       <c r="CE3">
-        <v>0.001108155952561111</v>
+        <v>0.0009840130880854339</v>
       </c>
       <c r="CF3">
-        <v>0.001228708918552431</v>
+        <v>0.001102795878998664</v>
       </c>
       <c r="CG3">
-        <v>0.001325120715346504</v>
+        <v>0.001197429379794457</v>
       </c>
       <c r="CH3">
-        <v>0.001400293202846835</v>
+        <v>0.001270816426541663</v>
       </c>
       <c r="CI3">
-        <v>0.001452282268118072</v>
+        <v>0.001321012252318956</v>
       </c>
       <c r="CJ3">
-        <v>0.001527454755618403</v>
+        <v>0.001394399299066162</v>
       </c>
       <c r="CK3">
-        <v>0.001579789513878145</v>
+        <v>0.001444940934120659</v>
       </c>
       <c r="CL3">
-        <v>0.001592382941459383</v>
+        <v>0.001455727869791434</v>
       </c>
       <c r="CM3">
-        <v>0.001730339486871991</v>
+        <v>0.001591920094568143</v>
       </c>
       <c r="CN3">
-        <v>0.05561158069518926</v>
+        <v>0.05548947584669279</v>
       </c>
       <c r="CO3">
-        <v>0.06735305930475645</v>
+        <v>0.06723309347915393</v>
       </c>
       <c r="CP3">
-        <v>0.2216586141737203</v>
+        <v>0.221588744927483</v>
       </c>
       <c r="CQ3">
-        <v>0.2635307487813697</v>
+        <v>0.2634731542996133</v>
       </c>
       <c r="CR3">
-        <v>0.2671124836622683</v>
+        <v>0.2670542833227814</v>
       </c>
       <c r="CS3">
-        <v>0.2742260859257236</v>
+        <v>0.2741684678239501</v>
       </c>
       <c r="CT3">
-        <v>0.2813963181872959</v>
+        <v>0.2813393013731703</v>
       </c>
       <c r="CU3">
-        <v>0.282079572614576</v>
+        <v>0.2820209749142017</v>
       </c>
       <c r="CV3">
-        <v>0.3446046105354659</v>
+        <v>0.344565235091556</v>
       </c>
       <c r="CW3">
-        <v>0.3449904621526354</v>
+        <v>0.344949405778255</v>
       </c>
       <c r="CX3">
-        <v>0.424236869517499</v>
+        <v>0.4242206603511165</v>
       </c>
       <c r="CY3">
-        <v>0.433851712197782</v>
+        <v>0.4338369266688658</v>
       </c>
       <c r="CZ3">
-        <v>0.4485000177106901</v>
+        <v>0.4484883490408733</v>
       </c>
       <c r="DA3">
-        <v>0.4737995938694174</v>
+        <v>0.4737946250715242</v>
       </c>
       <c r="DB3">
-        <v>0.4811597966246727</v>
+        <v>0.4811554930191706</v>
       </c>
       <c r="DC3">
-        <v>0.5540584642006141</v>
+        <v>0.5540768724679163</v>
       </c>
       <c r="DD3">
-        <v>0.5541829561664744</v>
+        <v>0.5541995955837504</v>
       </c>
       <c r="DE3">
-        <v>0.5585719463205298</v>
+        <v>0.5585882514350937</v>
       </c>
       <c r="DF3">
-        <v>0.5604541021579434</v>
+        <v>0.5604692296882938</v>
       </c>
       <c r="DG3">
-        <v>0.5659696494745381</v>
+        <v>0.5659848216681134</v>
       </c>
       <c r="DH3">
-        <v>0.5709716427082097</v>
+        <v>0.5709866868090142</v>
       </c>
       <c r="DI3">
-        <v>0.6101983854038248</v>
+        <v>0.6102248143778042</v>
       </c>
       <c r="DJ3">
-        <v>0.6677689834894619</v>
+        <v>0.6678129680810552</v>
       </c>
       <c r="DK3">
-        <v>0.6685735469627082</v>
+        <v>0.6686159914755659</v>
       </c>
       <c r="DL3">
-        <v>0.685282432407097</v>
+        <v>0.685328686943707</v>
       </c>
       <c r="DM3">
-        <v>0.6893388826722101</v>
+        <v>0.6893846910420192</v>
       </c>
       <c r="DN3">
-        <v>0.6968145128236272</v>
+        <v>0.6968610252147948</v>
       </c>
       <c r="DO3">
-        <v>0.7151967062123744</v>
+        <v>0.7152475915163639</v>
       </c>
       <c r="DP3">
-        <v>0.7243983789063964</v>
+        <v>0.7244505488603633</v>
       </c>
       <c r="DQ3">
-        <v>0.7275742712007902</v>
+        <v>0.7276256987744238</v>
       </c>
       <c r="DR3">
-        <v>0.7285300182690093</v>
+        <v>0.7285799566210096</v>
       </c>
       <c r="DS3">
-        <v>0.7321003041502886</v>
+        <v>0.7321496327931952</v>
       </c>
       <c r="DT3">
-        <v>0.7328158348964955</v>
+        <v>0.732863593510681</v>
       </c>
       <c r="DU3">
-        <v>0.7329053258935196</v>
+        <v>0.7329513038835983</v>
       </c>
       <c r="DV3">
-        <v>0.734054883355294</v>
+        <v>0.734099437320198</v>
       </c>
       <c r="DW3">
-        <v>0.7473155209143455</v>
+        <v>0.747362724936571</v>
       </c>
       <c r="DX3">
-        <v>0.7496832492356128</v>
+        <v>0.7497294390168063</v>
       </c>
       <c r="DY3">
-        <v>0.7547977997655415</v>
+        <v>0.7548438993174502</v>
       </c>
       <c r="DZ3">
-        <v>0.756451646910547</v>
+        <v>0.7564964920767975</v>
       </c>
       <c r="EA3">
-        <v>0.7584453293442522</v>
+        <v>0.7584890344430547</v>
       </c>
       <c r="EB3">
-        <v>0.7584490609827281</v>
+        <v>0.7584909566085763</v>
       </c>
       <c r="EC3">
-        <v>0.7678425636703713</v>
+        <v>0.7678858084764628</v>
       </c>
       <c r="ED3">
-        <v>0.7740733070631839</v>
+        <v>0.7741168371194498</v>
       </c>
       <c r="EE3">
-        <v>0.7918952494705608</v>
+        <v>0.7919429639751434</v>
       </c>
       <c r="EF3">
-        <v>0.793886795204337</v>
+        <v>0.7939333689227007</v>
       </c>
       <c r="EG3">
-        <v>0.8420043156043121</v>
+        <v>0.8420652649911829</v>
       </c>
       <c r="EH3">
-        <v>0.8743830045276417</v>
+        <v>0.8744530351503749</v>
       </c>
       <c r="EI3">
-        <v>0.8865668301224998</v>
+        <v>0.8866391485705537</v>
       </c>
       <c r="EJ3">
-        <v>0.901585303623099</v>
+        <v>0.90166086345217</v>
       </c>
       <c r="EK3">
-        <v>0.903415903962227</v>
+        <v>0.9034902688641759</v>
       </c>
       <c r="EL3">
-        <v>0.9056881116866706</v>
+        <v>0.905761430215128</v>
       </c>
       <c r="EM3">
-        <v>0.9173570912986486</v>
+        <v>0.9174325244618451</v>
       </c>
       <c r="EN3">
-        <v>0.9245171944605577</v>
+        <v>0.924593225504044</v>
       </c>
       <c r="EO3">
-        <v>0.9245651030419646</v>
+        <v>0.9246393394733108</v>
       </c>
       <c r="EP3">
-        <v>0.926238472586321</v>
+        <v>0.9263114611992073</v>
       </c>
       <c r="EQ3">
-        <v>0.9263178245636823</v>
+        <v>0.9263890291417666</v>
       </c>
       <c r="ER3">
-        <v>0.927879435111755</v>
+        <v>0.9279493542764359</v>
       </c>
       <c r="ES3">
-        <v>0.928651830956071</v>
+        <v>0.9287201992210513</v>
       </c>
       <c r="ET3">
-        <v>0.9286518530970003</v>
+        <v>0.9287201992210513</v>
       </c>
       <c r="EU3">
-        <v>0.9294537915403338</v>
+        <v>0.9295205967026077</v>
       </c>
       <c r="EV3">
-        <v>0.9324633338402591</v>
+        <v>0.9325293406632271</v>
       </c>
       <c r="EW3">
-        <v>0.9352753539467527</v>
+        <v>0.9353404959853325</v>
       </c>
       <c r="EX3">
-        <v>0.9355803356366112</v>
+        <v>0.9356437695406437</v>
       </c>
       <c r="EY3">
-        <v>0.9357447106911454</v>
+        <v>0.9358063891615432</v>
       </c>
       <c r="EZ3">
-        <v>0.9365568472341399</v>
+        <v>0.9366169881733298</v>
       </c>
       <c r="FA3">
-        <v>0.9371873619631738</v>
+        <v>0.93724590427485</v>
       </c>
       <c r="FB3">
-        <v>0.9372351265415855</v>
+        <v>0.93729187419268</v>
       </c>
       <c r="FC3">
-        <v>0.9375692473804751</v>
+        <v>0.9376242966992278</v>
       </c>
       <c r="FD3">
-        <v>0.9391215375288576</v>
+        <v>0.9391752982988899</v>
       </c>
       <c r="FE3">
-        <v>0.9391334606924612</v>
+        <v>0.9391854147451109</v>
       </c>
       <c r="FF3">
-        <v>0.9408999898337198</v>
+        <v>0.9409507274061453</v>
       </c>
       <c r="FG3">
-        <v>0.9486320265766107</v>
+        <v>0.9486835544237757</v>
       </c>
       <c r="FH3">
-        <v>0.9486517950799533</v>
+        <v>0.9487015188488531</v>
       </c>
       <c r="FI3">
-        <v>0.949137394623806</v>
+        <v>0.949185471016739</v>
       </c>
       <c r="FJ3">
-        <v>0.9497024005050182</v>
+        <v>0.94974885623372</v>
       </c>
       <c r="FK3">
-        <v>0.9505056068783097</v>
+        <v>0.9505505220717569</v>
       </c>
       <c r="FL3">
-        <v>0.95416818715652</v>
+        <v>0.9542125236880621</v>
       </c>
       <c r="FM3">
-        <v>0.9589494669975307</v>
+        <v>0.9589936011898632</v>
       </c>
       <c r="FN3">
-        <v>0.9597669800103464</v>
+        <v>0.9598095784800778</v>
       </c>
       <c r="FO3">
-        <v>0.9660088178027901</v>
+        <v>0.9660517052547741</v>
       </c>
       <c r="FP3">
-        <v>0.968801669509921</v>
+        <v>0.9688436857294017</v>
       </c>
       <c r="FQ3">
-        <v>0.9695146418862129</v>
+        <v>0.9695550872163547</v>
       </c>
       <c r="FR3">
-        <v>0.9699975398101555</v>
+        <v>0.9700363368555245</v>
       </c>
       <c r="FS3">
-        <v>0.9700133762406289</v>
+        <v>0.9700503678850109</v>
       </c>
       <c r="FT3">
-        <v>0.9726052538544426</v>
+        <v>0.9726413066600443</v>
       </c>
       <c r="FU3">
-        <v>0.9760862020386926</v>
+        <v>0.9761216150826252</v>
       </c>
       <c r="FV3">
-        <v>0.9768153235144474</v>
+        <v>0.9768491711014852</v>
       </c>
       <c r="FW3">
-        <v>0.9771693613026748</v>
+        <v>0.9772015172572929</v>
       </c>
       <c r="FX3">
-        <v>0.9776346108872042</v>
+        <v>0.9776651126202717</v>
       </c>
       <c r="FY3">
-        <v>0.9777468689534713</v>
+        <v>0.9777755977211146</v>
       </c>
       <c r="FZ3">
-        <v>0.9785406078270775</v>
+        <v>0.9785677928746658</v>
       </c>
       <c r="GA3">
-        <v>0.9794897076255177</v>
+        <v>0.9795154012153776</v>
       </c>
       <c r="GB3">
-        <v>0.9825466998238652</v>
+        <v>0.9825716110362326</v>
       </c>
       <c r="GC3">
-        <v>0.9826241721012891</v>
+        <v>0.9826472986465365</v>
       </c>
       <c r="GD3">
-        <v>0.9828892312124752</v>
+        <v>0.9829106361934995</v>
       </c>
       <c r="GE3">
-        <v>0.9850111436419164</v>
+        <v>0.9850314516911649</v>
       </c>
       <c r="GF3">
-        <v>0.9850238963869924</v>
+        <v>0.9850423979979237</v>
       </c>
       <c r="GG3">
-        <v>0.985771793662123</v>
+        <v>0.9857887361322067</v>
       </c>
       <c r="GH3">
-        <v>0.9866106567342288</v>
+        <v>0.9866260706637218</v>
       </c>
       <c r="GI3">
-        <v>0.9876021493012592</v>
+        <v>0.9876160860336543</v>
       </c>
       <c r="GJ3">
-        <v>0.9881547825328828</v>
+        <v>0.988167094438974</v>
       </c>
       <c r="GK3">
-        <v>0.9882874499684713</v>
+        <v>0.9882979957747071</v>
       </c>
       <c r="GL3">
-        <v>0.9894878661285545</v>
+        <v>0.9894970050181254</v>
       </c>
       <c r="GM3">
-        <v>0.9904317164971692</v>
+        <v>0.9904393621631403</v>
       </c>
       <c r="GN3">
-        <v>0.9905727824224784</v>
+        <v>0.9905786648137872</v>
       </c>
       <c r="GO3">
-        <v>0.990936855530372</v>
+        <v>0.9909410496650725</v>
       </c>
       <c r="GP3">
-        <v>0.9909458359010734</v>
+        <v>0.9909482223284564</v>
       </c>
       <c r="GQ3">
-        <v>0.9922729786569428</v>
+        <v>0.9922740007975996</v>
       </c>
       <c r="GR3">
-        <v>0.9967592171077644</v>
+        <v>0.9967599376593549</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.394562471538517E-05</v>
+        <v>1.36682615681105E-05</v>
       </c>
       <c r="C4">
-        <v>2.62476299841585E-05</v>
+        <v>1.36682615681105E-05</v>
       </c>
       <c r="D4">
-        <v>2.828314944497047E-05</v>
+        <v>1.36682615681105E-05</v>
       </c>
       <c r="E4">
-        <v>3.531132315493998E-05</v>
+        <v>1.36682615681105E-05</v>
       </c>
       <c r="F4">
-        <v>5.0868101619705E-05</v>
+        <v>1.893392046257982E-05</v>
       </c>
       <c r="G4">
-        <v>5.838441844425799E-05</v>
+        <v>1.893392046257982E-05</v>
       </c>
       <c r="H4">
-        <v>7.890506805732065E-05</v>
+        <v>2.917159049376686E-05</v>
       </c>
       <c r="I4">
-        <v>8.257682536701588E-05</v>
+        <v>2.917159049376686E-05</v>
       </c>
       <c r="J4">
-        <v>8.685141289472089E-05</v>
+        <v>2.917159049376686E-05</v>
       </c>
       <c r="K4">
-        <v>9.620275417409597E-05</v>
+        <v>2.917159049376686E-05</v>
       </c>
       <c r="L4">
-        <v>0.0001280605651258609</v>
+        <v>5.076501307185972E-05</v>
       </c>
       <c r="M4">
-        <v>0.0001386645044426579</v>
+        <v>5.106971092073178E-05</v>
       </c>
       <c r="N4">
-        <v>0.0001390774128549937</v>
+        <v>5.106971092073178E-05</v>
       </c>
       <c r="O4">
-        <v>0.0001734683768824376</v>
+        <v>7.520044055757172E-05</v>
       </c>
       <c r="P4">
-        <v>0.0001837681171901465</v>
+        <v>7.520044055757172E-05</v>
       </c>
       <c r="Q4">
-        <v>0.0001909429287044968</v>
+        <v>7.520044055757172E-05</v>
       </c>
       <c r="R4">
-        <v>0.000200210323481364</v>
+        <v>7.520044055757172E-05</v>
       </c>
       <c r="S4">
-        <v>0.0002195035420577567</v>
+        <v>8.420866675318113E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002321290604349491</v>
+        <v>8.653825874248405E-05</v>
       </c>
       <c r="U4">
-        <v>0.0002373622485912927</v>
+        <v>8.653825874248405E-05</v>
       </c>
       <c r="V4">
-        <v>0.000250623200987469</v>
+        <v>8.950432676523931E-05</v>
       </c>
       <c r="W4">
-        <v>0.0002515850153162036</v>
+        <v>8.950432676523931E-05</v>
       </c>
       <c r="X4">
-        <v>0.0002686503888260385</v>
+        <v>9.628105456959703E-05</v>
       </c>
       <c r="Y4">
-        <v>0.0002788110866295934</v>
+        <v>9.628105456959703E-05</v>
       </c>
       <c r="Z4">
-        <v>0.0002977937671967086</v>
+        <v>0.0001049782335211556</v>
       </c>
       <c r="AA4">
-        <v>0.0003101683175664033</v>
+        <v>0.0001070564459538665</v>
       </c>
       <c r="AB4">
-        <v>0.0003151786030160876</v>
+        <v>0.0001070564459538665</v>
       </c>
       <c r="AC4">
-        <v>0.0003160355128016881</v>
+        <v>0.0001070564459538665</v>
       </c>
       <c r="AD4">
-        <v>0.0003194189783027705</v>
+        <v>0.0001070564459538665</v>
       </c>
       <c r="AE4">
-        <v>0.0003318905036753624</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AF4">
-        <v>0.0003319314541865858</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AG4">
-        <v>0.0003387123863891689</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AH4">
-        <v>0.0003410143916579422</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AI4">
-        <v>0.0003410806409949215</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AJ4">
-        <v>0.0003418628465182902</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AK4">
-        <v>0.0003440178315826713</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AL4">
-        <v>0.0003454930525267441</v>
+        <v>0.0001092317924136268</v>
       </c>
       <c r="AM4">
-        <v>0.0003606809109804874</v>
+        <v>0.0001141279263247599</v>
       </c>
       <c r="AN4">
-        <v>0.0003724418983318517</v>
+        <v>0.0001155915695897633</v>
       </c>
       <c r="AO4">
-        <v>0.0003927140359374899</v>
+        <v>0.0001255803200918956</v>
       </c>
       <c r="AP4">
-        <v>0.0004185229147085406</v>
+        <v>0.0001411148911669482</v>
       </c>
       <c r="AQ4">
-        <v>0.0004185234680915071</v>
+        <v>0.0001411148911669482</v>
       </c>
       <c r="AR4">
-        <v>0.0004381809436787821</v>
+        <v>0.0001504879716991484</v>
       </c>
       <c r="AS4">
-        <v>0.0004959065304033573</v>
+        <v>0.000197991589240428</v>
       </c>
       <c r="AT4">
-        <v>0.0005309459214501731</v>
+        <v>0.000222771809217639</v>
       </c>
       <c r="AU4">
-        <v>0.0005971119434269096</v>
+        <v>0.0002787297030321622</v>
       </c>
       <c r="AV4">
-        <v>0.0006007311690350354</v>
+        <v>0.0002787297030321622</v>
       </c>
       <c r="AW4">
-        <v>0.0006337516780215364</v>
+        <v>0.0003014877302916901</v>
       </c>
       <c r="AX4">
-        <v>0.0006463771963987288</v>
+        <v>0.000303817322280993</v>
       </c>
       <c r="AY4">
-        <v>0.0006581381837500931</v>
+        <v>0.0003052809655459964</v>
       </c>
       <c r="AZ4">
-        <v>0.0006657619929778574</v>
+        <v>0.0003052809655459964</v>
       </c>
       <c r="BA4">
-        <v>0.0006673739124260142</v>
+        <v>0.0003052809655459964</v>
       </c>
       <c r="BB4">
-        <v>0.0006680486395061719</v>
+        <v>0.0003052809655459964</v>
       </c>
       <c r="BC4">
-        <v>0.0006711837910998358</v>
+        <v>0.0003052809655459964</v>
       </c>
       <c r="BD4">
-        <v>0.0006761940765495201</v>
+        <v>0.0003052809655459964</v>
       </c>
       <c r="BE4">
-        <v>0.0006770875340762124</v>
+        <v>0.0003052809655459964</v>
       </c>
       <c r="BF4">
-        <v>0.0006889828864315909</v>
+        <v>0.0003068791941530412</v>
       </c>
       <c r="BG4">
-        <v>0.0006889829818318637</v>
+        <v>0.0003068791941530412</v>
       </c>
       <c r="BH4">
-        <v>0.0006890462902537551</v>
+        <v>0.0003068791941530412</v>
       </c>
       <c r="BI4">
-        <v>0.000728003754417625</v>
+        <v>0.0003355839122871288</v>
       </c>
       <c r="BJ4">
-        <v>0.0007765944358692912</v>
+        <v>0.0003739376447099477</v>
       </c>
       <c r="BK4">
-        <v>0.0007976696714989223</v>
+        <v>0.0003847308101938304</v>
       </c>
       <c r="BL4">
-        <v>0.0008090952878402672</v>
+        <v>0.0003858585324917231</v>
       </c>
       <c r="BM4">
-        <v>0.000830935188492743</v>
+        <v>0.0003974176169319724</v>
       </c>
       <c r="BN4">
-        <v>0.000833784854477878</v>
+        <v>0.0003974176169319724</v>
       </c>
       <c r="BO4">
-        <v>0.000835591662731857</v>
+        <v>0.0003974176169319724</v>
       </c>
       <c r="BP4">
-        <v>0.0008359463202824525</v>
+        <v>0.0003974176169319724</v>
       </c>
       <c r="BQ4">
-        <v>0.0008546900098424278</v>
+        <v>0.0004058754129677429</v>
       </c>
       <c r="BR4">
-        <v>0.0008552896580203426</v>
+        <v>0.0004058754129677429</v>
       </c>
       <c r="BS4">
-        <v>0.0008809589517872231</v>
+        <v>0.0004212701701405972</v>
       </c>
       <c r="BT4">
-        <v>0.000932781513335443</v>
+        <v>0.0004628610824483356</v>
       </c>
       <c r="BU4">
-        <v>0.0009491717438251077</v>
+        <v>0.0004689615601013745</v>
       </c>
       <c r="BV4">
-        <v>0.0009495102054352194</v>
+        <v>0.0004689615601013745</v>
       </c>
       <c r="BW4">
-        <v>0.001012361777312935</v>
+        <v>0.0005215995686263537</v>
       </c>
       <c r="BX4">
-        <v>0.001068427148987911</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="BY4">
-        <v>0.001068431347309236</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="BZ4">
-        <v>0.001069591317043891</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CA4">
-        <v>0.001075949186233835</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CB4">
-        <v>0.00107613948083952</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CC4">
-        <v>0.001076324767935055</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CD4">
-        <v>0.001076803395049355</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CE4">
-        <v>0.001082954842733132</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CF4">
-        <v>0.001083521300380055</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CG4">
-        <v>0.001086904765881137</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CH4">
-        <v>0.001086985935628562</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CI4">
-        <v>0.001091515649163889</v>
+        <v>0.0005674402486196297</v>
       </c>
       <c r="CJ4">
-        <v>0.001105078881569096</v>
+        <v>0.0005707090923443334</v>
       </c>
       <c r="CK4">
-        <v>0.001110593962733862</v>
+        <v>0.0005707090923443334</v>
       </c>
       <c r="CL4">
-        <v>0.001111476530960229</v>
+        <v>0.0005707090923443334</v>
       </c>
       <c r="CM4">
-        <v>0.003409568099616639</v>
+        <v>0.002862252548894887</v>
       </c>
       <c r="CN4">
-        <v>0.07197117014792208</v>
+        <v>0.07152596849340692</v>
       </c>
       <c r="CO4">
-        <v>0.08300684347761726</v>
+        <v>0.08256942200684227</v>
       </c>
       <c r="CP4">
-        <v>0.1716981761273065</v>
+        <v>0.1713958782278685</v>
       </c>
       <c r="CQ4">
-        <v>0.1845829765122451</v>
+        <v>0.1842914910817069</v>
       </c>
       <c r="CR4">
-        <v>0.1879351928123939</v>
+        <v>0.1876388878728604</v>
       </c>
       <c r="CS4">
-        <v>0.1942352140006096</v>
+        <v>0.1939389235006135</v>
       </c>
       <c r="CT4">
-        <v>0.2079107524091718</v>
+        <v>0.2076265710673253</v>
       </c>
       <c r="CU4">
-        <v>0.2149280086188151</v>
+        <v>0.2146450178720899</v>
       </c>
       <c r="CV4">
-        <v>0.2702811802725134</v>
+        <v>0.2700786436191419</v>
       </c>
       <c r="CW4">
-        <v>0.27466460380347</v>
+        <v>0.2744589386630227</v>
       </c>
       <c r="CX4">
-        <v>0.3470679919665503</v>
+        <v>0.3469707406631325</v>
       </c>
       <c r="CY4">
-        <v>0.3565294942492165</v>
+        <v>0.3564374417301207</v>
       </c>
       <c r="CZ4">
-        <v>0.3691329586257501</v>
+        <v>0.3690512572275895</v>
       </c>
       <c r="DA4">
-        <v>0.3848899090964953</v>
+        <v>0.3848237300534786</v>
       </c>
       <c r="DB4">
-        <v>0.419183062121017</v>
+        <v>0.4191628019663403</v>
       </c>
       <c r="DC4">
-        <v>0.4742324137656386</v>
+        <v>0.4742921094860334</v>
       </c>
       <c r="DD4">
-        <v>0.4743393524188334</v>
+        <v>0.4743889068719365</v>
       </c>
       <c r="DE4">
-        <v>0.4784485005415959</v>
+        <v>0.4784944767379616</v>
       </c>
       <c r="DF4">
-        <v>0.4868082377913464</v>
+        <v>0.4868576060461258</v>
       </c>
       <c r="DG4">
-        <v>0.489412675369155</v>
+        <v>0.4894559978723638</v>
       </c>
       <c r="DH4">
-        <v>0.4912474822239706</v>
+        <v>0.4912834968990992</v>
       </c>
       <c r="DI4">
-        <v>0.5591807242535035</v>
+        <v>0.5593178224106471</v>
       </c>
       <c r="DJ4">
-        <v>0.6090639057437837</v>
+        <v>0.6092724880481928</v>
       </c>
       <c r="DK4">
-        <v>0.6144882056058368</v>
+        <v>0.6146953663009334</v>
       </c>
       <c r="DL4">
-        <v>0.6289799485387835</v>
+        <v>0.6292005568424403</v>
       </c>
       <c r="DM4">
-        <v>0.6395551858547229</v>
+        <v>0.6397828192975774</v>
       </c>
       <c r="DN4">
-        <v>0.6400946072108383</v>
+        <v>0.6403128085917952</v>
       </c>
       <c r="DO4">
-        <v>0.6751893612593083</v>
+        <v>0.6754547960315116</v>
       </c>
       <c r="DP4">
-        <v>0.6836030695106712</v>
+        <v>0.6838719848454646</v>
       </c>
       <c r="DQ4">
-        <v>0.6899174683993163</v>
+        <v>0.6901864217508739</v>
       </c>
       <c r="DR4">
-        <v>0.689920135310896</v>
+        <v>0.6901864217508739</v>
       </c>
       <c r="DS4">
-        <v>0.7007642096348671</v>
+        <v>0.7010379620655609</v>
       </c>
       <c r="DT4">
-        <v>0.701492498456625</v>
+        <v>0.701757128539138</v>
       </c>
       <c r="DU4">
-        <v>0.7026680216917442</v>
+        <v>0.7029242628220161</v>
       </c>
       <c r="DV4">
-        <v>0.7080478332524682</v>
+        <v>0.7083025798194271</v>
       </c>
       <c r="DW4">
-        <v>0.7221056716724518</v>
+        <v>0.7223731543110262</v>
       </c>
       <c r="DX4">
-        <v>0.7224081731114891</v>
+        <v>0.7226658351757884</v>
       </c>
       <c r="DY4">
-        <v>0.7362372285246377</v>
+        <v>0.7365072514914616</v>
       </c>
       <c r="DZ4">
-        <v>0.7362415270363661</v>
+        <v>0.7365072514914616</v>
       </c>
       <c r="EA4">
-        <v>0.7404357686616708</v>
+        <v>0.7406980544003402</v>
       </c>
       <c r="EB4">
-        <v>0.7438835670646752</v>
+        <v>0.7441411900343587</v>
       </c>
       <c r="EC4">
-        <v>0.7644484876790605</v>
+        <v>0.764729517338538</v>
       </c>
       <c r="ED4">
-        <v>0.7644689361016714</v>
+        <v>0.7647396826631259</v>
       </c>
       <c r="EE4">
-        <v>0.7903872608759919</v>
+        <v>0.7906901928901389</v>
       </c>
       <c r="EF4">
-        <v>0.7924573002378351</v>
+        <v>0.7927533101691854</v>
       </c>
       <c r="EG4">
-        <v>0.8609438422838981</v>
+        <v>0.8613418430245474</v>
       </c>
       <c r="EH4">
-        <v>0.8639995836751896</v>
+        <v>0.8643922787334011</v>
       </c>
       <c r="EI4">
-        <v>0.8914139024942034</v>
+        <v>0.8918412362062154</v>
       </c>
       <c r="EJ4">
-        <v>0.8925644855285775</v>
+        <v>0.892983389390239</v>
       </c>
       <c r="EK4">
-        <v>0.9048688338961748</v>
+        <v>0.9052975983743293</v>
       </c>
       <c r="EL4">
-        <v>0.9053309922299819</v>
+        <v>0.9057501979467157</v>
       </c>
       <c r="EM4">
-        <v>0.9244255158004385</v>
+        <v>0.9248657169810193</v>
       </c>
       <c r="EN4">
-        <v>0.9270835831798494</v>
+        <v>0.9275178265535202</v>
       </c>
       <c r="EO4">
-        <v>0.9283760198184615</v>
+        <v>0.9288020659599666</v>
       </c>
       <c r="EP4">
-        <v>0.9284641190310935</v>
+        <v>0.9288799930115098</v>
       </c>
       <c r="EQ4">
-        <v>0.9291144247505216</v>
+        <v>0.9295210485024131</v>
       </c>
       <c r="ER4">
-        <v>0.9291203343252982</v>
+        <v>0.9295210485024131</v>
       </c>
       <c r="ES4">
-        <v>0.9292215419683217</v>
+        <v>0.9296121054801662</v>
       </c>
       <c r="ET4">
-        <v>0.929223461428979</v>
+        <v>0.9296121054801662</v>
       </c>
       <c r="EU4">
-        <v>0.930820858976702</v>
+        <v>0.9312018058849066</v>
       </c>
       <c r="EV4">
-        <v>0.9348084833958339</v>
+        <v>0.9351856527670398</v>
       </c>
       <c r="EW4">
-        <v>0.9352203806081395</v>
+        <v>0.9355879087973834</v>
       </c>
       <c r="EX4">
-        <v>0.936751855953893</v>
+        <v>0.9371115788978398</v>
       </c>
       <c r="EY4">
-        <v>0.9367518585587365</v>
+        <v>0.9371115788978398</v>
       </c>
       <c r="EZ4">
-        <v>0.9372754228043783</v>
+        <v>0.9376256850783513</v>
       </c>
       <c r="FA4">
-        <v>0.9376140781544957</v>
+        <v>0.9379545791410704</v>
       </c>
       <c r="FB4">
-        <v>0.9377944595198847</v>
+        <v>0.9381249396739672</v>
       </c>
       <c r="FC4">
-        <v>0.9382013465020407</v>
+        <v>0.9385221772581509</v>
       </c>
       <c r="FD4">
-        <v>0.9387745084191641</v>
+        <v>0.939085962442729</v>
       </c>
       <c r="FE4">
-        <v>0.9399961510556611</v>
+        <v>0.9402992917557397</v>
       </c>
       <c r="FF4">
-        <v>0.9435373376614555</v>
+        <v>0.9438359687348975</v>
       </c>
       <c r="FG4">
-        <v>0.9462195742415884</v>
+        <v>0.9465122871419079</v>
       </c>
       <c r="FH4">
-        <v>0.9462800493403951</v>
+        <v>0.9465625447803101</v>
       </c>
       <c r="FI4">
-        <v>0.9463293290498673</v>
+        <v>0.9466015886706539</v>
       </c>
       <c r="FJ4">
-        <v>0.9473415524801079</v>
+        <v>0.9476051553619843</v>
       </c>
       <c r="FK4">
-        <v>0.9474770940241573</v>
+        <v>0.9477306025431022</v>
       </c>
       <c r="FL4">
-        <v>0.9530576831908796</v>
+        <v>0.9533100263910343</v>
       </c>
       <c r="FM4">
-        <v>0.9539060715762255</v>
+        <v>0.9541494893730894</v>
       </c>
       <c r="FN4">
-        <v>0.9565968646566141</v>
+        <v>0.9568343783117054</v>
       </c>
       <c r="FO4">
-        <v>0.9609966977880608</v>
+        <v>0.961231109865308</v>
       </c>
       <c r="FP4">
-        <v>0.9621491483224908</v>
+        <v>0.9623751336118016</v>
       </c>
       <c r="FQ4">
-        <v>0.962740513900158</v>
+        <v>0.9629571523081388</v>
       </c>
       <c r="FR4">
-        <v>0.9629072758451401</v>
+        <v>0.9631138710868652</v>
       </c>
       <c r="FS4">
-        <v>0.9640846864803158</v>
+        <v>0.9642828958648467</v>
       </c>
       <c r="FT4">
-        <v>0.9673460571777506</v>
+        <v>0.9675392980804116</v>
       </c>
       <c r="FU4">
-        <v>0.9713475936972981</v>
+        <v>0.9715370798766743</v>
       </c>
       <c r="FV4">
-        <v>0.971358468121623</v>
+        <v>0.9715376555030852</v>
       </c>
       <c r="FW4">
-        <v>0.9715022744859192</v>
+        <v>0.9716713810574894</v>
       </c>
       <c r="FX4">
-        <v>0.9719047336479428</v>
+        <v>0.9720641835605941</v>
       </c>
       <c r="FY4">
-        <v>0.9719115145801455</v>
+        <v>0.9720641835605941</v>
       </c>
       <c r="FZ4">
-        <v>0.9719698689948888</v>
+        <v>0.9721123170373358</v>
       </c>
       <c r="GA4">
-        <v>0.9746815110759002</v>
+        <v>0.9748180891657425</v>
       </c>
       <c r="GB4">
-        <v>0.9783292222848771</v>
+        <v>0.9784614654321168</v>
       </c>
       <c r="GC4">
-        <v>0.9783997088769829</v>
+        <v>0.9785217509811336</v>
       </c>
       <c r="GD4">
-        <v>0.978710400046265</v>
+        <v>0.9788226350060437</v>
       </c>
       <c r="GE4">
-        <v>0.979902014481865</v>
+        <v>0.9800058868765069</v>
       </c>
       <c r="GF4">
-        <v>0.9799059229626818</v>
+        <v>0.9800058868765069</v>
       </c>
       <c r="GG4">
-        <v>0.9806290234842847</v>
+        <v>0.9807198565419114</v>
       </c>
       <c r="GH4">
-        <v>0.981950723923771</v>
+        <v>0.9820334077373835</v>
       </c>
       <c r="GI4">
-        <v>0.981959824559043</v>
+        <v>0.9820334077373835</v>
       </c>
       <c r="GJ4">
-        <v>0.9820840798727551</v>
+        <v>0.9821475501804749</v>
       </c>
       <c r="GK4">
-        <v>0.982584252787698</v>
+        <v>0.9826382266720879</v>
       </c>
       <c r="GL4">
-        <v>0.9851662728648369</v>
+        <v>0.9852141642363885</v>
       </c>
       <c r="GM4">
-        <v>0.9853980665917619</v>
+        <v>0.9854360214392199</v>
       </c>
       <c r="GN4">
-        <v>0.9854749279740581</v>
+        <v>0.9855026922321068</v>
       </c>
       <c r="GO4">
-        <v>0.9855344271078357</v>
+        <v>0.9855519723050467</v>
       </c>
       <c r="GP4">
-        <v>0.9861118255850857</v>
+        <v>0.9861200009970611</v>
       </c>
       <c r="GQ4">
-        <v>0.9880024414415686</v>
+        <v>0.9880034005436789</v>
       </c>
       <c r="GR4">
-        <v>0.9930896900935522</v>
+        <v>0.9930886748739879</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.900135775693709E-05</v>
+        <v>5.477463731290352E-06</v>
       </c>
       <c r="C5">
-        <v>2.299509270584976E-05</v>
+        <v>5.477463731290352E-06</v>
       </c>
       <c r="D5">
-        <v>5.015841735838004E-05</v>
+        <v>1.913678308520167E-05</v>
       </c>
       <c r="E5">
-        <v>7.915529298745577E-05</v>
+        <v>3.463412133317522E-05</v>
       </c>
       <c r="F5">
-        <v>9.215231982119949E-05</v>
+        <v>3.463412133317522E-05</v>
       </c>
       <c r="G5">
-        <v>0.0001056895286480333</v>
+        <v>3.463412133317522E-05</v>
       </c>
       <c r="H5">
-        <v>0.0001163111260121632</v>
+        <v>3.463412133317522E-05</v>
       </c>
       <c r="I5">
-        <v>0.0001454412606395343</v>
+        <v>5.026504329919306E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001478396673088541</v>
+        <v>5.026504329919306E-05</v>
       </c>
       <c r="K5">
-        <v>0.0001769177909368906</v>
+        <v>6.584382752772823E-05</v>
       </c>
       <c r="L5">
-        <v>0.0002066661965563528</v>
+        <v>8.209452706178249E-05</v>
       </c>
       <c r="M5">
-        <v>0.0002144202299571643</v>
+        <v>8.209452706178249E-05</v>
       </c>
       <c r="N5">
-        <v>0.0002362812376775211</v>
+        <v>9.043860902752884E-05</v>
       </c>
       <c r="O5">
-        <v>0.00029355050694494</v>
+        <v>0.0001342772338567708</v>
       </c>
       <c r="P5">
-        <v>0.0003283504064997842</v>
+        <v>0.0001555917365875956</v>
       </c>
       <c r="Q5">
-        <v>0.0003729431309293599</v>
+        <v>0.0001867229269241891</v>
       </c>
       <c r="R5">
-        <v>0.0004058732055081226</v>
+        <v>0.0002061630483705065</v>
       </c>
       <c r="S5">
-        <v>0.0004728774146510135</v>
+        <v>0.0002597603347546013</v>
       </c>
       <c r="T5">
-        <v>0.0005482194836872476</v>
+        <v>0.0003217157983674973</v>
       </c>
       <c r="U5">
-        <v>0.0005750757773437053</v>
+        <v>0.0003350673385655177</v>
       </c>
       <c r="V5">
-        <v>0.0005806661228721944</v>
+        <v>0.0003350673385655177</v>
       </c>
       <c r="W5">
-        <v>0.0005893407797612293</v>
+        <v>0.0003350673385655177</v>
       </c>
       <c r="X5">
-        <v>0.0006292750792503949</v>
+        <v>0.000361528752513796</v>
       </c>
       <c r="Y5">
-        <v>0.0006520704499587994</v>
+        <v>0.0003708094742828054</v>
       </c>
       <c r="Z5">
-        <v>0.0006524122720244269</v>
+        <v>0.0003708094742828054</v>
       </c>
       <c r="AA5">
-        <v>0.0006674063808326242</v>
+        <v>0.0003722699243748722</v>
       </c>
       <c r="AB5">
-        <v>0.0006779965816971557</v>
+        <v>0.0003722699243748722</v>
       </c>
       <c r="AC5">
-        <v>0.0006788038076268297</v>
+        <v>0.0003722699243748722</v>
       </c>
       <c r="AD5">
-        <v>0.0006886350835010693</v>
+        <v>0.0003722699243748722</v>
       </c>
       <c r="AE5">
-        <v>0.0006907510171740025</v>
+        <v>0.0003722699243748722</v>
       </c>
       <c r="AF5">
-        <v>0.0007107344949183764</v>
+        <v>0.000378731901281</v>
       </c>
       <c r="AG5">
-        <v>0.0007488758444304772</v>
+        <v>0.0004033959962694518</v>
       </c>
       <c r="AH5">
-        <v>0.0008079150886752548</v>
+        <v>0.0004490089090743311</v>
       </c>
       <c r="AI5">
-        <v>0.0009034152324536293</v>
+        <v>0.0005311715677518438</v>
       </c>
       <c r="AJ5">
-        <v>0.001000857631207159</v>
+        <v>0.0006152812142072186</v>
       </c>
       <c r="AK5">
-        <v>0.001045184998640129</v>
+        <v>0.0006461464009367831</v>
       </c>
       <c r="AL5">
-        <v>0.001082114856167727</v>
+        <v>0.0006695960518295947</v>
       </c>
       <c r="AM5">
-        <v>0.001195009884723588</v>
+        <v>0.0007691959823855768</v>
       </c>
       <c r="AN5">
-        <v>0.001282011833610671</v>
+        <v>0.0008428397381389685</v>
       </c>
       <c r="AO5">
-        <v>0.001309953633253243</v>
+        <v>0.0008572794294370227</v>
       </c>
       <c r="AP5">
-        <v>0.001326658433039557</v>
+        <v>0.0008604547390448064</v>
       </c>
       <c r="AQ5">
-        <v>0.001337523084900578</v>
+        <v>0.0008604547390448064</v>
       </c>
       <c r="AR5">
-        <v>0.001351891188716783</v>
+        <v>0.0008612876587230602</v>
       </c>
       <c r="AS5">
-        <v>0.001357861231640415</v>
+        <v>0.0008612876587230602</v>
       </c>
       <c r="AT5">
-        <v>0.001375655138412798</v>
+        <v>0.0008655547292055921</v>
       </c>
       <c r="AU5">
-        <v>0.001389066225241245</v>
+        <v>0.0008655547292055921</v>
       </c>
       <c r="AV5">
-        <v>0.001400176680599121</v>
+        <v>0.0008655547292055921</v>
       </c>
       <c r="AW5">
-        <v>0.001400610712793569</v>
+        <v>0.0008655547292055921</v>
       </c>
       <c r="AX5">
-        <v>0.001461682306012349</v>
+        <v>0.0009132049433243309</v>
       </c>
       <c r="AY5">
-        <v>0.001478347728799167</v>
+        <v>0.0009163407799804534</v>
       </c>
       <c r="AZ5">
-        <v>0.00147862111049567</v>
+        <v>0.0009163407799804534</v>
       </c>
       <c r="BA5">
-        <v>0.001495286533282488</v>
+        <v>0.0009194766166365758</v>
       </c>
       <c r="BB5">
-        <v>0.001528216607861251</v>
+        <v>0.0009389167380828932</v>
       </c>
       <c r="BC5">
-        <v>0.001542454767679118</v>
+        <v>0.0009396193971209085</v>
       </c>
       <c r="BD5">
-        <v>0.001542796589744746</v>
+        <v>0.0009396193971209085</v>
       </c>
       <c r="BE5">
-        <v>0.001542849976924063</v>
+        <v>0.0009396193971209085</v>
       </c>
       <c r="BF5">
-        <v>0.001542943131476871</v>
+        <v>0.0009396193971209085</v>
       </c>
       <c r="BG5">
-        <v>0.001543262082052791</v>
+        <v>0.0009396193971209085</v>
       </c>
       <c r="BH5">
-        <v>0.001556799290879625</v>
+        <v>0.0009396193971209085</v>
       </c>
       <c r="BI5">
-        <v>0.001578016740608214</v>
+        <v>0.0009473183529006775</v>
       </c>
       <c r="BJ5">
-        <v>0.001578133903142716</v>
+        <v>0.0009473183529006775</v>
       </c>
       <c r="BK5">
-        <v>0.001594536992932889</v>
+        <v>0.0009501912173184842</v>
       </c>
       <c r="BL5">
-        <v>0.001671256321951506</v>
+        <v>0.001013527296961169</v>
       </c>
       <c r="BM5">
-        <v>0.001693744709663837</v>
+        <v>0.001022500287691252</v>
       </c>
       <c r="BN5">
-        <v>0.001711999306430327</v>
+        <v>0.001027229170757293</v>
       </c>
       <c r="BO5">
-        <v>0.001778678155577379</v>
+        <v>0.001080500304322419</v>
       </c>
       <c r="BP5">
-        <v>0.001850080234664013</v>
+        <v>0.001138506177189044</v>
       </c>
       <c r="BQ5">
-        <v>0.001918383613790285</v>
+        <v>0.001193405799317603</v>
       </c>
       <c r="BR5">
-        <v>0.001952514537353687</v>
+        <v>0.001214049695925296</v>
       </c>
       <c r="BS5">
-        <v>0.001978404847022502</v>
+        <v>0.001226432898267778</v>
       </c>
       <c r="BT5">
-        <v>0.002037634171264848</v>
+        <v>0.001272236354248922</v>
       </c>
       <c r="BU5">
-        <v>0.002099556730472742</v>
+        <v>0.001320739607953799</v>
       </c>
       <c r="BV5">
-        <v>0.002117811327239232</v>
+        <v>0.00132546849101984</v>
       </c>
       <c r="BW5">
-        <v>0.002124337310855753</v>
+        <v>0.00132546849101984</v>
       </c>
       <c r="BX5">
-        <v>0.002133937447732949</v>
+        <v>0.00132546849101984</v>
       </c>
       <c r="BY5">
-        <v>0.002157134655436213</v>
+        <v>0.001335152028962675</v>
       </c>
       <c r="BZ5">
-        <v>0.002185733587070379</v>
+        <v>0.001350250453523067</v>
       </c>
       <c r="CA5">
-        <v>0.002200861036876871</v>
+        <v>0.001351844569532991</v>
       </c>
       <c r="CB5">
-        <v>0.00220392790503764</v>
+        <v>0.001351844569532991</v>
       </c>
       <c r="CC5">
-        <v>0.002208970707973133</v>
+        <v>0.001351844569532991</v>
       </c>
       <c r="CD5">
-        <v>0.002213266332318184</v>
+        <v>0.001351844569532991</v>
       </c>
       <c r="CE5">
-        <v>0.002213467667155609</v>
+        <v>0.001351844569532991</v>
       </c>
       <c r="CF5">
-        <v>0.002219596384477211</v>
+        <v>0.001351844569532991</v>
       </c>
       <c r="CG5">
-        <v>0.002242391755185615</v>
+        <v>0.001361125291302</v>
       </c>
       <c r="CH5">
-        <v>0.002279714710708185</v>
+        <v>0.001384968998073933</v>
       </c>
       <c r="CI5">
-        <v>0.002309463116327647</v>
+        <v>0.001401219697607987</v>
       </c>
       <c r="CJ5">
-        <v>0.002328746741080974</v>
+        <v>0.001406980116151644</v>
       </c>
       <c r="CK5">
-        <v>0.00234622921385734</v>
+        <v>0.001410934993749302</v>
       </c>
       <c r="CL5">
-        <v>0.002352730592774175</v>
+        <v>0.001410934993749302</v>
       </c>
       <c r="CM5">
-        <v>0.01125783147886128</v>
+        <v>0.01032416524783957</v>
       </c>
       <c r="CN5">
-        <v>0.08543386053001115</v>
+        <v>0.08466737303459371</v>
       </c>
       <c r="CO5">
-        <v>0.1456924097591916</v>
+        <v>0.1450591874880111</v>
       </c>
       <c r="CP5">
-        <v>0.2195348388146088</v>
+        <v>0.2190679823770279</v>
       </c>
       <c r="CQ5">
-        <v>0.2216837057871208</v>
+        <v>0.2212085154196931</v>
       </c>
       <c r="CR5">
-        <v>0.2233737969655014</v>
+        <v>0.2228891547432644</v>
       </c>
       <c r="CS5">
-        <v>0.2303837570758309</v>
+        <v>0.2299026262247281</v>
       </c>
       <c r="CT5">
-        <v>0.2361561455019912</v>
+        <v>0.2356755103610039</v>
       </c>
       <c r="CU5">
-        <v>0.2821680349134131</v>
+        <v>0.2817859493537548</v>
       </c>
       <c r="CV5">
-        <v>0.3016960196636136</v>
+        <v>0.3013479488547497</v>
       </c>
       <c r="CW5">
-        <v>0.3682618988121116</v>
+        <v>0.3680624626555457</v>
       </c>
       <c r="CX5">
-        <v>0.4009354133941562</v>
+        <v>0.4008020244454878</v>
       </c>
       <c r="CY5">
-        <v>0.4071849007142136</v>
+        <v>0.4070531700495583</v>
       </c>
       <c r="CZ5">
-        <v>0.4398226822967153</v>
+        <v>0.4397569117673337</v>
       </c>
       <c r="DA5">
-        <v>0.4425995697611937</v>
+        <v>0.4425269956350692</v>
       </c>
       <c r="DB5">
-        <v>0.5061294289485281</v>
+        <v>0.5061980914329022</v>
       </c>
       <c r="DC5">
-        <v>0.5081010649233072</v>
+        <v>0.508160961609024</v>
       </c>
       <c r="DD5">
-        <v>0.5096344102036928</v>
+        <v>0.5096844730829926</v>
       </c>
       <c r="DE5">
-        <v>0.5100461007984265</v>
+        <v>0.5100835966718062</v>
       </c>
       <c r="DF5">
-        <v>0.5163720297175061</v>
+        <v>0.5164113701444728</v>
       </c>
       <c r="DG5">
-        <v>0.530040014542667</v>
+        <v>0.5300990903267007</v>
       </c>
       <c r="DH5">
-        <v>0.5560926772094047</v>
+        <v>0.5562016667964693</v>
       </c>
       <c r="DI5">
-        <v>0.6267724163052787</v>
+        <v>0.6270400650201839</v>
       </c>
       <c r="DJ5">
-        <v>0.6278944924909252</v>
+        <v>0.628151305236716</v>
       </c>
       <c r="DK5">
-        <v>0.6478517852356341</v>
+        <v>0.6481436588513254</v>
       </c>
       <c r="DL5">
-        <v>0.6495821416134997</v>
+        <v>0.6498646614908739</v>
       </c>
       <c r="DM5">
-        <v>0.6645070824225818</v>
+        <v>0.6648124005528628</v>
       </c>
       <c r="DN5">
-        <v>0.6871209461333082</v>
+        <v>0.6874677985504306</v>
       </c>
       <c r="DO5">
-        <v>0.7018520729448695</v>
+        <v>0.7022212513373535</v>
       </c>
       <c r="DP5">
-        <v>0.7048223919068736</v>
+        <v>0.7051852380481006</v>
       </c>
       <c r="DQ5">
-        <v>0.7074998868726234</v>
+        <v>0.7078556872217763</v>
       </c>
       <c r="DR5">
-        <v>0.7125806845076306</v>
+        <v>0.7129352953284464</v>
       </c>
       <c r="DS5">
-        <v>0.7133938819572283</v>
+        <v>0.7137369041466186</v>
       </c>
       <c r="DT5">
-        <v>0.7148958257380157</v>
+        <v>0.7152289376031763</v>
       </c>
       <c r="DU5">
-        <v>0.714967564487098</v>
+        <v>0.7152872809664215</v>
       </c>
       <c r="DV5">
-        <v>0.7250275123584125</v>
+        <v>0.7253581722867984</v>
       </c>
       <c r="DW5">
-        <v>0.7326353952610934</v>
+        <v>0.7329710235529481</v>
       </c>
       <c r="DX5">
-        <v>0.734286478939973</v>
+        <v>0.7346125603252349</v>
       </c>
       <c r="DY5">
-        <v>0.7354565777250053</v>
+        <v>0.7357719401605407</v>
       </c>
       <c r="DZ5">
-        <v>0.7377600818955391</v>
+        <v>0.7380674872144469</v>
       </c>
       <c r="EA5">
-        <v>0.7378575242942926</v>
+        <v>0.7381515968609023</v>
       </c>
       <c r="EB5">
-        <v>0.7484178841592058</v>
+        <v>0.7487241195571261</v>
       </c>
       <c r="EC5">
-        <v>0.7573075720454902</v>
+        <v>0.757621899253684</v>
       </c>
       <c r="ED5">
-        <v>0.7684775099026058</v>
+        <v>0.7688054853353302</v>
       </c>
       <c r="EE5">
-        <v>0.7709698040707247</v>
+        <v>0.7712902824221016</v>
       </c>
       <c r="EF5">
-        <v>0.8087449135875104</v>
+        <v>0.8091438704921164</v>
       </c>
       <c r="EG5">
-        <v>0.859490922938374</v>
+        <v>0.8599999653225058</v>
       </c>
       <c r="EH5">
-        <v>0.8621271502046518</v>
+        <v>0.8626290462373687</v>
       </c>
       <c r="EI5">
-        <v>0.8788665049905241</v>
+        <v>0.8793956205614535</v>
       </c>
       <c r="EJ5">
-        <v>0.8789979658388425</v>
+        <v>0.8795138315521566</v>
       </c>
       <c r="EK5">
-        <v>0.8795591326816641</v>
+        <v>0.8800627956262982</v>
       </c>
       <c r="EL5">
-        <v>0.8877983785762688</v>
+        <v>0.8883085483623343</v>
       </c>
       <c r="EM5">
-        <v>0.8972288464556354</v>
+        <v>0.8977484258012134</v>
       </c>
       <c r="EN5">
-        <v>0.8975169310719503</v>
+        <v>0.8980236422139196</v>
       </c>
       <c r="EO5">
-        <v>0.8982026134131791</v>
+        <v>0.8986974252004361</v>
       </c>
       <c r="EP5">
-        <v>0.8983988046906695</v>
+        <v>0.8988805243526142</v>
       </c>
       <c r="EQ5">
-        <v>0.9026706849360241</v>
+        <v>0.9031492439348114</v>
       </c>
       <c r="ER5">
-        <v>0.9027830553045867</v>
+        <v>0.9032483179269054</v>
       </c>
       <c r="ES5">
-        <v>0.9032290350288817</v>
+        <v>0.9036818141995446</v>
       </c>
       <c r="ET5">
-        <v>0.9039802940592717</v>
+        <v>0.9044213336696549</v>
       </c>
       <c r="EU5">
-        <v>0.9048322824483732</v>
+        <v>0.9052618279514104</v>
       </c>
       <c r="EV5">
-        <v>0.9087242770985873</v>
+        <v>0.9091497362497207</v>
       </c>
       <c r="EW5">
-        <v>0.909424273289633</v>
+        <v>0.9098378679654227</v>
       </c>
       <c r="EX5">
-        <v>0.909480869258909</v>
+        <v>0.9098810316495923</v>
       </c>
       <c r="EY5">
-        <v>0.9095060104205874</v>
+        <v>0.909892663878453</v>
       </c>
       <c r="EZ5">
-        <v>0.9115258022947506</v>
+        <v>0.9119038072981664</v>
       </c>
       <c r="FA5">
-        <v>0.9115344769516396</v>
+        <v>0.9119038072981664</v>
       </c>
       <c r="FB5">
-        <v>0.9125827816382298</v>
+        <v>0.9129410962524521</v>
       </c>
       <c r="FC5">
-        <v>0.9166904929856845</v>
+        <v>0.9170452468970973</v>
       </c>
       <c r="FD5">
-        <v>0.917750032172131</v>
+        <v>0.9180937977269813</v>
       </c>
       <c r="FE5">
-        <v>0.9179775014992213</v>
+        <v>0.9183082511457544</v>
       </c>
       <c r="FF5">
-        <v>0.9232270608320696</v>
+        <v>0.9235570321814535</v>
       </c>
       <c r="FG5">
-        <v>0.9236955608760766</v>
+        <v>0.9240131036503432</v>
       </c>
       <c r="FH5">
-        <v>0.9240590958014263</v>
+        <v>0.9243639542261257</v>
       </c>
       <c r="FI5">
-        <v>0.9245747381348303</v>
+        <v>0.9248672828586991</v>
       </c>
       <c r="FJ5">
-        <v>0.9260543586159031</v>
+        <v>0.9263369386190935</v>
       </c>
       <c r="FK5">
-        <v>0.9290300687778382</v>
+        <v>0.9293063296668139</v>
       </c>
       <c r="FL5">
-        <v>0.9390835456492355</v>
+        <v>0.9393707342190216</v>
       </c>
       <c r="FM5">
-        <v>0.9391381145585375</v>
+        <v>0.9394118659037654</v>
       </c>
       <c r="FN5">
-        <v>0.9460675934698964</v>
+        <v>0.9463446600731626</v>
       </c>
       <c r="FO5">
-        <v>0.9508327794089408</v>
+        <v>0.9511078874149742</v>
       </c>
       <c r="FP5">
-        <v>0.9525761259866402</v>
+        <v>0.9528419119083121</v>
       </c>
       <c r="FQ5">
-        <v>0.9544135973631355</v>
+        <v>0.9546702905596745</v>
       </c>
       <c r="FR5">
-        <v>0.9550186948053951</v>
+        <v>0.955263292281434</v>
       </c>
       <c r="FS5">
-        <v>0.9560391751923413</v>
+        <v>0.9562726891350287</v>
       </c>
       <c r="FT5">
-        <v>0.9605941066340752</v>
+        <v>0.9608251496404874</v>
       </c>
       <c r="FU5">
-        <v>0.9625275145093433</v>
+        <v>0.9627496985645229</v>
       </c>
       <c r="FV5">
-        <v>0.9625405659521763</v>
+        <v>0.9627496985645229</v>
       </c>
       <c r="FW5">
-        <v>0.9640110632333659</v>
+        <v>0.9642102088940161</v>
       </c>
       <c r="FX5">
-        <v>0.9640770595825218</v>
+        <v>0.9642627958645036</v>
       </c>
       <c r="FY5">
-        <v>0.9677092429360593</v>
+        <v>0.967890259769235</v>
       </c>
       <c r="FZ5">
-        <v>0.9677179905489474</v>
+        <v>0.967890259769235</v>
       </c>
       <c r="GA5">
-        <v>0.9718542678960367</v>
+        <v>0.9720230460219041</v>
       </c>
       <c r="GB5">
-        <v>0.9722689732607318</v>
+        <v>0.97242519172694</v>
       </c>
       <c r="GC5">
-        <v>0.9723137957201584</v>
+        <v>0.9724565532120819</v>
       </c>
       <c r="GD5">
-        <v>0.9765588822658559</v>
+        <v>0.9766984138048963</v>
       </c>
       <c r="GE5">
-        <v>0.978402069242278</v>
+        <v>0.9785325219837117</v>
       </c>
       <c r="GF5">
-        <v>0.9793940170295892</v>
+        <v>0.9795133167106697</v>
       </c>
       <c r="GG5">
-        <v>0.9807985495116226</v>
+        <v>0.9809077015008444</v>
       </c>
       <c r="GH5">
-        <v>0.9820299804958703</v>
+        <v>0.9821285629870092</v>
       </c>
       <c r="GI5">
-        <v>0.9822832669626304</v>
+        <v>0.9823688964555386</v>
       </c>
       <c r="GJ5">
-        <v>0.983113747652007</v>
+        <v>0.9831878306285391</v>
       </c>
       <c r="GK5">
-        <v>0.9831204005389219</v>
+        <v>0.9831878306285391</v>
       </c>
       <c r="GL5">
-        <v>0.9835862292329631</v>
+        <v>0.9836412242380332</v>
       </c>
       <c r="GM5">
-        <v>0.9836212321145154</v>
+        <v>0.9836627422173791</v>
       </c>
       <c r="GN5">
-        <v>0.9841483828577721</v>
+        <v>0.9841776073029994</v>
       </c>
       <c r="GO5">
-        <v>0.9841953825021709</v>
+        <v>0.9842111512783834</v>
       </c>
       <c r="GP5">
-        <v>0.98544859448614</v>
+        <v>0.9854538468392654</v>
       </c>
       <c r="GQ5">
-        <v>0.9905753054205597</v>
+        <v>0.9905794801248854</v>
       </c>
       <c r="GR5">
-        <v>0.9954072703587499</v>
+        <v>0.9954096491900123</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.984412647864913E-05</v>
+        <v>2.617505131740536E-05</v>
       </c>
       <c r="C6">
-        <v>3.368888996914075E-05</v>
+        <v>2.633380416647444E-05</v>
       </c>
       <c r="D6">
-        <v>3.368971671798171E-05</v>
+        <v>2.633380416647444E-05</v>
       </c>
       <c r="E6">
-        <v>3.36961589877009E-05</v>
+        <v>2.633380416647444E-05</v>
       </c>
       <c r="F6">
-        <v>3.83383932177038E-05</v>
+        <v>2.729054721200872E-05</v>
       </c>
       <c r="G6">
-        <v>4.202450720033502E-05</v>
+        <v>2.729054721200872E-05</v>
       </c>
       <c r="H6">
-        <v>5.307028724760629E-05</v>
+        <v>3.465500722020874E-05</v>
       </c>
       <c r="I6">
-        <v>5.47149618290929E-05</v>
+        <v>3.465500722020874E-05</v>
       </c>
       <c r="J6">
-        <v>7.657621791222485E-05</v>
+        <v>5.284198825533761E-05</v>
       </c>
       <c r="K6">
-        <v>7.659519854916526E-05</v>
+        <v>5.284198825533761E-05</v>
       </c>
       <c r="L6">
-        <v>9.052551023935277E-05</v>
+        <v>6.309285883435243E-05</v>
       </c>
       <c r="M6">
-        <v>9.079521360271542E-05</v>
+        <v>6.309285883435243E-05</v>
       </c>
       <c r="N6">
-        <v>9.815719246747005E-05</v>
+        <v>6.677111810347985E-05</v>
       </c>
       <c r="O6">
-        <v>0.0001015360348348773</v>
+        <v>6.677111810347985E-05</v>
       </c>
       <c r="P6">
-        <v>0.0001190253957014005</v>
+        <v>8.058335615435203E-05</v>
       </c>
       <c r="Q6">
-        <v>0.0001404782557642982</v>
+        <v>9.836167514800952E-05</v>
       </c>
       <c r="R6">
-        <v>0.0001412362645018543</v>
+        <v>9.836167514800952E-05</v>
       </c>
       <c r="S6">
-        <v>0.0001457040057232118</v>
+        <v>9.9143811523541E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001908177079584032</v>
+        <v>0.0001405983849026224</v>
       </c>
       <c r="U6">
-        <v>0.0003590781162949885</v>
+        <v>0.0003052798797561133</v>
       </c>
       <c r="V6">
-        <v>0.00036011960864659</v>
+        <v>0.0003052798797561133</v>
       </c>
       <c r="W6">
-        <v>0.0003603204883965427</v>
+        <v>0.0003052798797561133</v>
       </c>
       <c r="X6">
-        <v>0.0004110930549121068</v>
+        <v>0.0003523970034898722</v>
       </c>
       <c r="Y6">
-        <v>0.0004313021449133809</v>
+        <v>0.0003689307422542404</v>
       </c>
       <c r="Z6">
-        <v>0.0004317500111355708</v>
+        <v>0.0003689307422542404</v>
       </c>
       <c r="AA6">
-        <v>0.0004351398840035245</v>
+        <v>0.0003689307422542404</v>
       </c>
       <c r="AB6">
-        <v>0.0004394240549157869</v>
+        <v>0.0003695291887465421</v>
       </c>
       <c r="AC6">
-        <v>0.000463878535127402</v>
+        <v>0.0003903110830859946</v>
       </c>
       <c r="AD6">
-        <v>0.0004639267298497898</v>
+        <v>0.0003903110830859946</v>
       </c>
       <c r="AE6">
-        <v>0.0004769782349964362</v>
+        <v>0.000399682574683951</v>
       </c>
       <c r="AF6">
-        <v>0.0004776052965275045</v>
+        <v>0.000399682574683951</v>
       </c>
       <c r="AG6">
-        <v>0.0004779007822221445</v>
+        <v>0.000399682574683951</v>
       </c>
       <c r="AH6">
-        <v>0.0005175558881868857</v>
+        <v>0.0004356749961689702</v>
       </c>
       <c r="AI6">
-        <v>0.0005707292988214014</v>
+        <v>0.0004851945278849187</v>
       </c>
       <c r="AJ6">
-        <v>0.0005707362313380448</v>
+        <v>0.0004851945278849187</v>
       </c>
       <c r="AK6">
-        <v>0.0005735051544752331</v>
+        <v>0.0004851945278849187</v>
       </c>
       <c r="AL6">
-        <v>0.0006272764471393713</v>
+        <v>0.0005353123310792338</v>
       </c>
       <c r="AM6">
-        <v>0.0006483798081849528</v>
+        <v>0.000552740923398702</v>
       </c>
       <c r="AN6">
-        <v>0.0006496317972469835</v>
+        <v>0.000552740923398702</v>
       </c>
       <c r="AO6">
-        <v>0.0006509769438136297</v>
+        <v>0.000552740923398702</v>
       </c>
       <c r="AP6">
-        <v>0.0006509784947855066</v>
+        <v>0.000552740923398702</v>
       </c>
       <c r="AQ6">
-        <v>0.0006589439491801608</v>
+        <v>0.0005570230512899706</v>
       </c>
       <c r="AR6">
-        <v>0.0006589440962717581</v>
+        <v>0.0005570230512899706</v>
       </c>
       <c r="AS6">
-        <v>0.0006889372977577933</v>
+        <v>0.0005833472747193269</v>
       </c>
       <c r="AT6">
-        <v>0.0006895813060897011</v>
+        <v>0.0005833472747193269</v>
       </c>
       <c r="AU6">
-        <v>0.0006900622266135287</v>
+        <v>0.0005833472747193269</v>
       </c>
       <c r="AV6">
-        <v>0.0007003078286211546</v>
+        <v>0.0005899110354674449</v>
       </c>
       <c r="AW6">
-        <v>0.0007190734175509094</v>
+        <v>0.0006050003328917265</v>
       </c>
       <c r="AX6">
-        <v>0.0007922842911781958</v>
+        <v>0.0006745703796147395</v>
       </c>
       <c r="AY6">
-        <v>0.0008768656003688387</v>
+        <v>0.0007555182683820368</v>
       </c>
       <c r="AZ6">
-        <v>0.000912310412124978</v>
+        <v>0.0007872976531545645</v>
       </c>
       <c r="BA6">
-        <v>0.0009619244645831425</v>
+        <v>0.0008332555081973637</v>
       </c>
       <c r="BB6">
-        <v>0.001076033146236741</v>
+        <v>0.000943750002984658</v>
       </c>
       <c r="BC6">
-        <v>0.001166477690717882</v>
+        <v>0.001030564946240066</v>
       </c>
       <c r="BD6">
-        <v>0.001255630905135043</v>
+        <v>0.001116087718284166</v>
       </c>
       <c r="BE6">
-        <v>0.001301111463388411</v>
+        <v>0.00115790938664431</v>
       </c>
       <c r="BF6">
-        <v>0.001313654064009843</v>
+        <v>0.001166771642226527</v>
       </c>
       <c r="BG6">
-        <v>0.001323639625504585</v>
+        <v>0.001173075193076421</v>
       </c>
       <c r="BH6">
-        <v>0.001339030441267134</v>
+        <v>0.001184787519071789</v>
       </c>
       <c r="BI6">
-        <v>0.001342163437422361</v>
+        <v>0.001184787519071789</v>
       </c>
       <c r="BJ6">
-        <v>0.001368821875743173</v>
+        <v>0.001207774807135953</v>
       </c>
       <c r="BK6">
-        <v>0.001370943568848294</v>
+        <v>0.001207774807135953</v>
       </c>
       <c r="BL6">
-        <v>0.001379141454254464</v>
+        <v>0.001212289517439785</v>
       </c>
       <c r="BM6">
-        <v>0.001386577567622892</v>
+        <v>0.001216041959502361</v>
       </c>
       <c r="BN6">
-        <v>0.001386625762345279</v>
+        <v>0.001216041959502361</v>
       </c>
       <c r="BO6">
-        <v>0.001389866768205857</v>
+        <v>0.001216041959502361</v>
       </c>
       <c r="BP6">
-        <v>0.001390799976052094</v>
+        <v>0.001216041959502361</v>
       </c>
       <c r="BQ6">
-        <v>0.001400547548535044</v>
+        <v>0.001222107366319043</v>
       </c>
       <c r="BR6">
-        <v>0.001514138584162996</v>
+        <v>0.001332083877896121</v>
       </c>
       <c r="BS6">
-        <v>0.001594810838159962</v>
+        <v>0.001409120165187096</v>
       </c>
       <c r="BT6">
-        <v>0.001597314338684</v>
+        <v>0.001409120165187096</v>
       </c>
       <c r="BU6">
-        <v>0.001649302004259767</v>
+        <v>0.001457453179472991</v>
       </c>
       <c r="BV6">
-        <v>0.001704077208973644</v>
+        <v>0.00150857554864586</v>
       </c>
       <c r="BW6">
-        <v>0.001722987106910549</v>
+        <v>0.001523809249077376</v>
       </c>
       <c r="BX6">
-        <v>0.001742494229877044</v>
+        <v>0.00153964056355927</v>
       </c>
       <c r="BY6">
-        <v>0.001772819702379542</v>
+        <v>0.001566297274439977</v>
       </c>
       <c r="BZ6">
-        <v>0.001780181681244296</v>
+        <v>0.001569975533709104</v>
       </c>
       <c r="CA6">
-        <v>0.001783879316027498</v>
+        <v>0.001569987062014101</v>
       </c>
       <c r="CB6">
-        <v>0.001784163358991572</v>
+        <v>0.001569987062014101</v>
       </c>
       <c r="CC6">
-        <v>0.001792979590928378</v>
+        <v>0.001575120521627492</v>
       </c>
       <c r="CD6">
-        <v>0.001800928132322194</v>
+        <v>0.001579385725501122</v>
       </c>
       <c r="CE6">
-        <v>0.001800950154696286</v>
+        <v>0.001579385725501122</v>
       </c>
       <c r="CF6">
-        <v>0.001803444177119854</v>
+        <v>0.001579385725501122</v>
       </c>
       <c r="CG6">
-        <v>0.001816278015755716</v>
+        <v>0.001588539408804555</v>
       </c>
       <c r="CH6">
-        <v>0.001833540162610982</v>
+        <v>0.001602124284841375</v>
       </c>
       <c r="CI6">
-        <v>0.001898157715812506</v>
+        <v>0.001663095413616571</v>
       </c>
       <c r="CJ6">
-        <v>0.001935910557682998</v>
+        <v>0.00169718433190945</v>
       </c>
       <c r="CK6">
-        <v>0.001980113613873071</v>
+        <v>0.001737727666066262</v>
       </c>
       <c r="CL6">
-        <v>0.002006351568173049</v>
+        <v>0.001760294196214467</v>
       </c>
       <c r="CM6">
-        <v>0.003005950117698892</v>
+        <v>0.002756855349778948</v>
       </c>
       <c r="CN6">
-        <v>0.06564465322117935</v>
+        <v>0.06543267157305828</v>
       </c>
       <c r="CO6">
-        <v>0.08701226727985345</v>
+        <v>0.08681051556555497</v>
       </c>
       <c r="CP6">
-        <v>0.1696940763763843</v>
+        <v>0.1695424934719191</v>
       </c>
       <c r="CQ6">
-        <v>0.1729416102372857</v>
+        <v>0.1727884541982692</v>
       </c>
       <c r="CR6">
-        <v>0.1747691546278328</v>
+        <v>0.1746135005006982</v>
       </c>
       <c r="CS6">
-        <v>0.1788749183312558</v>
+        <v>0.1787182501038237</v>
       </c>
       <c r="CT6">
-        <v>0.1881914947928525</v>
+        <v>0.1880372066873666</v>
       </c>
       <c r="CU6">
-        <v>0.1940794234845742</v>
+        <v>0.193925282146457</v>
       </c>
       <c r="CV6">
-        <v>0.2385662986887091</v>
+        <v>0.2384374467221805</v>
       </c>
       <c r="CW6">
-        <v>0.2441900325673411</v>
+        <v>0.2440611552768102</v>
       </c>
       <c r="CX6">
-        <v>0.3265525566480527</v>
+        <v>0.326473640191296</v>
       </c>
       <c r="CY6">
-        <v>0.3346860360510319</v>
+        <v>0.3346087290697717</v>
       </c>
       <c r="CZ6">
-        <v>0.3684950547261245</v>
+        <v>0.3684360817680591</v>
       </c>
       <c r="DA6">
-        <v>0.3864210496142811</v>
+        <v>0.3863700647861421</v>
       </c>
       <c r="DB6">
-        <v>0.4286326617056864</v>
+        <v>0.4286054841869268</v>
       </c>
       <c r="DC6">
-        <v>0.4722956138689993</v>
+        <v>0.4722931890343591</v>
       </c>
       <c r="DD6">
-        <v>0.4746770765869907</v>
+        <v>0.4746725144758746</v>
       </c>
       <c r="DE6">
-        <v>0.4777760365405309</v>
+        <v>0.4777698045167053</v>
       </c>
       <c r="DF6">
-        <v>0.4855108799237594</v>
+        <v>0.485505997711668</v>
       </c>
       <c r="DG6">
-        <v>0.4903961931658058</v>
+        <v>0.4903908046368485</v>
       </c>
       <c r="DH6">
-        <v>0.4923026338602619</v>
+        <v>0.4922947986347068</v>
       </c>
       <c r="DI6">
-        <v>0.5574194820865238</v>
+        <v>0.5574503741963784</v>
       </c>
       <c r="DJ6">
-        <v>0.6029994463448165</v>
+        <v>0.6030563398432435</v>
       </c>
       <c r="DK6">
-        <v>0.609671473275387</v>
+        <v>0.6097290242875493</v>
       </c>
       <c r="DL6">
-        <v>0.6220487778886296</v>
+        <v>0.6221107027216212</v>
       </c>
       <c r="DM6">
-        <v>0.6310983913369993</v>
+        <v>0.6311625223974144</v>
       </c>
       <c r="DN6">
-        <v>0.6311231161122243</v>
+        <v>0.6311835747628322</v>
       </c>
       <c r="DO6">
-        <v>0.6620017826421304</v>
+        <v>0.6620786665414492</v>
       </c>
       <c r="DP6">
-        <v>0.6665447115672132</v>
+        <v>0.6666208661271706</v>
       </c>
       <c r="DQ6">
-        <v>0.6718180050284823</v>
+        <v>0.6718939059943547</v>
       </c>
       <c r="DR6">
-        <v>0.6718492042000281</v>
+        <v>0.6719214369733894</v>
       </c>
       <c r="DS6">
-        <v>0.6802928286183737</v>
+        <v>0.6803668728896718</v>
       </c>
       <c r="DT6">
-        <v>0.680319659006703</v>
+        <v>0.6803900322397494</v>
       </c>
       <c r="DU6">
-        <v>0.6820926006945447</v>
+        <v>0.6821604402723327</v>
       </c>
       <c r="DV6">
-        <v>0.6852540773511824</v>
+        <v>0.6853202877384273</v>
       </c>
       <c r="DW6">
-        <v>0.6941313797910148</v>
+        <v>0.6941996841656385</v>
       </c>
       <c r="DX6">
-        <v>0.6959586675815491</v>
+        <v>0.6960244737009105</v>
       </c>
       <c r="DY6">
-        <v>0.7134198384466757</v>
+        <v>0.713493329918621</v>
       </c>
       <c r="DZ6">
-        <v>0.7136138393062876</v>
+        <v>0.71368376863158</v>
       </c>
       <c r="EA6">
-        <v>0.7175828001029327</v>
+        <v>0.7176516262171706</v>
       </c>
       <c r="EB6">
-        <v>0.722232489333305</v>
+        <v>0.7223006556497713</v>
       </c>
       <c r="EC6">
-        <v>0.7439119804074312</v>
+        <v>0.7439905798083518</v>
       </c>
       <c r="ED6">
-        <v>0.7439128617013749</v>
+        <v>0.7439905798083518</v>
       </c>
       <c r="EE6">
-        <v>0.773068209145898</v>
+        <v>0.773161229964998</v>
       </c>
       <c r="EF6">
-        <v>0.7744816484159279</v>
+        <v>0.7745719014068757</v>
       </c>
       <c r="EG6">
-        <v>0.8324810612895513</v>
+        <v>0.8326054054567309</v>
       </c>
       <c r="EH6">
-        <v>0.8348027601045817</v>
+        <v>0.8349249280662394</v>
       </c>
       <c r="EI6">
-        <v>0.8652852026148566</v>
+        <v>0.865423537732593</v>
       </c>
       <c r="EJ6">
-        <v>0.8657097978958935</v>
+        <v>0.8658447210717052</v>
       </c>
       <c r="EK6">
-        <v>0.8770741024589463</v>
+        <v>0.8772127396070256</v>
       </c>
       <c r="EL6">
-        <v>0.8787600281424768</v>
+        <v>0.8788960749547623</v>
       </c>
       <c r="EM6">
-        <v>0.9021086142992996</v>
+        <v>0.9022561814121647</v>
       </c>
       <c r="EN6">
-        <v>0.9046468572250587</v>
+        <v>0.9047923891850308</v>
       </c>
       <c r="EO6">
-        <v>0.9053858604616731</v>
+        <v>0.9055281852789575</v>
       </c>
       <c r="EP6">
-        <v>0.9054169075892113</v>
+        <v>0.9055555641149461</v>
       </c>
       <c r="EQ6">
-        <v>0.9062579087308793</v>
+        <v>0.906393424553381</v>
       </c>
       <c r="ER6">
-        <v>0.9062611389513393</v>
+        <v>0.906393424553381</v>
       </c>
       <c r="ES6">
-        <v>0.9064036037483978</v>
+        <v>0.9065322936341962</v>
       </c>
       <c r="ET6">
-        <v>0.9064051452377742</v>
+        <v>0.9065322936341962</v>
       </c>
       <c r="EU6">
-        <v>0.9101469951231669</v>
+        <v>0.910272892372897</v>
       </c>
       <c r="EV6">
-        <v>0.9168787738566978</v>
+        <v>0.9170053675413273</v>
       </c>
       <c r="EW6">
-        <v>0.9174409235845499</v>
+        <v>0.9175641949275503</v>
       </c>
       <c r="EX6">
-        <v>0.9193342966783584</v>
+        <v>0.9194551128127797</v>
       </c>
       <c r="EY6">
-        <v>0.9204452152333997</v>
+        <v>0.9205630664835496</v>
       </c>
       <c r="EZ6">
-        <v>0.9221544749180862</v>
+        <v>0.9222697510317576</v>
       </c>
       <c r="FA6">
-        <v>0.9224082910106617</v>
+        <v>0.9225200439401613</v>
       </c>
       <c r="FB6">
-        <v>0.922678776404063</v>
+        <v>0.9227870170074498</v>
       </c>
       <c r="FC6">
-        <v>0.9231100130254289</v>
+        <v>0.9232148460129311</v>
       </c>
       <c r="FD6">
-        <v>0.9235758762485105</v>
+        <v>0.9236773241752241</v>
       </c>
       <c r="FE6">
-        <v>0.9256674866521408</v>
+        <v>0.9257666084982095</v>
       </c>
       <c r="FF6">
-        <v>0.9295408774440508</v>
+        <v>0.9296388338266197</v>
       </c>
       <c r="FG6">
-        <v>0.9329570733133087</v>
+        <v>0.9330535664244833</v>
       </c>
       <c r="FH6">
-        <v>0.9332761836791192</v>
+        <v>0.9333691961375438</v>
       </c>
       <c r="FI6">
-        <v>0.9333271934416466</v>
+        <v>0.9334165506117942</v>
       </c>
       <c r="FJ6">
-        <v>0.935562023852373</v>
+        <v>0.935649148232607</v>
       </c>
       <c r="FK6">
-        <v>0.9355727995639068</v>
+        <v>0.9356562424481845</v>
       </c>
       <c r="FL6">
-        <v>0.939702664068524</v>
+        <v>0.9397851085512979</v>
       </c>
       <c r="FM6">
-        <v>0.9399516317808593</v>
+        <v>0.9400305499213207</v>
       </c>
       <c r="FN6">
-        <v>0.9434173879525727</v>
+        <v>0.9434948751042586</v>
       </c>
       <c r="FO6">
-        <v>0.9484678988028039</v>
+        <v>0.948544987244138</v>
       </c>
       <c r="FP6">
-        <v>0.9508493615207952</v>
+        <v>0.9509243126856535</v>
       </c>
       <c r="FQ6">
-        <v>0.952478698101522</v>
+        <v>0.9525510220695437</v>
       </c>
       <c r="FR6">
-        <v>0.9526574471703783</v>
+        <v>0.9527261990570266</v>
       </c>
       <c r="FS6">
-        <v>0.9543330704533982</v>
+        <v>0.9543992252934692</v>
       </c>
       <c r="FT6">
-        <v>0.958158742642944</v>
+        <v>0.9582237009365443</v>
       </c>
       <c r="FU6">
-        <v>0.9613275491999448</v>
+        <v>0.9613908830775568</v>
       </c>
       <c r="FV6">
-        <v>0.9613758702193389</v>
+        <v>0.961435547057279</v>
       </c>
       <c r="FW6">
-        <v>0.9614151828172867</v>
+        <v>0.9614711967476439</v>
       </c>
       <c r="FX6">
-        <v>0.962076335250044</v>
+        <v>0.9621290913272116</v>
       </c>
       <c r="FY6">
-        <v>0.9621003870732356</v>
+        <v>0.9621494703022481</v>
       </c>
       <c r="FZ6">
-        <v>0.9630303932693135</v>
+        <v>0.9630763937712569</v>
       </c>
       <c r="GA6">
-        <v>0.9683692005338286</v>
+        <v>0.9684149901161061</v>
       </c>
       <c r="GB6">
-        <v>0.9721260701199654</v>
+        <v>0.9721706183390925</v>
       </c>
       <c r="GC6">
-        <v>0.9723458451608543</v>
+        <v>0.9723868480221296</v>
       </c>
       <c r="GD6">
-        <v>0.9735362592198342</v>
+        <v>0.9735743489786657</v>
       </c>
       <c r="GE6">
-        <v>0.9754021953122833</v>
+        <v>0.9754378119906059</v>
       </c>
       <c r="GF6">
-        <v>0.9754076323105527</v>
+        <v>0.9754395640153847</v>
       </c>
       <c r="GG6">
-        <v>0.975484435444358</v>
+        <v>0.9755127286622142</v>
       </c>
       <c r="GH6">
-        <v>0.9762059251401047</v>
+        <v>0.9762309998072927</v>
       </c>
       <c r="GI6">
-        <v>0.976228557662226</v>
+        <v>0.9762499585567538</v>
       </c>
       <c r="GJ6">
-        <v>0.9764483327031149</v>
+        <v>0.9764661882397909</v>
       </c>
       <c r="GK6">
-        <v>0.9766755309843717</v>
+        <v>0.9766898459985505</v>
       </c>
       <c r="GL6">
-        <v>0.9790676455028907</v>
+        <v>0.9790798301789696</v>
       </c>
       <c r="GM6">
-        <v>0.9793932246190218</v>
+        <v>0.9794019328559689</v>
       </c>
       <c r="GN6">
-        <v>0.9795558761170805</v>
+        <v>0.9795610017870092</v>
       </c>
       <c r="GO6">
-        <v>0.9797438507963938</v>
+        <v>0.9797454103943327</v>
       </c>
       <c r="GP6">
-        <v>0.9814782393823254</v>
+        <v>0.981477240212264</v>
       </c>
       <c r="GQ6">
-        <v>0.9841149082129611</v>
+        <v>0.9841119380027298</v>
       </c>
       <c r="GR6">
-        <v>0.9906518285368376</v>
+        <v>0.9906494278345216</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.002072343935685872</v>
+        <v>0.00195770211307834</v>
       </c>
       <c r="F2">
-        <v>0.5276120390805277</v>
+        <v>0.5276183838607693</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.001592382941459383</v>
+        <v>0.05548947584669279</v>
       </c>
       <c r="F3">
-        <v>0.5540584642006141</v>
+        <v>0.5540768724679163</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>112</v>
       </c>
       <c r="E4">
-        <v>0.001110593962733862</v>
+        <v>0.07152596849340692</v>
       </c>
       <c r="F4">
-        <v>0.5591807242535035</v>
+        <v>0.5593178224106471</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>105</v>
       </c>
       <c r="E5">
-        <v>0.002328746741080974</v>
+        <v>0.01032416524783957</v>
       </c>
       <c r="F5">
-        <v>0.5061294289485281</v>
+        <v>0.5061980914329022</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>0.001980113613873071</v>
+        <v>0.002756855349778948</v>
       </c>
       <c r="F6">
-        <v>0.5574194820865238</v>
+        <v>0.5574503741963784</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>118</v>
       </c>
       <c r="E2">
-        <v>0.002072343935685872</v>
+        <v>0.00195770211307834</v>
       </c>
       <c r="F2">
-        <v>0.711174590894827</v>
+        <v>0.7112206721060435</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>118</v>
       </c>
       <c r="E3">
-        <v>0.001592382941459383</v>
+        <v>0.05548947584669279</v>
       </c>
       <c r="F3">
-        <v>0.7151967062123744</v>
+        <v>0.7152475915163639</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>122</v>
       </c>
       <c r="E4">
-        <v>0.001110593962733862</v>
+        <v>0.07152596849340692</v>
       </c>
       <c r="F4">
-        <v>0.7007642096348671</v>
+        <v>0.7010379620655609</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>118</v>
       </c>
       <c r="E5">
-        <v>0.002328746741080974</v>
+        <v>0.01032416524783957</v>
       </c>
       <c r="F5">
-        <v>0.7018520729448695</v>
+        <v>0.7022212513373535</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>128</v>
       </c>
       <c r="E6">
-        <v>0.001980113613873071</v>
+        <v>0.002756855349778948</v>
       </c>
       <c r="F6">
-        <v>0.7134198384466757</v>
+        <v>0.713493329918621</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>134</v>
       </c>
       <c r="E2">
-        <v>0.002072343935685872</v>
+        <v>0.00195770211307834</v>
       </c>
       <c r="F2">
-        <v>0.800983942369589</v>
+        <v>0.801032457335544</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>136</v>
       </c>
       <c r="E3">
-        <v>0.001592382941459383</v>
+        <v>0.05548947584669279</v>
       </c>
       <c r="F3">
-        <v>0.8420043156043121</v>
+        <v>0.8420652649911829</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>136</v>
       </c>
       <c r="E4">
-        <v>0.001110593962733862</v>
+        <v>0.07152596849340692</v>
       </c>
       <c r="F4">
-        <v>0.8609438422838981</v>
+        <v>0.8613418430245474</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>135</v>
       </c>
       <c r="E5">
-        <v>0.002328746741080974</v>
+        <v>0.01032416524783957</v>
       </c>
       <c r="F5">
-        <v>0.8087449135875104</v>
+        <v>0.8091438704921164</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>136</v>
       </c>
       <c r="E6">
-        <v>0.001980113613873071</v>
+        <v>0.002756855349778948</v>
       </c>
       <c r="F6">
-        <v>0.8324810612895513</v>
+        <v>0.8326054054567309</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>138</v>
       </c>
       <c r="E2">
-        <v>0.002072343935685872</v>
+        <v>0.00195770211307834</v>
       </c>
       <c r="F2">
-        <v>0.9008919199691776</v>
+        <v>0.9009677807911101</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>139</v>
       </c>
       <c r="E3">
-        <v>0.001592382941459383</v>
+        <v>0.05548947584669279</v>
       </c>
       <c r="F3">
-        <v>0.901585303623099</v>
+        <v>0.90166086345217</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>140</v>
       </c>
       <c r="E4">
-        <v>0.001110593962733862</v>
+        <v>0.07152596849340692</v>
       </c>
       <c r="F4">
-        <v>0.9048688338961748</v>
+        <v>0.9052975983743293</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.002328746741080974</v>
+        <v>0.01032416524783957</v>
       </c>
       <c r="F5">
-        <v>0.9026706849360241</v>
+        <v>0.9031492439348114</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>142</v>
       </c>
       <c r="E6">
-        <v>0.001980113613873071</v>
+        <v>0.002756855349778948</v>
       </c>
       <c r="F6">
-        <v>0.9021086142992996</v>
+        <v>0.9022561814121647</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H6">
         <v>54</v>

--- a/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
@@ -1994,40 +1994,40 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.428648002264045E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.350454361426536E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>9.061819211502456E-05</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7.070574830239454E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.576987812448943E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.097324139378105E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.064526739589401E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.197203856421451E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.621986344233286E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9.310867013666916E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.687869302436382E-06</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.255844021516305E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2036,52 +2036,52 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>8.497143126222643E-07</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>5.498621798307882E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>4.468371226509009E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5.434174339678981E-05</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.750762702744564E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>4.277741584692205E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>4.996204720044793E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0001118888406021287</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>3.384380782473039E-05</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>2.690739885611206E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>5.201449748223168E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.388821570443785E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.954265282012425E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.298988351381707E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.646882208346802E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2090,49 +2090,49 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>4.590624602416303E-07</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.626158010203362E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>2.059144481460097E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.103959777818316E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.579030737587042E-05</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>6.290999026812338E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.494555367303466E-05</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>8.410016975087363E-05</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>7.204809545822745E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.545936248578278E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>4.976800967263851E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.405782730654296E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>7.204809545822745E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>7.891192946973223E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>4.057266686303172E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
         <v>0</v>
@@ -2141,34 +2141,34 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.390670773136526E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>6.555221009806763E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>1.069992742637519E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
         <v>0</v>
       </c>
       <c r="BC2">
-        <v>4.200051377399105E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.476441792666801E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>7.489851274383667E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
       </c>
       <c r="BG2">
-        <v>2.554058548568977E-06</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>6.471104035907804E-07</v>
+        <v>0</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -2177,421 +2177,421 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.176030175166717E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.150628505025536E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
         <v>0</v>
       </c>
       <c r="BO2">
-        <v>5.173813260333739E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>3.615574741246987E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>3.681874644552887E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>4.057266686303172E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.389853958873587E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>1.220329361911477E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>4.908598261755835E-08</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.41485906100348E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.899315702951411E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>1.352715234071055E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>5.003244199883538E-07</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>8.569482301280692E-07</v>
+        <v>0</v>
       </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>9.826247373335641E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
       </c>
       <c r="CF2">
-        <v>7.016385501585156E-06</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.37568892924254E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>9.296191906521667E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>3.524965437925389E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>1.047855438541982E-05</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>6.738209692461495E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>2.17750017091727E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.00202187316221282</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0897856580030556</v>
+        <v>0.1960977543254812</v>
       </c>
       <c r="CO2">
-        <v>0.02287290341622534</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.08355376921744487</v>
+        <v>0.1756541404207084</v>
       </c>
       <c r="CQ2">
-        <v>0.00922891411459667</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>6.341592534069834E-05</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.005711838722519048</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.02780019018184534</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.04478733294825626</v>
+        <v>0.04848145123838617</v>
       </c>
       <c r="CV2">
-        <v>0.03944618615348121</v>
+        <v>0.03095990253340638</v>
       </c>
       <c r="CW2">
-        <v>0.02334437549519014</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.05040307930757117</v>
+        <v>0.06690381952936914</v>
       </c>
       <c r="CY2">
-        <v>0.002762572436056715</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.05940796013370863</v>
+        <v>0.09644419054707894</v>
       </c>
       <c r="DA2">
-        <v>0.0009871820750516729</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.0634834304551348</v>
+        <v>0.109813707333703</v>
       </c>
       <c r="DC2">
-        <v>0.021702085955157</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.002662871038557497</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0001149200605096125</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.0002077860541914364</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01617682308537871</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.000932837762460767</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.07553123726263568</v>
+        <v>0.1493363495446076</v>
       </c>
       <c r="DJ2">
-        <v>0.01657888200758129</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.01141190382595181</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.00587663397360177</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.01017743221233632</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.001010004217480655</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.02121887078943159</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.002329093479236825</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.004250115222026499</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>1.541011463827394E-05</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.006455469416538706</v>
+        <v>0</v>
       </c>
       <c r="DT2">
         <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.001107174234023428</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.007093155140207314</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.009828694846791086</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001625867846751168</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0075035966796795</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0005276027349285191</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.001567992305242557</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.008627191706671583</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.01784223467221181</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001070765563290058</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.01996742126726333</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.00759628863779448</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.06851164434482422</v>
+        <v>0.126308684527259</v>
       </c>
       <c r="EH2">
-        <v>0.0002041679350346968</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.02362322253791261</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>3.312391329123095E-05</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.002252696291933003</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.003616660070657003</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.01100996294482919</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.003940643721558753</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0001380476442364951</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>8.822044366458485E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.001328092016542414</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0001960804804859049</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>8.614824250921719E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
         <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.00325111405546349</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.003788765865912697</v>
+        <v>0</v>
       </c>
       <c r="EW2">
         <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0004984198788810585</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0005437052988489561</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.000145567491249821</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0004274552821957585</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.0005488466281043957</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0003771139226892528</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.0004613406447821348</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0003974478992012358</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.005154632206755276</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.002981160107664084</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.001389583316386166</v>
+        <v>0</v>
       </c>
       <c r="FI2">
         <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001369597661094904</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0007847970421921989</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.00552636257419101</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0002041679350346968</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.002002163202867654</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.007255263256128922</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.001799702343619522</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.000246618508435816</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>5.329411010555824E-06</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.001469093086913058</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.004781246263155577</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001995344029698755</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.000173794444629607</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>1.150628505025536E-05</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0005284258813951544</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>4.592321893097511E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0001126059961824336</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.00342882640187844</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.002054662273288135</v>
+        <v>0</v>
       </c>
       <c r="GC2">
         <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.001393096138898181</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0006713091467963414</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0003488714038924811</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.000383159586665991</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001656207205277881</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>5.270750465854978E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.0007918518673713365</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001758795102619949</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.002350346475580732</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>2.554058548568977E-06</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.000145567491249821</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>8.881003415042914E-06</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0002253360618428037</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.002304922467382167</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.006681782676760393</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.005430819323785905</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,25 +2767,25 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.6462765549448E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.500622672579008E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2.45463196172674E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.086095756038586E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.75647144075738E-06</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2794,97 +2794,97 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.36417119122815E-07</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.567078224773124E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.649802947313054E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.549230983698446E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.599372643662666E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.713838278977572E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3.196035716241183E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>4.531038606464997E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2.37655486856723E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>8.597510483932634E-06</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>4.907067584942056E-06</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>3.06011095199718E-07</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>6.967942547204412E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.690036269001215E-07</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.700454332039808E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.784715504575172E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>6.607891481246603E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.922165521680314E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.117181388369821E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.988856052777395E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.350411617879372E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.453843422998152E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.750918146958247E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>1.721277333703959E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.302790058767771E-06</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.696141895043001E-06</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.801009429983391E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.117181388369821E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -2893,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>3.72357113824941E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.705386877222207E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>5.520178141300882E-07</v>
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>8.606112776424504E-07</v>
+        <v>0</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -2929,52 +2929,52 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>1.019925506515131E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>3.893790874062056E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <v>0</v>
       </c>
       <c r="BG3">
-        <v>9.792660749182505E-07</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>2.003853849105177E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.493453061821547E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.518206751905035E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1.155177634587491E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>2.801009429983391E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>4.846190975387204E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>2.338805575494623E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>5.533351170687626E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>9.293743089800541E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.018847293969796E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1.181555954208587E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1.98412415506203E-07</v>
+        <v>0</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2983,388 +2983,388 @@
         <v>0</v>
       </c>
       <c r="BV3">
-        <v>1.011644622095646E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>2.573905727128487E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.227260422181951E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>3.479965186568939E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>3.790424177358562E-05</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>3.265943722572772E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>5.334934413721621E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>3.835806837125001E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.680077020129437E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>8.748404081396376E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0001187827909132298</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>9.463350079579397E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>7.33870467472058E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>5.019582577729283E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>7.33870467472058E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>5.054163505449716E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.078693567077488E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.0001361922247767087</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05389755575212465</v>
+        <v>0.06982357789109385</v>
       </c>
       <c r="CO3">
-        <v>0.01174361763246115</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.1543556514483291</v>
+        <v>0.3634425244893003</v>
       </c>
       <c r="CQ3">
-        <v>0.04188440937213025</v>
+        <v>0.03471155072216476</v>
       </c>
       <c r="CR3">
-        <v>0.003581129023168144</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.007114184501168699</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.007170833549220238</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0006816735410314095</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.06254426017735429</v>
+        <v>0.09509616769370846</v>
       </c>
       <c r="CW3">
-        <v>0.0003841706866990164</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.07927125457286152</v>
+        <v>0.1439858309918801</v>
       </c>
       <c r="CY3">
-        <v>0.009616266317749261</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.01465142237200756</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.02530627603065088</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.007360867947646426</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.07292137944874566</v>
+        <v>0.1254264144306571</v>
       </c>
       <c r="DD3">
-        <v>0.0001227231158342083</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.004388655851343318</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.001880978253200059</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.005515591979819532</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.005001865140900845</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.03923812756879</v>
+        <v>0.02697699762204935</v>
       </c>
       <c r="DJ3">
-        <v>0.05758815370325097</v>
+        <v>0.08061045848262147</v>
       </c>
       <c r="DK3">
-        <v>0.0008030233945107778</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.01671269546814108</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.004056004098312163</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.007476334172775586</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01838656630156905</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.009202957343999401</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.003175149914060572</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.0009542578465857338</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.003569676172185589</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0007139607174857071</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>8.771037291737095E-05</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.001148133436599651</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01326328761637302</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.00236671408023531</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.005114460300643942</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.00165259275934725</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.001992542366257182</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>1.922165521680314E-06</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.009394851867886507</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.006231028642987002</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.01782612685569366</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.001990404947557345</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.04813189606848225</v>
+        <v>0.05297170636175141</v>
       </c>
       <c r="EH3">
-        <v>0.03238777015919193</v>
+        <v>0.00695477131477327</v>
       </c>
       <c r="EI3">
-        <v>0.01218611342017887</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01502171488161629</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001829405412005972</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.002271161350952035</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.01167109424671705</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.007160701042198892</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>4.611396926679418E-05</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.001672121725896454</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>7.756794255933594E-05</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.00156032513466933</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0007708449446154194</v>
+        <v>0</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0008003974815563946</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.003008743960619399</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.002811155322105434</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0003032735553111539</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0001626196208996133</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.0008105990117865622</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.0006289161015201294</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>4.59699178299839E-05</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.0003324225065477956</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.001551001599662097</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>1.011644622095646E-05</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001765312661034406</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.007732827017630466</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.796442507740475E-05</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.0004839521678858718</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0005633852169809963</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0008016658380369876</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.003662001616305102</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.004781077501801098</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0008159772902145627</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.006242126774696397</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002791980474627575</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0007114014869530632</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0004812496391696966</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>1.403102948639006E-05</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.002590938775033456</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.003480308422580891</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.0007275560188599874</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0003523461558077306</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0004635953629788099</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.000110485100842901</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0007921951535512389</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.0009476083407117878</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.003056209820854976</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>7.568761030395047E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0002633375469629032</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.002120815497665427</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>1.094630675876625E-05</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0007463381342830159</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.000837334531514991</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0009900153699324815</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0005510084053197764</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.0001309013357330944</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.001199009243418278</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0009423571450149277</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0001393026506469277</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0003623848512852615</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>7.172663383895983E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.001325778469143305</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0044859368617553</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.003240062340645302</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.36682615681105E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3552,13 +3552,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.265658894469315E-06</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.023767003118704E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3570,16 +3570,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.159342257809286E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.046978488720603E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.413072963683994E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -3591,31 +3591,31 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>9.008226195609412E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>2.329591989302923E-06</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>2.96606802275526E-06</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>6.776727804357725E-06</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>8.697178951558538E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2.078212432710946E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>2.175346459760239E-06</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3651,43 +3651,43 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.896133911133145E-06</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.463643265003337E-06</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>9.988750502132402E-06</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.553457107505254E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>9.373080532200229E-06</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>4.750361754127954E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.478021997721109E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>5.595789381452316E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>2.275802725952786E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>2.329591989302923E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>1.463643265003337E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="BF4">
-        <v>1.598228607044875E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>2.870471813408765E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>3.835373242281888E-05</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>1.079316548388268E-05</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>1.127722297892756E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>1.155908444024925E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3741,28 +3741,28 @@
         <v>0</v>
       </c>
       <c r="BQ4">
-        <v>8.457796035770577E-06</v>
+        <v>0</v>
       </c>
       <c r="BR4">
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>1.539475717285429E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>4.159091230773839E-05</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>6.100477653038922E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
         <v>0</v>
       </c>
       <c r="BW4">
-        <v>5.263800852497916E-05</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>4.584067999327601E-05</v>
+        <v>0</v>
       </c>
       <c r="BY4">
         <v>0</v>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="CJ4">
-        <v>3.268843724703809E-06</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -3807,337 +3807,337 @@
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.002291543456550554</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.06866371594451204</v>
+        <v>0.1303859297144731</v>
       </c>
       <c r="CO4">
-        <v>0.01104345351343535</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.08882645622102626</v>
+        <v>0.1984493269788158</v>
       </c>
       <c r="CQ4">
-        <v>0.01289561285383832</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.003347396791153575</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.006300035627753071</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01368764756671178</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.007018446804764669</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.05543362574705192</v>
+        <v>0.08572509132626509</v>
       </c>
       <c r="CW4">
-        <v>0.004380295043880832</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.07251180200010983</v>
+        <v>0.143375920475531</v>
       </c>
       <c r="CY4">
-        <v>0.009466701066988195</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.01261381549746874</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01577247282588913</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.03433907191286167</v>
+        <v>0.01451616942178803</v>
       </c>
       <c r="DC4">
-        <v>0.05512930751969315</v>
+        <v>0.08469780375922605</v>
       </c>
       <c r="DD4">
-        <v>9.679738590311116E-05</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.004105569866025141</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.008363129308164123</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.002598391826238027</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001827499026735409</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.06803432551154795</v>
+        <v>0.1282612953400915</v>
       </c>
       <c r="DJ4">
-        <v>0.04995466563754573</v>
+        <v>0.06722975619747885</v>
       </c>
       <c r="DK4">
-        <v>0.005422878252740519</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.01450519054150688</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.01058226245513715</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0005299892942177393</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.03514198743971643</v>
+        <v>0.01722657275608484</v>
       </c>
       <c r="DP4">
-        <v>0.008417188813953013</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.006314436905409237</v>
+        <v>0</v>
       </c>
       <c r="DR4">
         <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.01085154031468704</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0007191664735770719</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001167134282878174</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.005378316997411032</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.01407057449159907</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.0002926808647621466</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.01384141631567313</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
         <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.00419080290887865</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.003443135634018522</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.02058832730417931</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>1.016532458780793E-05</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.02595051022701297</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.002063117279046549</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.06858853285536205</v>
+        <v>0.1301321340302458</v>
       </c>
       <c r="EH4">
-        <v>0.003050435708853637</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.02744895747281426</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.001142153184023678</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.01231420898409028</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0004525995723864417</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.01911551903430357</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.002652109572500963</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.00128423940644636</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>7.792705154318814E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.0006410554909033135</v>
+        <v>0</v>
       </c>
       <c r="ER4">
         <v>0</v>
       </c>
       <c r="ES4">
-        <v>9.105697775297174E-05</v>
+        <v>0</v>
       </c>
       <c r="ET4">
         <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.001589700404740526</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.003983846882133105</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0004022560303435671</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.001523670100456444</v>
+        <v>0</v>
       </c>
       <c r="EY4">
         <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.000514106180511489</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.0003288940627191222</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0001703605328968043</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.0003972375841838023</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0005637851845781238</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.001213329313010653</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.003536676979157834</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.002676318407010474</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>5.025763840212364E-05</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>3.904389034382656E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001003566691330413</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0001254471811178361</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.00557942384793222</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.0008394629820550117</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.002684888938616014</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.004396731553602596</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.001144023746493537</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0005820186963371972</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0001567187787263925</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.00116902477798158</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.003256402215564926</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.003997781796262648</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>5.756264109388607E-07</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001337255544041217</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0003928025031046644</v>
+        <v>0</v>
       </c>
       <c r="FY4">
         <v>0</v>
       </c>
       <c r="FZ4">
-        <v>4.813347674170597E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002705772128406688</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.003643376266374283</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>6.028554901687805E-05</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.0003008840249100858</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.001183251870463176</v>
+        <v>0</v>
       </c>
       <c r="GF4">
         <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0007139696654044517</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001313551195472038</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001141424430914938</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0004906764916129177</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.002575937564300646</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.0002218572028314059</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>6.667079288688127E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>4.928007293979661E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0005680286920144317</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.001883399546617791</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.005085274330308999</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.006911325126012188</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,16 +4313,16 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.477463731290352E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.365931935391132E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.549733824797354E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4334,43 +4334,43 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.563092196601783E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.557878422853517E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.625069953405425E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>8.344081965746346E-06</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>4.383862482924192E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.131450273082484E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3.113119033659355E-05</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.944012144631742E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>5.359728638409479E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>6.195546361289593E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.335154019802048E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -4379,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>2.646141394827832E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>9.280721769009331E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.460450092066838E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -4403,49 +4403,49 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>6.461976906127806E-06</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.466409498845181E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>4.561291280487923E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>8.216265867751272E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>8.41096464553748E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>3.086518672956453E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.34496508928116E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>9.959993055598212E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>7.364375575339168E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>1.443969129805418E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>3.17530960778371E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>8.329196782537405E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>4.2670704825319E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -4457,22 +4457,22 @@
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.765021411873875E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>3.135836656122431E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>3.135836656122431E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.944012144631742E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>7.026590380151979E-07</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -4490,46 +4490,46 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>7.69895577976903E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>2.872864417806715E-06</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>6.333607964268519E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>8.97299073008219E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>4.728883066040907E-06</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>5.327113356512651E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>5.80058728666248E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>5.489962212855938E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>2.06438966076932E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>1.238320234248126E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>4.580345598114394E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>4.850325370487765E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>4.728883066040907E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -4538,13 +4538,13 @@
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>9.683537942834482E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.509842456039207E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1.594116009924127E-06</v>
+        <v>0</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -4562,355 +4562,355 @@
         <v>0</v>
       </c>
       <c r="CG5">
-        <v>9.280721769009331E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>2.384370677193253E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>1.625069953405425E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>5.76041854365732E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>3.954877597658027E-06</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008913230254090266</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.07434320778675414</v>
+        <v>0.1583956171604296</v>
       </c>
       <c r="CO5">
-        <v>0.06039181445341736</v>
+        <v>0.1084937166712255</v>
       </c>
       <c r="CP5">
-        <v>0.07400879488901682</v>
+        <v>0.1571994757610384</v>
       </c>
       <c r="CQ5">
-        <v>0.002140533042665255</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.001680639323571264</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.007013471481463716</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.005772884136275775</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.04611043899275093</v>
+        <v>0.05741152293906102</v>
       </c>
       <c r="CV5">
-        <v>0.01956199950099488</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.06671451380079597</v>
+        <v>0.131109000042394</v>
       </c>
       <c r="CX5">
-        <v>0.03273956178994222</v>
+        <v>0.009586035714528455</v>
       </c>
       <c r="CY5">
-        <v>0.006251145604070398</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.03270374171777541</v>
+        <v>0.009457913050786108</v>
       </c>
       <c r="DA5">
-        <v>0.002770083867735515</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.063671095797833</v>
+        <v>0.1202231810634386</v>
       </c>
       <c r="DC5">
-        <v>0.001962870176121843</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.001523511473968615</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.0003991235888136959</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.006327773472666552</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01368772018222787</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.02610257646976863</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.07083839822371457</v>
+        <v>0.1458594744347781</v>
       </c>
       <c r="DJ5">
-        <v>0.001111240216532109</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.01999235361460943</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.0017210026395484</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01494773906198898</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.02265539799756782</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.01475345278692285</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002963986710747133</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.002670449173675694</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.005079608106670051</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0008016088181722426</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.001492033456557648</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>5.834336324516562E-05</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.01007089132037698</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.007612851266149598</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.001641536772286826</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.00115937983530573</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.002295547053906217</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>8.41096464553748E-05</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.01057252269622388</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.008897779696557816</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.0111835860816463</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.002484797086771409</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.03785358807001478</v>
+        <v>0.02787808901916557</v>
       </c>
       <c r="EG5">
-        <v>0.05085609483038937</v>
+        <v>0.07438597414315477</v>
       </c>
       <c r="EH5">
-        <v>0.002629080914862881</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01676657432408477</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.0001182109907030727</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0005489640741416563</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.008245752736036066</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.009439877438879116</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0002752164127061993</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0006737829865163891</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0001830991521781404</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.004268719582197221</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>9.907399209397113E-05</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0004334962726392101</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0007395194701102793</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.0008404942817554393</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.003887908298310292</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0006881317157018728</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>4.316368416963E-05</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>1.163222886072431E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.002011143419713415</v>
+        <v>0</v>
       </c>
       <c r="FA5">
         <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001037288954285621</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.00410415064464522</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.001048550829884031</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.0002144534187730825</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.005248781035699056</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0004560714688897247</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0003508505757825748</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0005033286325733966</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.0014696557603944</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.002969391047720399</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01006440455220774</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>4.113168474370851E-05</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.00693279416939724</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.004763227341811537</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.00173402449333793</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001828378651362347</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.000593001721759579</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001009396853594636</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.004552460505458687</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.001924548924035536</v>
+        <v>0</v>
       </c>
       <c r="FV5">
         <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.00146051032949321</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>5.258697048747147E-05</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.003627463904731457</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
         <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.004132786252669093</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0004021457050358527</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>3.136148514193432E-05</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.004241860592814414</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.001834108178815306</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0009807947269580061</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001394384790174677</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.001220861486164857</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.0002403334685293474</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0008189341730004486</v>
+        <v>0</v>
       </c>
       <c r="GK5">
         <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.0004533936094941294</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>2.151797934595829E-05</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0005148650856203065</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>3.354397538402131E-05</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.001242695560881933</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.00512563328561994</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.004830169065126884</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.004590350809988826</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,10 +5086,10 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.617505131740536E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.587528490690726E-07</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -5098,52 +5098,52 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>9.567430455342826E-07</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.364460008200016E-06</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.818698103512887E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.025087057901483E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.67825926912742E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.381223805087218E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.777831899365749E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>7.821363755314802E-07</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>4.145457337908144E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001646814948534909</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>4.711712373375893E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1.653373876436814E-05</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -5164,16 +5164,16 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>5.984464923016913E-07</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2.078189433945252E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>9.371491597956457E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -5182,10 +5182,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>3.599242148501911E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>4.951953171594852E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>5.011780319431508E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.742859231946821E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -5209,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>4.282127891268573E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.632422342935637E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
         <v>0</v>
@@ -5224,58 +5224,58 @@
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>6.563760748117933E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>1.508929742428163E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>6.957004672301299E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>8.094788876729737E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>3.17793847725276E-05</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>4.595785504279926E-05</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0001104944947872943</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>8.681494325540797E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>8.552277204410025E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>4.182166836014399E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>8.862255582216909E-06</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>6.303550849893571E-06</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.171232599536834E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2.298728806416375E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
       </c>
       <c r="BL6">
-        <v>4.514710303831951E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>3.752442062576572E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -5287,46 +5287,46 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>6.065406816681367E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.000109976511577078</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>7.703628729097566E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>4.833301428589418E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>5.112236917286926E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1.52337004315165E-05</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.583131448189345E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>2.665671088070686E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>3.67825926912742E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.15283049965807E-08</v>
+        <v>0</v>
       </c>
       <c r="CB6">
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>5.133459613391005E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>4.265203873630288E-06</v>
+        <v>0</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -5335,355 +5335,355 @@
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>9.15368330343367E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>1.358487603681994E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>6.097112877519569E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>3.408891829287839E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>4.054333415681251E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.256653014820461E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0009965611535644814</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.06267581622327933</v>
+        <v>0.1246176160466449</v>
       </c>
       <c r="CO6">
-        <v>0.02137784399249669</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.08273197790636416</v>
+        <v>0.2011440662277433</v>
       </c>
       <c r="CQ6">
-        <v>0.003245960726350118</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.001825046302428942</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.004104749603125526</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.009318956583542955</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.005888075459090393</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0445121645757235</v>
+        <v>0.05531224222300749</v>
       </c>
       <c r="CW6">
-        <v>0.005623708554629719</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.08241248491448572</v>
+        <v>0.1999250062245117</v>
       </c>
       <c r="CY6">
-        <v>0.008135088878475671</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.03382735269828745</v>
+        <v>0.01454318896379722</v>
       </c>
       <c r="DA6">
-        <v>0.01793398301808296</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.04223541940078474</v>
+        <v>0.046625075208795</v>
       </c>
       <c r="DC6">
-        <v>0.04368770484743227</v>
+        <v>0.05216642712037934</v>
       </c>
       <c r="DD6">
-        <v>0.002379325441515401</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.003097290040830759</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.007736193194962653</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.004884806925180563</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.001903993997858227</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.06515557556167169</v>
+        <v>0.1340794055190864</v>
       </c>
       <c r="DJ6">
-        <v>0.04560596564686498</v>
+        <v>0.05948575829758806</v>
       </c>
       <c r="DK6">
-        <v>0.006672684444305797</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.01238167843407185</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.009051819675793315</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>2.105236541776745E-05</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.03089509177861702</v>
+        <v>0.003354830855555922</v>
       </c>
       <c r="DP6">
-        <v>0.004542199585721441</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.00527303986718409</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>2.75309790345857E-05</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.008445435916282456</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>2.315935007757966E-05</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001770408032583378</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.003159847466094605</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.00887939642721112</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.001824789535271964</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.01746885621771055</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.0001904387129589372</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.003967857585590573</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.004649029432600687</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.02168992415858051</v>
+        <v>0</v>
       </c>
       <c r="ED6">
         <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.02917065015664617</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.001410671441877645</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.05803350404985518</v>
+        <v>0.1069043727612025</v>
       </c>
       <c r="EH6">
-        <v>0.002319522609508498</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.03049860966635355</v>
+        <v>0.001842010551688053</v>
       </c>
       <c r="EJ6">
-        <v>0.0004211833391121982</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.01136801853532039</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.001683335347736629</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.0233601064574024</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.002536207772866077</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.0007357960939266661</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>2.737883598853854E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.0008378604384349206</v>
+        <v>0</v>
       </c>
       <c r="ER6">
         <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.000138869080815157</v>
+        <v>0</v>
       </c>
       <c r="ET6">
         <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.003740598738700787</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.006732475168430395</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0005588273862229722</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001890917885229476</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.001107953670769825</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.001706684548207968</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0002502929084037501</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0002669730672885061</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0004278290054813729</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.0004624781622929301</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.002089284322985412</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.003872225328410241</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.003414732597863662</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0003156297130604635</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>4.735447425038702E-05</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.00223259762081284</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>7.094215577434011E-06</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.004128866103113511</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.0002454413700227939</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.00346432518293779</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.005050112139879462</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.002379325441515401</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.001626709383890196</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0001751769874829465</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.001673026236442555</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.003824475643075037</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.00316718214101253</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>4.466397972210597E-05</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>3.564969036497809E-05</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0006578945795676133</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>2.037897503653883E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0009269234690088287</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.005338596344849266</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.003755628222986352</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.0002162296830371228</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001187500956536061</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.001863463011940193</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>1.752024778773481E-06</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>7.316464682951736E-05</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0007182711450785124</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>1.895874946106218E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0002162296830371228</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0002236577587595391</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.002389984180419173</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.000322102676999307</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0001590689310403556</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0001844086073235393</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.0017318298179313</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.002634697790465801</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.006537489831791824</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.009350572165478844</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.428648002264045E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.779102363690582E-05</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001584092157519304</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002291149640543249</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002648848421788143</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0003358580835725954</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0004165033509684894</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004584753895327039</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0004746952529750368</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0004840061199887037</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0004856939892911401</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0004982524295063032</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0004982524295063032</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0004982524295063032</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0004991021438189254</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0004991021438189254</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0005046007656172333</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0005492844778823234</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0006036262212791132</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0006511338483065588</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0006939112641534808</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0007438733113539288</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0008557621519560575</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0008896059597807879</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0009165133586368999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0009685278561191316</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.001032416071823569</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.001051958724643694</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.001059257712995075</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.001075726535078543</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001075726535078543</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.001075726535078543</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.001076185597538785</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.001102447177640819</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.001123038622455419</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001144078220233603</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.001189868527609473</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.001252778517877596</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.001317724071550631</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.001401824241301505</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.001473872336759732</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.001539331699245515</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.001589099708918153</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.001623157536224696</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.001695205631682924</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.001703096824629897</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0017071540913162</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0017071540913162</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0017071540913162</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.001708544762089337</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.001715099983099143</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.001725799910525519</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.001725799910525519</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.001729999961902918</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001744764379829586</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001752254231103969</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001752254231103969</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001754808289652539</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.001755455400056129</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.001755455400056129</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.001755455400056129</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.001756631430231296</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.001756631430231296</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.001768137715281552</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.001768137715281552</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001773311528541885</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.001809467275954355</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001813149150598908</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001817206417285211</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001831104956873947</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001843308250493062</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.00184335733647568</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.001857505927085715</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.001857505927085715</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.001860405242788666</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001873932395129377</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.001873932395129377</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.001874432719549365</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.001875289667779493</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.001875289667779493</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001885115915152829</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.001885115915152829</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.001892132300654414</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.001905889189946839</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001915185381853361</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001918710347291286</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001929188901676706</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.001935927111369168</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.00195770211307834</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.00397957527529116</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.09376523327834677</v>
+        <v>0.1960977543254812</v>
       </c>
       <c r="CO2">
-        <v>0.1166381366945721</v>
+        <v>0.1960977543254812</v>
       </c>
       <c r="CP2">
-        <v>0.200191905912017</v>
+        <v>0.3717518947461896</v>
       </c>
       <c r="CQ2">
-        <v>0.2094208200266136</v>
+        <v>0.3717518947461896</v>
       </c>
       <c r="CR2">
-        <v>0.2094842359519543</v>
+        <v>0.3717518947461896</v>
       </c>
       <c r="CS2">
-        <v>0.2151960746744734</v>
+        <v>0.3717518947461896</v>
       </c>
       <c r="CT2">
-        <v>0.2429962648563187</v>
+        <v>0.3717518947461896</v>
       </c>
       <c r="CU2">
-        <v>0.287783597804575</v>
+        <v>0.4202333459845758</v>
       </c>
       <c r="CV2">
-        <v>0.3272297839580562</v>
+        <v>0.4511932485179821</v>
       </c>
       <c r="CW2">
-        <v>0.3505741594532463</v>
+        <v>0.4511932485179821</v>
       </c>
       <c r="CX2">
-        <v>0.4009772387608175</v>
+        <v>0.5180970680473513</v>
       </c>
       <c r="CY2">
-        <v>0.4037398111968742</v>
+        <v>0.5180970680473513</v>
       </c>
       <c r="CZ2">
-        <v>0.4631477713305828</v>
+        <v>0.6145412585944303</v>
       </c>
       <c r="DA2">
-        <v>0.4641349534056345</v>
+        <v>0.6145412585944303</v>
       </c>
       <c r="DB2">
-        <v>0.5276183838607693</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="DC2">
-        <v>0.5493204698159263</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="DD2">
-        <v>0.5519833408544838</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="DE2">
-        <v>0.5520982609149934</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="DF2">
-        <v>0.5523060469691848</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="DG2">
-        <v>0.5684828700545635</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="DH2">
-        <v>0.5694157078170243</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="DI2">
-        <v>0.64494694507966</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DJ2">
-        <v>0.6615258270872413</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DK2">
-        <v>0.6729377309131931</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DL2">
-        <v>0.6788143648867948</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DM2">
-        <v>0.6889917970991312</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DN2">
-        <v>0.6900018013166118</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DO2">
-        <v>0.7112206721060435</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DP2">
-        <v>0.7135497655852803</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DQ2">
-        <v>0.7177998808073067</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DR2">
-        <v>0.717815290921945</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DS2">
-        <v>0.7242707603384837</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DT2">
-        <v>0.7242707603384837</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DU2">
-        <v>0.7253779345725071</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DV2">
-        <v>0.7324710897127145</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DW2">
-        <v>0.7422997845595055</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DX2">
-        <v>0.7439256524062566</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DY2">
-        <v>0.7514292490859361</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="DZ2">
-        <v>0.7519568518208646</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="EA2">
-        <v>0.7535248441261071</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="EB2">
-        <v>0.7621520358327787</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="EC2">
-        <v>0.7799942705049905</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="ED2">
-        <v>0.7810650360682806</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="EE2">
-        <v>0.801032457335544</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="EF2">
-        <v>0.8086287459733384</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="EG2">
-        <v>0.8771403903181627</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.8773445582531975</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.9009677807911101</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.9010009047044013</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.9032536009963343</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.9068702610669913</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.9178802240118205</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.9218208677333792</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.9219589153776158</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.9220471358212804</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.9233752278378228</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.9235713083183087</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.9236574565608179</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.9236574565608179</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.9269085706162814</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.9306973364821941</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.9306973364821941</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.9311957563610752</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.9317394616599242</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.931885029151174</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.9323124844333698</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.9328613310614742</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.9332384449841634</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.9336997856289455</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.9340972335281468</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.939251865734902</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9422330258425662</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9436226091589524</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9436226091589524</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.9449922068200473</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9457770038622395</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9513033664364305</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9515075343714653</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9535096975743329</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9607649608304618</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9625646631740813</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9628112816825171</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9628166110935276</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9642857041804406</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.9690669504435961</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.971062294473295</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9712360889179246</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9712475952029748</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9717760210843699</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.971780613406263</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9718932194024454</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9753220458043239</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.977376708077612</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.977376708077612</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9787698042165102</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.9794411133633065</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.979789984767199</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.980173144353865</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.981829351559143</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9818820590638015</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9826739109311728</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9828497904414348</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9852001369170156</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9852026909755641</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.985348258466814</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.985357139470229</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9855824755320718</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9878873979994539</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9945691806762142</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>1.6462765549448E-07</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.665250328073488E-06</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.665250328073488E-06</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.119882289800229E-06</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.119882289800229E-06</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.698083985018609E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.373731129094347E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.373731129094347E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.373731129094347E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.407372841006628E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.407372841006628E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.564080663483941E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.213883610796995E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6.763114594495441E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>8.362487238158106E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001107632551713568</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001427236123337686</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001880339983984186</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0002117995470840909</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002203970575680235</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0002253041251529656</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002256101362481653</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002325780787953697</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0002327470824222698</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0002327470824222698</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0002497516257426679</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0002515363412472431</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0002515363412472431</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002581442327284897</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.00026006639825017</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0002641835796385398</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0002940721401663138</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0003475762563451075</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0003570300997681056</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0003845392812376881</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0004017520545747277</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0004030548446334954</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0004127509865285384</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0004155519959585218</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0004196691773468916</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0004196691773468916</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0004196691773468916</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.000423392748485141</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0004260981353623632</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0004266501531764933</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0004266501531764933</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0004266501531764933</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0004266501531764933</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0004275107644541357</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0004275107644541357</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0004275107644541357</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0004275107644541357</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0004275107644541357</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0004275107644541357</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000437710019519287</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0004416038103933491</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0004416038103933491</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0004425830764682673</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.0004626216149593191</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0004661150680211407</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.000481297135540191</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0004928489118860659</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0004956499213160493</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0005441118310699213</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.0005674998868248676</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0005730332379955553</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0005823269810853558</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0005925154540250538</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0006043310135671397</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0006045294259826459</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0006045294259826459</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0006045294259826459</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0006146458722036023</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0006403849294748872</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0006526575336967067</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.0006874571855623961</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.0007253614273359817</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.0007580208645617094</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0008113702086989256</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0008497282770701756</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.00089652904727147</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0009840130880854339</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.001102795878998664</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.001197429379794457</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.001270816426541663</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001321012252318956</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.001394399299066162</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.001444940934120659</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.001455727869791434</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001591920094568143</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05548947584669279</v>
+        <v>0.06982357789109385</v>
       </c>
       <c r="CO3">
-        <v>0.06723309347915393</v>
+        <v>0.06982357789109385</v>
       </c>
       <c r="CP3">
-        <v>0.221588744927483</v>
+        <v>0.4332661023803941</v>
       </c>
       <c r="CQ3">
-        <v>0.2634731542996133</v>
+        <v>0.4679776531025589</v>
       </c>
       <c r="CR3">
-        <v>0.2670542833227814</v>
+        <v>0.4679776531025589</v>
       </c>
       <c r="CS3">
-        <v>0.2741684678239501</v>
+        <v>0.4679776531025589</v>
       </c>
       <c r="CT3">
-        <v>0.2813393013731703</v>
+        <v>0.4679776531025589</v>
       </c>
       <c r="CU3">
-        <v>0.2820209749142017</v>
+        <v>0.4679776531025589</v>
       </c>
       <c r="CV3">
-        <v>0.344565235091556</v>
+        <v>0.5630738207962673</v>
       </c>
       <c r="CW3">
-        <v>0.344949405778255</v>
+        <v>0.5630738207962673</v>
       </c>
       <c r="CX3">
-        <v>0.4242206603511165</v>
+        <v>0.7070596517881473</v>
       </c>
       <c r="CY3">
-        <v>0.4338369266688658</v>
+        <v>0.7070596517881473</v>
       </c>
       <c r="CZ3">
-        <v>0.4484883490408733</v>
+        <v>0.7070596517881473</v>
       </c>
       <c r="DA3">
-        <v>0.4737946250715242</v>
+        <v>0.7070596517881473</v>
       </c>
       <c r="DB3">
-        <v>0.4811554930191706</v>
+        <v>0.7070596517881473</v>
       </c>
       <c r="DC3">
-        <v>0.5540768724679163</v>
+        <v>0.8324860662188045</v>
       </c>
       <c r="DD3">
-        <v>0.5541995955837504</v>
+        <v>0.8324860662188045</v>
       </c>
       <c r="DE3">
-        <v>0.5585882514350937</v>
+        <v>0.8324860662188045</v>
       </c>
       <c r="DF3">
-        <v>0.5604692296882938</v>
+        <v>0.8324860662188045</v>
       </c>
       <c r="DG3">
-        <v>0.5659848216681134</v>
+        <v>0.8324860662188045</v>
       </c>
       <c r="DH3">
-        <v>0.5709866868090142</v>
+        <v>0.8324860662188045</v>
       </c>
       <c r="DI3">
-        <v>0.6102248143778042</v>
+        <v>0.8594630638408538</v>
       </c>
       <c r="DJ3">
-        <v>0.6678129680810552</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DK3">
-        <v>0.6686159914755659</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DL3">
-        <v>0.685328686943707</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DM3">
-        <v>0.6893846910420192</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DN3">
-        <v>0.6968610252147948</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DO3">
-        <v>0.7152475915163639</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DP3">
-        <v>0.7244505488603633</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DQ3">
-        <v>0.7276256987744238</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DR3">
-        <v>0.7285799566210096</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DS3">
-        <v>0.7321496327931952</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DT3">
-        <v>0.732863593510681</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DU3">
-        <v>0.7329513038835983</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DV3">
-        <v>0.734099437320198</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DW3">
-        <v>0.747362724936571</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DX3">
-        <v>0.7497294390168063</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DY3">
-        <v>0.7548438993174502</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="DZ3">
-        <v>0.7564964920767975</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="EA3">
-        <v>0.7584890344430547</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="EB3">
-        <v>0.7584909566085763</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="EC3">
-        <v>0.7678858084764628</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="ED3">
-        <v>0.7741168371194498</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="EE3">
-        <v>0.7919429639751434</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="EF3">
-        <v>0.7939333689227007</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="EG3">
-        <v>0.8420652649911829</v>
+        <v>0.9930452286852267</v>
       </c>
       <c r="EH3">
-        <v>0.8744530351503749</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8866391485705537</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.90166086345217</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.9034902688641759</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.905761430215128</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.9174325244618451</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.924593225504044</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.9246393394733108</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.9263114611992073</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.9263890291417666</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.9279493542764359</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.9287201992210513</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.9287201992210513</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.9295205967026077</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.9325293406632271</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.9353404959853325</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.9356437695406437</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.9358063891615432</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.9366169881733298</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.93724590427485</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.93729187419268</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9376242966992278</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9391752982988899</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9391854147451109</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9409507274061453</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9486835544237757</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9487015188488531</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.949185471016739</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.94974885623372</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.9505505220717569</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.9542125236880621</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9589936011898632</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9598095784800778</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9660517052547741</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9688436857294017</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9695550872163547</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9700363368555245</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9700503678850109</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9726413066600443</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9761216150826252</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9768491711014852</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9772015172572929</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9776651126202717</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9777755977211146</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9785677928746658</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9795154012153776</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9825716110362326</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9826472986465365</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9829106361934995</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9850314516911649</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9850423979979237</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9857887361322067</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9866260706637218</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9876160860336543</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.988167094438974</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9882979957747071</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9894970050181254</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9904393621631403</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9905786648137872</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9909410496650725</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9909482223284564</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9922740007975996</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9967599376593549</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>1.36682615681105E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.36682615681105E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1.36682615681105E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.36682615681105E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.893392046257982E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.893392046257982E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2.917159049376686E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.917159049376686E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.917159049376686E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.917159049376686E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.076501307185972E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>5.106971092073178E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>5.106971092073178E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>7.520044055757172E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>7.520044055757172E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>7.520044055757172E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>7.520044055757172E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>8.420866675318113E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>8.653825874248405E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>8.653825874248405E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>8.950432676523931E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>8.950432676523931E-05</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>9.628105456959703E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>9.628105456959703E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.0001049782335211556</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001070564459538665</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0001070564459538665</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0001070564459538665</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0001070564459538665</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0001092317924136268</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0001141279263247599</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0001155915695897633</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0001255803200918956</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0001411148911669482</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0001411148911669482</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0001504879716991484</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.000197991589240428</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.000222771809217639</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0002787297030321622</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0002787297030321622</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0003014877302916901</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.000303817322280993</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0003052809655459964</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0003052809655459964</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0003052809655459964</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0003052809655459964</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0003052809655459964</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.0003052809655459964</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0003052809655459964</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.0003068791941530412</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0003068791941530412</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0003068791941530412</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0003355839122871288</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0003739376447099477</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0003847308101938304</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.0003858585324917231</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0003974176169319724</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0003974176169319724</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0003974176169319724</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0003974176169319724</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0004058754129677429</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0004058754129677429</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0004212701701405972</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0004628610824483356</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0004689615601013745</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0004689615601013745</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0005215995686263537</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0005674402486196297</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0005707090923443334</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0005707090923443334</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0005707090923443334</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.002862252548894887</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.07152596849340692</v>
+        <v>0.1303859297144731</v>
       </c>
       <c r="CO4">
-        <v>0.08256942200684227</v>
+        <v>0.1303859297144731</v>
       </c>
       <c r="CP4">
-        <v>0.1713958782278685</v>
+        <v>0.3288352566932889</v>
       </c>
       <c r="CQ4">
-        <v>0.1842914910817069</v>
+        <v>0.3288352566932889</v>
       </c>
       <c r="CR4">
-        <v>0.1876388878728604</v>
+        <v>0.3288352566932889</v>
       </c>
       <c r="CS4">
-        <v>0.1939389235006135</v>
+        <v>0.3288352566932889</v>
       </c>
       <c r="CT4">
-        <v>0.2076265710673253</v>
+        <v>0.3288352566932889</v>
       </c>
       <c r="CU4">
-        <v>0.2146450178720899</v>
+        <v>0.3288352566932889</v>
       </c>
       <c r="CV4">
-        <v>0.2700786436191419</v>
+        <v>0.414560348019554</v>
       </c>
       <c r="CW4">
-        <v>0.2744589386630227</v>
+        <v>0.414560348019554</v>
       </c>
       <c r="CX4">
-        <v>0.3469707406631325</v>
+        <v>0.557936268495085</v>
       </c>
       <c r="CY4">
-        <v>0.3564374417301207</v>
+        <v>0.557936268495085</v>
       </c>
       <c r="CZ4">
-        <v>0.3690512572275895</v>
+        <v>0.557936268495085</v>
       </c>
       <c r="DA4">
-        <v>0.3848237300534786</v>
+        <v>0.557936268495085</v>
       </c>
       <c r="DB4">
-        <v>0.4191628019663403</v>
+        <v>0.5724524379168731</v>
       </c>
       <c r="DC4">
-        <v>0.4742921094860334</v>
+        <v>0.6571502416760991</v>
       </c>
       <c r="DD4">
-        <v>0.4743889068719365</v>
+        <v>0.6571502416760991</v>
       </c>
       <c r="DE4">
-        <v>0.4784944767379616</v>
+        <v>0.6571502416760991</v>
       </c>
       <c r="DF4">
-        <v>0.4868576060461258</v>
+        <v>0.6571502416760991</v>
       </c>
       <c r="DG4">
-        <v>0.4894559978723638</v>
+        <v>0.6571502416760991</v>
       </c>
       <c r="DH4">
-        <v>0.4912834968990992</v>
+        <v>0.6571502416760991</v>
       </c>
       <c r="DI4">
-        <v>0.5593178224106471</v>
+        <v>0.7854115370161906</v>
       </c>
       <c r="DJ4">
-        <v>0.6092724880481928</v>
+        <v>0.8526412932136694</v>
       </c>
       <c r="DK4">
-        <v>0.6146953663009334</v>
+        <v>0.8526412932136694</v>
       </c>
       <c r="DL4">
-        <v>0.6292005568424403</v>
+        <v>0.8526412932136694</v>
       </c>
       <c r="DM4">
-        <v>0.6397828192975774</v>
+        <v>0.8526412932136694</v>
       </c>
       <c r="DN4">
-        <v>0.6403128085917952</v>
+        <v>0.8526412932136694</v>
       </c>
       <c r="DO4">
-        <v>0.6754547960315116</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DP4">
-        <v>0.6838719848454646</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DQ4">
-        <v>0.6901864217508739</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DR4">
-        <v>0.6901864217508739</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DS4">
-        <v>0.7010379620655609</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DT4">
-        <v>0.701757128539138</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DU4">
-        <v>0.7029242628220161</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DV4">
-        <v>0.7083025798194271</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DW4">
-        <v>0.7223731543110262</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DX4">
-        <v>0.7226658351757884</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DY4">
-        <v>0.7365072514914616</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="DZ4">
-        <v>0.7365072514914616</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="EA4">
-        <v>0.7406980544003402</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="EB4">
-        <v>0.7441411900343587</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="EC4">
-        <v>0.764729517338538</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="ED4">
-        <v>0.7647396826631259</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="EE4">
-        <v>0.7906901928901389</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="EF4">
-        <v>0.7927533101691854</v>
+        <v>0.8698678659697543</v>
       </c>
       <c r="EG4">
-        <v>0.8613418430245474</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8643922787334011</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8918412362062154</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.892983389390239</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.9052975983743293</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.9057501979467157</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.9248657169810193</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.9275178265535202</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.9288020659599666</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.9288799930115098</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.9295210485024131</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.9295210485024131</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.9296121054801662</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.9296121054801662</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.9312018058849066</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.9351856527670398</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.9355879087973834</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.9371115788978398</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.9371115788978398</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.9376256850783513</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.9379545791410704</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.9381249396739672</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.9385221772581509</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.939085962442729</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.9402992917557397</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.9438359687348975</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9465122871419079</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9465625447803101</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9466015886706539</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9476051553619843</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9477306025431022</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9533100263910343</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9541494893730894</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9568343783117054</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.961231109865308</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9623751336118016</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9629571523081388</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9631138710868652</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9642828958648467</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9675392980804116</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9715370798766743</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9715376555030852</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9716713810574894</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9720641835605941</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9720641835605941</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9721123170373358</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9748180891657425</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9784614654321168</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9785217509811336</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9788226350060437</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9800058868765069</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9800058868765069</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9807198565419114</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9820334077373835</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9820334077373835</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9821475501804749</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9826382266720879</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9852141642363885</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9854360214392199</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9855026922321068</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9855519723050467</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9861200009970611</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9880034005436789</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9930886748739879</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>5.477463731290352E-06</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.477463731290352E-06</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1.913678308520167E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.463412133317522E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3.463412133317522E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.463412133317522E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.463412133317522E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.026504329919306E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.026504329919306E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.584382752772823E-05</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.209452706178249E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>8.209452706178249E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>9.043860902752884E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001342772338567708</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001555917365875956</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001867229269241891</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002061630483705065</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0002597603347546013</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0003217157983674973</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0003350673385655177</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0003350673385655177</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0003350673385655177</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.000361528752513796</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0003708094742828054</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0003708094742828054</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0003722699243748722</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0003722699243748722</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0003722699243748722</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003722699243748722</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003722699243748722</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.000378731901281</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0004033959962694518</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0004490089090743311</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0005311715677518438</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0006152812142072186</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0006461464009367831</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0006695960518295947</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0007691959823855768</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0008428397381389685</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0008572794294370227</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0008604547390448064</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0008604547390448064</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0008612876587230602</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0008612876587230602</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0008655547292055921</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0008655547292055921</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0008655547292055921</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0008655547292055921</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0009132049433243309</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0009163407799804534</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0009163407799804534</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0009194766166365758</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0009389167380828932</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0009396193971209085</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0009396193971209085</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0009396193971209085</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0009396193971209085</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.0009396193971209085</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0009396193971209085</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0009473183529006775</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0009473183529006775</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0009501912173184842</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001013527296961169</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001022500287691252</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001027229170757293</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001080500304322419</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001138506177189044</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.001193405799317603</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001214049695925296</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.001226432898267778</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001272236354248922</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001320739607953799</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.00132546849101984</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00132546849101984</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.00132546849101984</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001335152028962675</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.001350250453523067</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001351844569532991</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001351844569532991</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001351844569532991</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001351844569532991</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001351844569532991</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001351844569532991</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001361125291302</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001384968998073933</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.001401219697607987</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001406980116151644</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001410934993749302</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001410934993749302</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01032416524783957</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.08466737303459371</v>
+        <v>0.1583956171604296</v>
       </c>
       <c r="CO5">
-        <v>0.1450591874880111</v>
+        <v>0.2668893338316551</v>
       </c>
       <c r="CP5">
-        <v>0.2190679823770279</v>
+        <v>0.4240888095926935</v>
       </c>
       <c r="CQ5">
-        <v>0.2212085154196931</v>
+        <v>0.4240888095926935</v>
       </c>
       <c r="CR5">
-        <v>0.2228891547432644</v>
+        <v>0.4240888095926935</v>
       </c>
       <c r="CS5">
-        <v>0.2299026262247281</v>
+        <v>0.4240888095926935</v>
       </c>
       <c r="CT5">
-        <v>0.2356755103610039</v>
+        <v>0.4240888095926935</v>
       </c>
       <c r="CU5">
-        <v>0.2817859493537548</v>
+        <v>0.4815003325317545</v>
       </c>
       <c r="CV5">
-        <v>0.3013479488547497</v>
+        <v>0.4815003325317545</v>
       </c>
       <c r="CW5">
-        <v>0.3680624626555457</v>
+        <v>0.6126093325741485</v>
       </c>
       <c r="CX5">
-        <v>0.4008020244454878</v>
+        <v>0.6221953682886769</v>
       </c>
       <c r="CY5">
-        <v>0.4070531700495583</v>
+        <v>0.6221953682886769</v>
       </c>
       <c r="CZ5">
-        <v>0.4397569117673337</v>
+        <v>0.6316532813394631</v>
       </c>
       <c r="DA5">
-        <v>0.4425269956350692</v>
+        <v>0.6316532813394631</v>
       </c>
       <c r="DB5">
-        <v>0.5061980914329022</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="DC5">
-        <v>0.508160961609024</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="DD5">
-        <v>0.5096844730829926</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="DE5">
-        <v>0.5100835966718062</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="DF5">
-        <v>0.5164113701444728</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="DG5">
-        <v>0.5300990903267007</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="DH5">
-        <v>0.5562016667964693</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="DI5">
-        <v>0.6270400650201839</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DJ5">
-        <v>0.628151305236716</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DK5">
-        <v>0.6481436588513254</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DL5">
-        <v>0.6498646614908739</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DM5">
-        <v>0.6648124005528628</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DN5">
-        <v>0.6874677985504306</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DO5">
-        <v>0.7022212513373535</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DP5">
-        <v>0.7051852380481006</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DQ5">
-        <v>0.7078556872217763</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DR5">
-        <v>0.7129352953284464</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DS5">
-        <v>0.7137369041466186</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DT5">
-        <v>0.7152289376031763</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DU5">
-        <v>0.7152872809664215</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DV5">
-        <v>0.7253581722867984</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DW5">
-        <v>0.7329710235529481</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DX5">
-        <v>0.7346125603252349</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DY5">
-        <v>0.7357719401605407</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="DZ5">
-        <v>0.7380674872144469</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="EA5">
-        <v>0.7381515968609023</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="EB5">
-        <v>0.7487241195571261</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="EC5">
-        <v>0.757621899253684</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="ED5">
-        <v>0.7688054853353302</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="EE5">
-        <v>0.7712902824221016</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="EF5">
-        <v>0.8091438704921164</v>
+        <v>0.9256140258568454</v>
       </c>
       <c r="EG5">
-        <v>0.8599999653225058</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8626290462373687</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8793956205614535</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8795138315521566</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8800627956262982</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8883085483623343</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8977484258012134</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8980236422139196</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8986974252004361</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8988805243526142</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.9031492439348114</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.9032483179269054</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.9036818141995446</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.9044213336696549</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.9052618279514104</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.9091497362497207</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.9098378679654227</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.9098810316495923</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.909892663878453</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.9119038072981664</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.9119038072981664</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.9129410962524521</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.9170452468970973</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.9180937977269813</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9183082511457544</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9235570321814535</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9240131036503432</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9243639542261257</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.9248672828586991</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9263369386190935</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9293063296668139</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9393707342190216</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9394118659037654</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9463446600731626</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9511078874149742</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9528419119083121</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9546702905596745</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.955263292281434</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9562726891350287</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9608251496404874</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9627496985645229</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9627496985645229</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9642102088940161</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9642627958645036</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.967890259769235</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.967890259769235</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9720230460219041</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.97242519172694</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9724565532120819</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9766984138048963</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9785325219837117</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9795133167106697</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9809077015008444</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9821285629870092</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9823688964555386</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9831878306285391</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9831878306285391</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9836412242380332</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9836627422173791</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9841776073029994</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9842111512783834</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9854538468392654</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9905794801248854</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9954096491900123</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>2.617505131740536E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.633380416647444E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.633380416647444E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2.633380416647444E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2.729054721200872E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2.729054721200872E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.465500722020874E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3.465500722020874E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.284198825533761E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>5.284198825533761E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.309285883435243E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>6.309285883435243E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>6.677111810347985E-05</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>6.677111810347985E-05</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>8.058335615435203E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>9.836167514800952E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>9.836167514800952E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>9.9143811523541E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001405983849026224</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0003052798797561133</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0003052798797561133</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0003052798797561133</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0003523970034898722</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0003689307422542404</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0003689307422542404</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0003689307422542404</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0003695291887465421</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0003903110830859946</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0003903110830859946</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.000399682574683951</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.000399682574683951</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.000399682574683951</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0004356749961689702</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0004851945278849187</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0004851945278849187</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0004851945278849187</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0005353123310792338</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.000552740923398702</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.000552740923398702</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.000552740923398702</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.000552740923398702</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0005570230512899706</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0005570230512899706</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0005833472747193269</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0005833472747193269</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0005833472747193269</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0005899110354674449</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0006050003328917265</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0006745703796147395</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0007555182683820368</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0007872976531545645</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0008332555081973637</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.000943750002984658</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.001030564946240066</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.001116087718284166</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.00115790938664431</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.001166771642226527</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.001173075193076421</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.001184787519071789</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.001184787519071789</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.001207774807135953</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.001207774807135953</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.001212289517439785</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.001216041959502361</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.001216041959502361</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001216041959502361</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001216041959502361</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.001222107366319043</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001332083877896121</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.001409120165187096</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.001409120165187096</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.001457453179472991</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.00150857554864586</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001523809249077376</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.00153964056355927</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.001566297274439977</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.001569975533709104</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.001569987062014101</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.001569987062014101</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.001575120521627492</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001579385725501122</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.001579385725501122</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.001579385725501122</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.001588539408804555</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.001602124284841375</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.001663095413616571</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.00169718433190945</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.001737727666066262</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.001760294196214467</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.002756855349778948</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.06543267157305828</v>
+        <v>0.1246176160466449</v>
       </c>
       <c r="CO6">
-        <v>0.08681051556555497</v>
+        <v>0.1246176160466449</v>
       </c>
       <c r="CP6">
-        <v>0.1695424934719191</v>
+        <v>0.3257616822743882</v>
       </c>
       <c r="CQ6">
-        <v>0.1727884541982692</v>
+        <v>0.3257616822743882</v>
       </c>
       <c r="CR6">
-        <v>0.1746135005006982</v>
+        <v>0.3257616822743882</v>
       </c>
       <c r="CS6">
-        <v>0.1787182501038237</v>
+        <v>0.3257616822743882</v>
       </c>
       <c r="CT6">
-        <v>0.1880372066873666</v>
+        <v>0.3257616822743882</v>
       </c>
       <c r="CU6">
-        <v>0.193925282146457</v>
+        <v>0.3257616822743882</v>
       </c>
       <c r="CV6">
-        <v>0.2384374467221805</v>
+        <v>0.3810739244973957</v>
       </c>
       <c r="CW6">
-        <v>0.2440611552768102</v>
+        <v>0.3810739244973957</v>
       </c>
       <c r="CX6">
-        <v>0.326473640191296</v>
+        <v>0.5809989307219074</v>
       </c>
       <c r="CY6">
-        <v>0.3346087290697717</v>
+        <v>0.5809989307219074</v>
       </c>
       <c r="CZ6">
-        <v>0.3684360817680591</v>
+        <v>0.5955421196857047</v>
       </c>
       <c r="DA6">
-        <v>0.3863700647861421</v>
+        <v>0.5955421196857047</v>
       </c>
       <c r="DB6">
-        <v>0.4286054841869268</v>
+        <v>0.6421671948944997</v>
       </c>
       <c r="DC6">
-        <v>0.4722931890343591</v>
+        <v>0.694333622014879</v>
       </c>
       <c r="DD6">
-        <v>0.4746725144758746</v>
+        <v>0.694333622014879</v>
       </c>
       <c r="DE6">
-        <v>0.4777698045167053</v>
+        <v>0.694333622014879</v>
       </c>
       <c r="DF6">
-        <v>0.485505997711668</v>
+        <v>0.694333622014879</v>
       </c>
       <c r="DG6">
-        <v>0.4903908046368485</v>
+        <v>0.694333622014879</v>
       </c>
       <c r="DH6">
-        <v>0.4922947986347068</v>
+        <v>0.694333622014879</v>
       </c>
       <c r="DI6">
-        <v>0.5574503741963784</v>
+        <v>0.8284130275339654</v>
       </c>
       <c r="DJ6">
-        <v>0.6030563398432435</v>
+        <v>0.8878987858315535</v>
       </c>
       <c r="DK6">
-        <v>0.6097290242875493</v>
+        <v>0.8878987858315535</v>
       </c>
       <c r="DL6">
-        <v>0.6221107027216212</v>
+        <v>0.8878987858315535</v>
       </c>
       <c r="DM6">
-        <v>0.6311625223974144</v>
+        <v>0.8878987858315535</v>
       </c>
       <c r="DN6">
-        <v>0.6311835747628322</v>
+        <v>0.8878987858315535</v>
       </c>
       <c r="DO6">
-        <v>0.6620786665414492</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DP6">
-        <v>0.6666208661271706</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DQ6">
-        <v>0.6718939059943547</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DR6">
-        <v>0.6719214369733894</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DS6">
-        <v>0.6803668728896718</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DT6">
-        <v>0.6803900322397494</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DU6">
-        <v>0.6821604402723327</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DV6">
-        <v>0.6853202877384273</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DW6">
-        <v>0.6941996841656385</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DX6">
-        <v>0.6960244737009105</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DY6">
-        <v>0.713493329918621</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="DZ6">
-        <v>0.71368376863158</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="EA6">
-        <v>0.7176516262171706</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="EB6">
-        <v>0.7223006556497713</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="EC6">
-        <v>0.7439905798083518</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="ED6">
-        <v>0.7439905798083518</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="EE6">
-        <v>0.773161229964998</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="EF6">
-        <v>0.7745719014068757</v>
+        <v>0.8912536166871093</v>
       </c>
       <c r="EG6">
-        <v>0.8326054054567309</v>
+        <v>0.9981579894483118</v>
       </c>
       <c r="EH6">
-        <v>0.8349249280662394</v>
+        <v>0.9981579894483118</v>
       </c>
       <c r="EI6">
-        <v>0.865423537732593</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ6">
-        <v>0.8658447210717052</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK6">
-        <v>0.8772127396070256</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL6">
-        <v>0.8788960749547623</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM6">
-        <v>0.9022561814121647</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN6">
-        <v>0.9047923891850308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO6">
-        <v>0.9055281852789575</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP6">
-        <v>0.9055555641149461</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ6">
-        <v>0.906393424553381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER6">
-        <v>0.906393424553381</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES6">
-        <v>0.9065322936341962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET6">
-        <v>0.9065322936341962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU6">
-        <v>0.910272892372897</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV6">
-        <v>0.9170053675413273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW6">
-        <v>0.9175641949275503</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX6">
-        <v>0.9194551128127797</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY6">
-        <v>0.9205630664835496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ6">
-        <v>0.9222697510317576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA6">
-        <v>0.9225200439401613</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB6">
-        <v>0.9227870170074498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC6">
-        <v>0.9232148460129311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD6">
-        <v>0.9236773241752241</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE6">
-        <v>0.9257666084982095</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF6">
-        <v>0.9296388338266197</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG6">
-        <v>0.9330535664244833</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH6">
-        <v>0.9333691961375438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI6">
-        <v>0.9334165506117942</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ6">
-        <v>0.935649148232607</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK6">
-        <v>0.9356562424481845</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL6">
-        <v>0.9397851085512979</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM6">
-        <v>0.9400305499213207</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN6">
-        <v>0.9434948751042586</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO6">
-        <v>0.948544987244138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP6">
-        <v>0.9509243126856535</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ6">
-        <v>0.9525510220695437</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR6">
-        <v>0.9527261990570266</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS6">
-        <v>0.9543992252934692</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT6">
-        <v>0.9582237009365443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU6">
-        <v>0.9613908830775568</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV6">
-        <v>0.961435547057279</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW6">
-        <v>0.9614711967476439</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX6">
-        <v>0.9621290913272116</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY6">
-        <v>0.9621494703022481</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ6">
-        <v>0.9630763937712569</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA6">
-        <v>0.9684149901161061</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB6">
-        <v>0.9721706183390925</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC6">
-        <v>0.9723868480221296</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD6">
-        <v>0.9735743489786657</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE6">
-        <v>0.9754378119906059</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF6">
-        <v>0.9754395640153847</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG6">
-        <v>0.9755127286622142</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH6">
-        <v>0.9762309998072927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI6">
-        <v>0.9762499585567538</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ6">
-        <v>0.9764661882397909</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK6">
-        <v>0.9766898459985505</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL6">
-        <v>0.9790798301789696</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM6">
-        <v>0.9794019328559689</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN6">
-        <v>0.9795610017870092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO6">
-        <v>0.9797454103943327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP6">
-        <v>0.981477240212264</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ6">
-        <v>0.9841119380027298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR6">
-        <v>0.9906494278345216</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.00195770211307834</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5276183838607693</v>
+        <v>0.5180970680473513</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -10611,16 +10611,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.05548947584669279</v>
+        <v>0.06982357789109385</v>
       </c>
       <c r="F3">
-        <v>0.5540768724679163</v>
+        <v>0.5630738207962673</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.07152596849340692</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5593178224106471</v>
+        <v>0.557936268495085</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0.01032416524783957</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5061980914329022</v>
+        <v>0.6126093325741485</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E6">
-        <v>0.002756855349778948</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5574503741963784</v>
+        <v>0.5809989307219074</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.00195770211307834</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7112206721060435</v>
+        <v>0.7243549659281333</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -10870,16 +10870,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.05548947584669279</v>
+        <v>0.06982357789109385</v>
       </c>
       <c r="F3">
-        <v>0.7152475915163639</v>
+        <v>0.7070596517881473</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E4">
-        <v>0.07152596849340692</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7010379620655609</v>
+        <v>0.7854115370161906</v>
       </c>
       <c r="G4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E5">
-        <v>0.01032416524783957</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7022212513373535</v>
+        <v>0.7518764624029016</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>0.002756855349778948</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.713493329918621</v>
+        <v>0.8284130275339654</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>0.00195770211307834</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.801032457335544</v>
+        <v>0.8736913154727409</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -11129,16 +11129,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.05548947584669279</v>
+        <v>0.06982357789109385</v>
       </c>
       <c r="F3">
-        <v>0.8420652649911829</v>
+        <v>0.8324860662188045</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E4">
-        <v>0.07152596849340692</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8613418430245474</v>
+        <v>0.8526412932136694</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>0.01032416524783957</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8091438704921164</v>
+        <v>0.8977359368376798</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>0.002756855349778948</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8326054054567309</v>
+        <v>0.8284130275339654</v>
       </c>
       <c r="G6">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>54</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>0.00195770211307834</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9009677807911101</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -11388,16 +11388,16 @@
         <v>91</v>
       </c>
       <c r="D3">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>0.05548947584669279</v>
+        <v>0.06982357789109385</v>
       </c>
       <c r="F3">
-        <v>0.90166086345217</v>
+        <v>0.9400735223234753</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E4">
-        <v>0.07152596849340692</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9052975983743293</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4">
         <v>54</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E5">
-        <v>0.01032416524783957</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9031492439348114</v>
+        <v>0.9256140258568454</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E6">
-        <v>0.002756855349778948</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9022561814121647</v>
+        <v>0.9981579894483118</v>
       </c>
       <c r="G6">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>54</v>

--- a/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/54_11R22.xlsx
@@ -183,7 +183,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ50</t>
+    <t>710R</t>
   </si>
   <si>
     <t>50%</t>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1988744399481421</v>
+        <v>0.1481908664939793</v>
       </c>
       <c r="F2">
-        <v>0.003687834293421185</v>
+        <v>0.02812090352601898</v>
       </c>
       <c r="G2">
-        <v>0.1806958247290865</v>
+        <v>0.1370082054254122</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00363777919049452</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -695,34 +695,34 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01806088446610212</v>
+        <v>0.036962553270281</v>
       </c>
       <c r="L2">
-        <v>0.06761291317604373</v>
+        <v>0.06744471792616342</v>
       </c>
       <c r="M2">
-        <v>0.05203262030642512</v>
+        <v>0.05786042713115704</v>
       </c>
       <c r="N2">
-        <v>0.005063133148211238</v>
+        <v>0.02896692511654058</v>
       </c>
       <c r="O2">
-        <v>0.08399422159565362</v>
+        <v>0.07752175722254161</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.1102617416466812</v>
+        <v>0.09368034632863149</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1221500165114301</v>
+        <v>0.1009934747985656</v>
       </c>
       <c r="T2">
-        <v>0.0002725230051875658</v>
+        <v>0.02601995864546872</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -734,31 +734,31 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.01610528524338017</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.1572938471736156</v>
+        <v>0.1226123683287161</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.01682675008514151</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.007554991916533423</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.005339824392089847</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.02515286495888441</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -787,16 +787,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08205339613481134</v>
+        <v>0.08350278304330025</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.007955913547845212</v>
       </c>
       <c r="G3">
-        <v>0.339798761206412</v>
+        <v>0.2635404019195997</v>
       </c>
       <c r="H3">
-        <v>0.05123126300644845</v>
+        <v>0.06197322632138894</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -811,28 +811,28 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1042382481698997</v>
+        <v>0.09899911576847177</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1471547025098113</v>
+        <v>0.128976672291456</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.004143346103083621</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.01316718335977072</v>
       </c>
       <c r="R3">
-        <v>0.008696741515745749</v>
+        <v>0.03226245357053233</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0001012970341986435</v>
       </c>
       <c r="T3">
-        <v>0.1308628260743499</v>
+        <v>0.1175966397556526</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -850,28 +850,28 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.04444169702117527</v>
+        <v>0.05723064911596557</v>
       </c>
       <c r="AA3">
-        <v>0.09152236436134618</v>
+        <v>0.09011694850946524</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.01686132764460687</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.0003082317176486914</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.01986118262959685</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.003402627667417083</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -897,16 +897,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1405431733625528</v>
+        <v>0.1193709503249718</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.007873279081833573</v>
       </c>
       <c r="G4">
-        <v>0.1999268644393897</v>
+        <v>0.1583867147776357</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0114572865908792</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -915,34 +915,34 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0129899076221484</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.471901944922141E-05</v>
       </c>
       <c r="M4">
-        <v>0.1015776568489173</v>
+        <v>0.09377016016685748</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1518766305429183</v>
+        <v>0.1268171613597717</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.004822195687063038</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.01091199665862206</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.01702413363118816</v>
       </c>
       <c r="S4">
-        <v>0.03944957053158351</v>
+        <v>0.05295129664226665</v>
       </c>
       <c r="T4">
-        <v>0.1006813729433227</v>
+        <v>0.09318129138640148</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.002686737152736487</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -960,28 +960,28 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.1386894805348278</v>
+        <v>0.1181530529288579</v>
       </c>
       <c r="AA4">
-        <v>0.08544091798787015</v>
+        <v>0.08316813811298854</v>
       </c>
       <c r="AB4">
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01457188823079066</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.006980854666725834</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.04181433280861769</v>
+        <v>0.05450497251377709</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.002791344607643968</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.007501918837390856</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.003338447538727708</v>
       </c>
       <c r="E5">
-        <v>0.1579755245310644</v>
+        <v>0.1242065356902016</v>
       </c>
       <c r="F5">
-        <v>0.1163894673777379</v>
+        <v>0.09843427803647074</v>
       </c>
       <c r="G5">
-        <v>0.1569787127040418</v>
+        <v>0.1235887783696749</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1028,28 +1028,28 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.073819805556488</v>
+        <v>0.07205244797635196</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02300980352226031</v>
       </c>
       <c r="N5">
-        <v>0.1352360535316171</v>
+        <v>0.1101141319947381</v>
       </c>
       <c r="O5">
-        <v>0.0339641402289646</v>
+        <v>0.04735257147700851</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.03385736841537048</v>
+        <v>0.04728640144603014</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1261642890140003</v>
+        <v>0.1044920589124071</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1064,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.01215831102140075</v>
       </c>
       <c r="Y5">
-        <v>0.01418073621647702</v>
+        <v>0.03509214044845884</v>
       </c>
       <c r="Z5">
-        <v>0.1475284525205708</v>
+        <v>0.1177321389810156</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.02380479201075162</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.01448593023776771</v>
       </c>
       <c r="AE5">
-        <v>0.003905449903667396</v>
+        <v>0.02872420502858455</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.0141270273081497</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1277426176203382</v>
+        <v>0.1104359488344994</v>
       </c>
       <c r="F6">
-        <v>0.003166415019443898</v>
+        <v>0.02885098847905856</v>
       </c>
       <c r="G6">
-        <v>0.1882424515411407</v>
+        <v>0.1500572926296104</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1135,34 +1135,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.005028418070700999</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.07295158006108068</v>
+        <v>0.07455329601816285</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1872786942054683</v>
+        <v>0.1494261279096919</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.002689664021367601</v>
       </c>
       <c r="Q6">
-        <v>0.04072062010601154</v>
+        <v>0.05344523897956083</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.02204757305960203</v>
       </c>
       <c r="S6">
-        <v>0.06608373031294298</v>
+        <v>0.07005554092745729</v>
       </c>
       <c r="T6">
-        <v>0.07046457993492611</v>
+        <v>0.07292455953029336</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.001901637714809414</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.1352228638662002</v>
+        <v>0.1153347624174815</v>
       </c>
       <c r="AA6">
-        <v>0.07625105401786814</v>
+        <v>0.07671412165209802</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.01107888561808563</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.004500683829745107</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0318753933145792</v>
+        <v>0.04765249957951822</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.003302760728256813</v>
       </c>
     </row>
   </sheetData>
@@ -1350,100 +1350,100 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1988744399481421</v>
+        <v>0.1481908664939793</v>
       </c>
       <c r="F2">
-        <v>0.2025622742415632</v>
+        <v>0.1763117700199982</v>
       </c>
       <c r="G2">
-        <v>0.3832580989706498</v>
+        <v>0.3133199754454105</v>
       </c>
       <c r="H2">
-        <v>0.3832580989706498</v>
+        <v>0.316957754635905</v>
       </c>
       <c r="I2">
-        <v>0.3832580989706498</v>
+        <v>0.316957754635905</v>
       </c>
       <c r="J2">
-        <v>0.3832580989706498</v>
+        <v>0.316957754635905</v>
       </c>
       <c r="K2">
-        <v>0.4013189834367519</v>
+        <v>0.353920307906186</v>
       </c>
       <c r="L2">
-        <v>0.4689318966127956</v>
+        <v>0.4213650258323494</v>
       </c>
       <c r="M2">
-        <v>0.5209645169192207</v>
+        <v>0.4792254529635064</v>
       </c>
       <c r="N2">
-        <v>0.526027650067432</v>
+        <v>0.508192378080047</v>
       </c>
       <c r="O2">
-        <v>0.6100218716630856</v>
+        <v>0.5857141353025886</v>
       </c>
       <c r="P2">
-        <v>0.6100218716630856</v>
+        <v>0.5857141353025886</v>
       </c>
       <c r="Q2">
-        <v>0.7202836133097668</v>
+        <v>0.6793944816312202</v>
       </c>
       <c r="R2">
-        <v>0.7202836133097668</v>
+        <v>0.6793944816312202</v>
       </c>
       <c r="S2">
-        <v>0.8424336298211968</v>
+        <v>0.7803879564297858</v>
       </c>
       <c r="T2">
-        <v>0.8427061528263844</v>
+        <v>0.8064079150752544</v>
       </c>
       <c r="U2">
-        <v>0.8427061528263844</v>
+        <v>0.8064079150752544</v>
       </c>
       <c r="V2">
-        <v>0.8427061528263844</v>
+        <v>0.8064079150752544</v>
       </c>
       <c r="W2">
-        <v>0.8427061528263844</v>
+        <v>0.8064079150752544</v>
       </c>
       <c r="X2">
-        <v>0.8427061528263844</v>
+        <v>0.8225132003186346</v>
       </c>
       <c r="Y2">
-        <v>0.8427061528263844</v>
+        <v>0.8225132003186346</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9451255686473506</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9619523187324921</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9695073106490255</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9695073106490255</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9748471350411153</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9748471350411153</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1460,88 +1460,88 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08205339613481134</v>
+        <v>0.08350278304330025</v>
       </c>
       <c r="F3">
-        <v>0.08205339613481134</v>
+        <v>0.09145869659114546</v>
       </c>
       <c r="G3">
-        <v>0.4218521573412233</v>
+        <v>0.3549990985107452</v>
       </c>
       <c r="H3">
-        <v>0.4730834203476718</v>
+        <v>0.4169723248321341</v>
       </c>
       <c r="I3">
-        <v>0.4730834203476718</v>
+        <v>0.4169723248321341</v>
       </c>
       <c r="J3">
-        <v>0.4730834203476718</v>
+        <v>0.4169723248321341</v>
       </c>
       <c r="K3">
-        <v>0.4730834203476718</v>
+        <v>0.4169723248321341</v>
       </c>
       <c r="L3">
-        <v>0.4730834203476718</v>
+        <v>0.4169723248321341</v>
       </c>
       <c r="M3">
-        <v>0.5773216685175715</v>
+        <v>0.5159714406006058</v>
       </c>
       <c r="N3">
-        <v>0.5773216685175715</v>
+        <v>0.5159714406006058</v>
       </c>
       <c r="O3">
-        <v>0.7244763710273828</v>
+        <v>0.6449481128920619</v>
       </c>
       <c r="P3">
-        <v>0.7244763710273828</v>
+        <v>0.6490914589951455</v>
       </c>
       <c r="Q3">
-        <v>0.7244763710273828</v>
+        <v>0.6622586423549163</v>
       </c>
       <c r="R3">
-        <v>0.7331731125431286</v>
+        <v>0.6945210959254486</v>
       </c>
       <c r="S3">
-        <v>0.7331731125431286</v>
+        <v>0.6946223929596472</v>
       </c>
       <c r="T3">
-        <v>0.8640359386174785</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="U3">
-        <v>0.8640359386174785</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="V3">
-        <v>0.8640359386174785</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="W3">
-        <v>0.8640359386174785</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="X3">
-        <v>0.8640359386174785</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="Y3">
-        <v>0.8640359386174785</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="Z3">
-        <v>0.9084776356386538</v>
+        <v>0.8694496818312654</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.9595666303407306</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9595666303407306</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9764279579853375</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9764279579853375</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9767361897029863</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9965973723325831</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -1570,100 +1570,100 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1405431733625528</v>
+        <v>0.1193709503249718</v>
       </c>
       <c r="F4">
-        <v>0.1405431733625528</v>
+        <v>0.1272442294068054</v>
       </c>
       <c r="G4">
-        <v>0.3404700378019426</v>
+        <v>0.2856309441844411</v>
       </c>
       <c r="H4">
-        <v>0.3404700378019426</v>
+        <v>0.2970882307753203</v>
       </c>
       <c r="I4">
-        <v>0.3404700378019426</v>
+        <v>0.2970882307753203</v>
       </c>
       <c r="J4">
-        <v>0.3404700378019426</v>
+        <v>0.2970882307753203</v>
       </c>
       <c r="K4">
-        <v>0.3404700378019426</v>
+        <v>0.3100781383974687</v>
       </c>
       <c r="L4">
-        <v>0.3404700378019426</v>
+        <v>0.3101628574169179</v>
       </c>
       <c r="M4">
-        <v>0.4420476946508599</v>
+        <v>0.4039330175837754</v>
       </c>
       <c r="N4">
-        <v>0.4420476946508599</v>
+        <v>0.4039330175837754</v>
       </c>
       <c r="O4">
-        <v>0.5939243251937781</v>
+        <v>0.530750178943547</v>
       </c>
       <c r="P4">
-        <v>0.5939243251937781</v>
+        <v>0.53557237463061</v>
       </c>
       <c r="Q4">
-        <v>0.5939243251937781</v>
+        <v>0.5464843712892321</v>
       </c>
       <c r="R4">
-        <v>0.5939243251937781</v>
+        <v>0.5635085049204203</v>
       </c>
       <c r="S4">
-        <v>0.6333738957253616</v>
+        <v>0.6164598015626869</v>
       </c>
       <c r="T4">
-        <v>0.7340552686686843</v>
+        <v>0.7096410929490884</v>
       </c>
       <c r="U4">
-        <v>0.7340552686686843</v>
+        <v>0.7096410929490884</v>
       </c>
       <c r="V4">
-        <v>0.7340552686686843</v>
+        <v>0.7096410929490884</v>
       </c>
       <c r="W4">
-        <v>0.7340552686686843</v>
+        <v>0.7123278301018249</v>
       </c>
       <c r="X4">
-        <v>0.7340552686686843</v>
+        <v>0.7123278301018249</v>
       </c>
       <c r="Y4">
-        <v>0.7340552686686843</v>
+        <v>0.7123278301018249</v>
       </c>
       <c r="Z4">
-        <v>0.8727447492035121</v>
+        <v>0.8304808830306828</v>
       </c>
       <c r="AA4">
-        <v>0.9581856671913822</v>
+        <v>0.9136490211436713</v>
       </c>
       <c r="AB4">
-        <v>0.9581856671913822</v>
+        <v>0.9136490211436713</v>
       </c>
       <c r="AC4">
-        <v>0.9581856671913822</v>
+        <v>0.928220909374462</v>
       </c>
       <c r="AD4">
-        <v>0.9581856671913822</v>
+        <v>0.9352017640411878</v>
       </c>
       <c r="AE4">
-        <v>0.9581856671913822</v>
+        <v>0.9352017640411878</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>0.9897067365549649</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>0.9924980811626088</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>0.9924980811626088</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>0.9924980811626088</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.003338447538727708</v>
       </c>
       <c r="E5">
-        <v>0.1579755245310644</v>
+        <v>0.1275449832289293</v>
       </c>
       <c r="F5">
-        <v>0.2743649919088024</v>
+        <v>0.2259792612654001</v>
       </c>
       <c r="G5">
-        <v>0.4313437046128442</v>
+        <v>0.3495680396350749</v>
       </c>
       <c r="H5">
-        <v>0.4313437046128442</v>
+        <v>0.3495680396350749</v>
       </c>
       <c r="I5">
-        <v>0.4313437046128442</v>
+        <v>0.3495680396350749</v>
       </c>
       <c r="J5">
-        <v>0.4313437046128442</v>
+        <v>0.3495680396350749</v>
       </c>
       <c r="K5">
-        <v>0.4313437046128442</v>
+        <v>0.3495680396350749</v>
       </c>
       <c r="L5">
-        <v>0.5051635101693323</v>
+        <v>0.4216204876114269</v>
       </c>
       <c r="M5">
-        <v>0.5051635101693323</v>
+        <v>0.4446302911336872</v>
       </c>
       <c r="N5">
-        <v>0.6403995637009494</v>
+        <v>0.5547444231284253</v>
       </c>
       <c r="O5">
-        <v>0.674363703929914</v>
+        <v>0.6020969946054339</v>
       </c>
       <c r="P5">
-        <v>0.674363703929914</v>
+        <v>0.6020969946054339</v>
       </c>
       <c r="Q5">
-        <v>0.7082210723452844</v>
+        <v>0.649383396051464</v>
       </c>
       <c r="R5">
-        <v>0.7082210723452844</v>
+        <v>0.649383396051464</v>
       </c>
       <c r="S5">
-        <v>0.8343853613592846</v>
+        <v>0.7538754549638711</v>
       </c>
       <c r="T5">
-        <v>0.8343853613592846</v>
+        <v>0.7538754549638711</v>
       </c>
       <c r="U5">
-        <v>0.8343853613592846</v>
+        <v>0.7538754549638711</v>
       </c>
       <c r="V5">
-        <v>0.8343853613592846</v>
+        <v>0.7538754549638711</v>
       </c>
       <c r="W5">
-        <v>0.8343853613592846</v>
+        <v>0.7538754549638711</v>
       </c>
       <c r="X5">
-        <v>0.8343853613592846</v>
+        <v>0.7660337659852718</v>
       </c>
       <c r="Y5">
-        <v>0.8485660975757616</v>
+        <v>0.8011259064337307</v>
       </c>
       <c r="Z5">
-        <v>0.9960945500963325</v>
+        <v>0.9188580454147462</v>
       </c>
       <c r="AA5">
-        <v>0.9960945500963325</v>
+        <v>0.9188580454147462</v>
       </c>
       <c r="AB5">
-        <v>0.9960945500963325</v>
+        <v>0.9426628374254978</v>
       </c>
       <c r="AC5">
-        <v>0.9960945500963325</v>
+        <v>0.9426628374254978</v>
       </c>
       <c r="AD5">
-        <v>0.9960945500963325</v>
+        <v>0.9571487676632655</v>
       </c>
       <c r="AE5">
-        <v>0.9999999999999999</v>
+        <v>0.98587297269185</v>
       </c>
       <c r="AF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1790,97 +1790,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1277426176203382</v>
+        <v>0.1104359488344994</v>
       </c>
       <c r="F6">
-        <v>0.1309090326397821</v>
+        <v>0.139286937313558</v>
       </c>
       <c r="G6">
-        <v>0.3191514841809228</v>
+        <v>0.2893442299431684</v>
       </c>
       <c r="H6">
-        <v>0.3191514841809228</v>
+        <v>0.2893442299431684</v>
       </c>
       <c r="I6">
-        <v>0.3191514841809228</v>
+        <v>0.2893442299431684</v>
       </c>
       <c r="J6">
-        <v>0.3191514841809228</v>
+        <v>0.2893442299431684</v>
       </c>
       <c r="K6">
-        <v>0.3191514841809228</v>
+        <v>0.2943726480138694</v>
       </c>
       <c r="L6">
-        <v>0.3191514841809228</v>
+        <v>0.2943726480138694</v>
       </c>
       <c r="M6">
-        <v>0.3921030642420035</v>
+        <v>0.3689259440320323</v>
       </c>
       <c r="N6">
-        <v>0.3921030642420035</v>
+        <v>0.3689259440320323</v>
       </c>
       <c r="O6">
-        <v>0.5793817584474718</v>
+        <v>0.5183520719417242</v>
       </c>
       <c r="P6">
-        <v>0.5793817584474718</v>
+        <v>0.5210417359630918</v>
       </c>
       <c r="Q6">
-        <v>0.6201023785534833</v>
+        <v>0.5744869749426527</v>
       </c>
       <c r="R6">
-        <v>0.6201023785534833</v>
+        <v>0.5965345480022547</v>
       </c>
       <c r="S6">
-        <v>0.6861861088664263</v>
+        <v>0.6665900889297119</v>
       </c>
       <c r="T6">
-        <v>0.7566506888013524</v>
+        <v>0.7395146484600053</v>
       </c>
       <c r="U6">
-        <v>0.7566506888013524</v>
+        <v>0.7395146484600053</v>
       </c>
       <c r="V6">
-        <v>0.7566506888013524</v>
+        <v>0.7395146484600053</v>
       </c>
       <c r="W6">
-        <v>0.7566506888013524</v>
+        <v>0.7414162861748147</v>
       </c>
       <c r="X6">
-        <v>0.7566506888013524</v>
+        <v>0.7414162861748147</v>
       </c>
       <c r="Y6">
-        <v>0.7566506888013524</v>
+        <v>0.7414162861748147</v>
       </c>
       <c r="Z6">
-        <v>0.8918735526675526</v>
+        <v>0.8567510485922962</v>
       </c>
       <c r="AA6">
-        <v>0.9681246066854208</v>
+        <v>0.9334651702443942</v>
       </c>
       <c r="AB6">
-        <v>0.9681246066854208</v>
+        <v>0.9334651702443942</v>
       </c>
       <c r="AC6">
-        <v>0.9681246066854208</v>
+        <v>0.9445440558624799</v>
       </c>
       <c r="AD6">
-        <v>0.9681246066854208</v>
+        <v>0.949044739692225</v>
       </c>
       <c r="AE6">
-        <v>0.9681246066854208</v>
+        <v>0.949044739692225</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9966972392717433</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9966972392717433</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9966972392717433</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9966972392717433</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -1951,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5209645169192207</v>
+        <v>0.508192378080047</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5773216685175715</v>
+        <v>0.5159714406006058</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5939243251937781</v>
+        <v>0.530750178943547</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -2074,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5547444231284253</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5051635101693323</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5793817584474718</v>
+        <v>0.5183520719417242</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -2210,16 +2210,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.7803879564297858</v>
+      </c>
+      <c r="G2">
         <v>16</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7202836133097668</v>
-      </c>
-      <c r="G2">
-        <v>14</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -2251,16 +2251,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7244763710273828</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7340552686686843</v>
+        <v>0.7096410929490884</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.7538754549638711</v>
+      </c>
+      <c r="G5">
         <v>16</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7082210723452844</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7566506888013524</v>
+        <v>0.7395146484600053</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2469,16 +2469,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8424336298211968</v>
+        <v>0.8064079150752544</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>54</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8640359386174785</v>
+        <v>0.8122190327152998</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8727447492035121</v>
+        <v>0.8304808830306828</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8343853613592846</v>
+        <v>0.8011259064337307</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>54</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8918735526675526</v>
+        <v>0.8567510485922962</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.9451255686473506</v>
       </c>
       <c r="G2">
         <v>23</v>
@@ -2769,16 +2769,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9084776356386538</v>
+        <v>0.9595666303407306</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>54</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9581856671913822</v>
+        <v>0.9136490211436713</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9960945500963325</v>
+        <v>0.9188580454147462</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9681246066854208</v>
+        <v>0.9334651702443942</v>
       </c>
       <c r="G6">
         <v>24</v>
